--- a/results/df-water-access.xlsx
+++ b/results/df-water-access.xlsx
@@ -1,417 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\Desktop\2020-2021\Fall of 2020\Independent Study\water-accessibility\results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAD618E-6E34-4DE0-A47B-F80DFB01B214}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3312" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="df-water-access" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>ptap</t>
-  </si>
-  <si>
-    <t>bore</t>
-  </si>
-  <si>
-    <t>pspr</t>
-  </si>
-  <si>
-    <t>uspr</t>
-  </si>
-  <si>
-    <t>pwel</t>
-  </si>
-  <si>
-    <t>uwel</t>
-  </si>
-  <si>
-    <t>surw</t>
-  </si>
-  <si>
-    <t>tles</t>
-  </si>
-  <si>
-    <t>tmor</t>
-  </si>
-  <si>
-    <t>rain</t>
-  </si>
-  <si>
-    <t>phom</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Burki0 Faso</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>Congo Democratic Republic</t>
-  </si>
-  <si>
-    <t>Cote d'Ivoire</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Gha0</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Guya0</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Kyrgyz Republic</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Moldova</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>0mibia</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>Viet0m</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -424,196 +31,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -621,215 +48,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -844,44 +77,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -908,32 +141,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -960,24 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -989,202 +186,305 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>12</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ptap</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>bore</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pspr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>uspr</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>pwel</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>uwel</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>surw</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>tles</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>tmor</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>rain</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>phom</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>imws</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>pipy</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>truc</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ctan</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>bott</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>uiws</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>othw</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>iwsp</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>basw</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>liws</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>watp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Afghanistan</t>
+        </is>
       </c>
       <c r="B2">
         <v>14.2</v>
       </c>
       <c r="C2">
-        <v>20.100000000000001</v>
+        <v>20.1</v>
       </c>
       <c r="D2">
         <v>4.7</v>
@@ -1205,18 +505,53 @@
         <v>45.2</v>
       </c>
       <c r="J2">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K2">
         <v>0.4</v>
       </c>
       <c r="L2">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
+        <v>2.3</v>
+      </c>
+      <c r="M2">
+        <v>71.2</v>
+      </c>
+      <c r="N2">
+        <v>4.8</v>
+      </c>
+      <c r="O2">
+        <v>1.5</v>
+      </c>
+      <c r="P2">
+        <v>4.4</v>
+      </c>
+      <c r="Q2">
+        <v>0.2</v>
+      </c>
+      <c r="R2">
+        <v>28.7</v>
+      </c>
+      <c r="S2">
+        <v>1.7</v>
+      </c>
+      <c r="T2">
+        <v>35.4</v>
+      </c>
+      <c r="U2">
+        <v>65.3</v>
+      </c>
+      <c r="V2">
+        <v>5</v>
+      </c>
+      <c r="W2">
+        <v>45.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Albania</t>
+        </is>
       </c>
       <c r="B3">
         <v>2.4</v>
@@ -1231,7 +566,7 @@
         <v>0.8</v>
       </c>
       <c r="F3">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="G3">
         <v>0.8</v>
@@ -1243,7 +578,7 @@
         <v>20.6</v>
       </c>
       <c r="J3">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1251,10 +586,45 @@
       <c r="L3">
         <v>48.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
+      <c r="M3">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="N3">
+        <v>5.2</v>
+      </c>
+      <c r="O3">
+        <v>14.1</v>
+      </c>
+      <c r="P3">
+        <v>0.2</v>
+      </c>
+      <c r="Q3">
+        <v>19.6</v>
+      </c>
+      <c r="R3">
+        <v>1.6</v>
+      </c>
+      <c r="S3">
+        <v>0.1</v>
+      </c>
+      <c r="T3">
+        <v>77</v>
+      </c>
+      <c r="U3">
+        <v>97</v>
+      </c>
+      <c r="V3">
+        <v>0.9</v>
+      </c>
+      <c r="W3">
+        <v>77.90000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Angola</t>
+        </is>
       </c>
       <c r="B4">
         <v>10.3</v>
@@ -1272,7 +642,7 @@
         <v>9.1</v>
       </c>
       <c r="G4">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H4">
         <v>18</v>
@@ -1289,10 +659,45 @@
       <c r="L4">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>15</v>
+      <c r="M4">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="N4">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="O4">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="P4">
+        <v>4.3</v>
+      </c>
+      <c r="Q4">
+        <v>1.2</v>
+      </c>
+      <c r="R4">
+        <v>33.1</v>
+      </c>
+      <c r="S4">
+        <v>1.8</v>
+      </c>
+      <c r="T4">
+        <v>32.6</v>
+      </c>
+      <c r="U4">
+        <v>57</v>
+      </c>
+      <c r="V4">
+        <v>7.5</v>
+      </c>
+      <c r="W4">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -1327,22 +732,57 @@
       <c r="L5">
         <v>88.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>16</v>
+      <c r="M5">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="N5">
+        <v>8</v>
+      </c>
+      <c r="O5">
+        <v>1.5</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.1</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="U5">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="V5">
+        <v>0.1</v>
+      </c>
+      <c r="W5">
+        <v>97.59999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Azerbaijan</t>
+        </is>
       </c>
       <c r="B6">
         <v>3.5</v>
       </c>
       <c r="C6">
-        <v>9.3000000000000007</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D6">
         <v>7.5</v>
       </c>
       <c r="E6">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F6">
         <v>6.2</v>
@@ -1357,7 +797,7 @@
         <v>18.7</v>
       </c>
       <c r="J6">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1365,16 +805,51 @@
       <c r="L6">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>17</v>
+      <c r="M6">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="N6">
+        <v>19.7</v>
+      </c>
+      <c r="O6">
+        <v>9.5</v>
+      </c>
+      <c r="P6">
+        <v>0.7</v>
+      </c>
+      <c r="Q6">
+        <v>0.1</v>
+      </c>
+      <c r="R6">
+        <v>9.4</v>
+      </c>
+      <c r="S6">
+        <v>1.1</v>
+      </c>
+      <c r="T6">
+        <v>71.2</v>
+      </c>
+      <c r="U6">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="V6">
+        <v>3.4</v>
+      </c>
+      <c r="W6">
+        <v>75.90000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
       </c>
       <c r="B7">
         <v>2.7</v>
       </c>
       <c r="C7">
-        <v>86.4</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1403,10 +878,45 @@
       <c r="L7">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>18</v>
+      <c r="M7">
+        <v>97.8</v>
+      </c>
+      <c r="N7">
+        <v>3.3</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.1</v>
+      </c>
+      <c r="Q7">
+        <v>0.3</v>
+      </c>
+      <c r="R7">
+        <v>2.2</v>
+      </c>
+      <c r="S7">
+        <v>0.1</v>
+      </c>
+      <c r="T7">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="U7">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="V7">
+        <v>1.3</v>
+      </c>
+      <c r="W7">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Benin</t>
+        </is>
       </c>
       <c r="B8">
         <v>13</v>
@@ -1421,7 +931,7 @@
         <v>1.2</v>
       </c>
       <c r="F8">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="G8">
         <v>20.8</v>
@@ -1439,12 +949,47 @@
         <v>0.4</v>
       </c>
       <c r="L8">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>19</v>
+        <v>5.1</v>
+      </c>
+      <c r="M8">
+        <v>71.7</v>
+      </c>
+      <c r="N8">
+        <v>4.2</v>
+      </c>
+      <c r="O8">
+        <v>0.2</v>
+      </c>
+      <c r="P8">
+        <v>0.3</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>28.3</v>
+      </c>
+      <c r="S8">
+        <v>0.4</v>
+      </c>
+      <c r="T8">
+        <v>29.6</v>
+      </c>
+      <c r="U8">
+        <v>64</v>
+      </c>
+      <c r="V8">
+        <v>7.3</v>
+      </c>
+      <c r="W8">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Bolivia</t>
+        </is>
       </c>
       <c r="B9">
         <v>5.3</v>
@@ -1479,10 +1024,45 @@
       <c r="L9">
         <v>24.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>20</v>
+      <c r="M9">
+        <v>87.3</v>
+      </c>
+      <c r="N9">
+        <v>54.1</v>
+      </c>
+      <c r="O9">
+        <v>1.7</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.3</v>
+      </c>
+      <c r="S9">
+        <v>0.9</v>
+      </c>
+      <c r="T9">
+        <v>85.7</v>
+      </c>
+      <c r="U9">
+        <v>87.3</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1517,13 +1097,48 @@
       <c r="L10">
         <v>69.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>21</v>
+      <c r="M10">
+        <v>76</v>
+      </c>
+      <c r="N10">
+        <v>3.5</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>3.3</v>
+      </c>
+      <c r="R10">
+        <v>24</v>
+      </c>
+      <c r="S10">
+        <v>2.7</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Burkina Faso</t>
+        </is>
       </c>
       <c r="B11">
-        <v>18.399999999999999</v>
+        <v>18.4</v>
       </c>
       <c r="C11">
         <v>40.6</v>
@@ -1555,10 +1170,45 @@
       <c r="L11">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>22</v>
+      <c r="M11">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="N11">
+        <v>9.6</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.2</v>
+      </c>
+      <c r="Q11">
+        <v>0.2</v>
+      </c>
+      <c r="R11">
+        <v>19.1</v>
+      </c>
+      <c r="S11">
+        <v>0.5</v>
+      </c>
+      <c r="T11">
+        <v>14.4</v>
+      </c>
+      <c r="U11">
+        <v>52.1</v>
+      </c>
+      <c r="V11">
+        <v>28.5</v>
+      </c>
+      <c r="W11">
+        <v>17.1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Burundi</t>
+        </is>
       </c>
       <c r="B12">
         <v>24</v>
@@ -1582,7 +1232,7 @@
         <v>4.3</v>
       </c>
       <c r="I12">
-        <v>64.900000000000006</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="J12">
         <v>25.5</v>
@@ -1591,12 +1241,47 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>23</v>
+        <v>1.1</v>
+      </c>
+      <c r="M12">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.1</v>
+      </c>
+      <c r="R12">
+        <v>17.1</v>
+      </c>
+      <c r="S12">
+        <v>0.1</v>
+      </c>
+      <c r="T12">
+        <v>9.5</v>
+      </c>
+      <c r="U12">
+        <v>63.1</v>
+      </c>
+      <c r="V12">
+        <v>19.9</v>
+      </c>
+      <c r="W12">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Cambodia</t>
+        </is>
       </c>
       <c r="B13">
         <v>0.7</v>
@@ -1614,7 +1299,7 @@
         <v>2.6</v>
       </c>
       <c r="G13">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H13">
         <v>7.3</v>
@@ -1631,10 +1316,45 @@
       <c r="L13">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>24</v>
+      <c r="M13">
+        <v>83.7</v>
+      </c>
+      <c r="N13">
+        <v>1.8</v>
+      </c>
+      <c r="O13">
+        <v>0.4</v>
+      </c>
+      <c r="P13">
+        <v>0.6</v>
+      </c>
+      <c r="Q13">
+        <v>9.6</v>
+      </c>
+      <c r="R13">
+        <v>16.2</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
       </c>
       <c r="B14">
         <v>10.6</v>
@@ -1643,7 +1363,7 @@
         <v>29.9</v>
       </c>
       <c r="D14">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="E14">
         <v>6</v>
@@ -1667,12 +1387,47 @@
         <v>0.5</v>
       </c>
       <c r="L14">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>25</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="M14">
+        <v>78.8</v>
+      </c>
+      <c r="N14">
+        <v>6.9</v>
+      </c>
+      <c r="O14">
+        <v>0.1</v>
+      </c>
+      <c r="P14">
+        <v>0.4</v>
+      </c>
+      <c r="Q14">
+        <v>2.9</v>
+      </c>
+      <c r="R14">
+        <v>21.2</v>
+      </c>
+      <c r="S14">
+        <v>0.1</v>
+      </c>
+      <c r="T14">
+        <v>32.7</v>
+      </c>
+      <c r="U14">
+        <v>71</v>
+      </c>
+      <c r="V14">
+        <v>7.5</v>
+      </c>
+      <c r="W14">
+        <v>34.2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Central African Republic</t>
+        </is>
       </c>
       <c r="B15">
         <v>14.6</v>
@@ -1696,10 +1451,10 @@
         <v>9.4</v>
       </c>
       <c r="I15">
-        <v>75.099999999999994</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="J15">
-        <v>17.399999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1707,10 +1462,45 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>26</v>
+      <c r="M15">
+        <v>16.3</v>
+      </c>
+      <c r="N15">
+        <v>1.7</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="S15">
+        <v>0.6</v>
+      </c>
+      <c r="T15">
+        <v>1.8</v>
+      </c>
+      <c r="U15">
+        <v>15.2</v>
+      </c>
+      <c r="V15">
+        <v>1.1</v>
+      </c>
+      <c r="W15">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chad</t>
+        </is>
       </c>
       <c r="B16">
         <v>10.3</v>
@@ -1745,10 +1535,45 @@
       <c r="L16">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>27</v>
+      <c r="M16">
+        <v>55.8</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.6</v>
+      </c>
+      <c r="Q16">
+        <v>0.1</v>
+      </c>
+      <c r="R16">
+        <v>44</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>7.9</v>
+      </c>
+      <c r="U16">
+        <v>40.5</v>
+      </c>
+      <c r="V16">
+        <v>11.2</v>
+      </c>
+      <c r="W16">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
       </c>
       <c r="B17">
         <v>0.1</v>
@@ -1781,12 +1606,47 @@
         <v>2</v>
       </c>
       <c r="L17">
-        <v>80.900000000000006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>28</v>
+        <v>80.90000000000001</v>
+      </c>
+      <c r="M17">
+        <v>92.8</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0.6</v>
+      </c>
+      <c r="P17">
+        <v>0.5</v>
+      </c>
+      <c r="Q17">
+        <v>7</v>
+      </c>
+      <c r="R17">
+        <v>7.2</v>
+      </c>
+      <c r="S17">
+        <v>0.7</v>
+      </c>
+      <c r="T17">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="U17">
+        <v>92.5</v>
+      </c>
+      <c r="V17">
+        <v>0.2</v>
+      </c>
+      <c r="W17">
+        <v>95.90000000000001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Comoros</t>
+        </is>
       </c>
       <c r="B18">
         <v>22.6</v>
@@ -1804,7 +1664,7 @@
         <v>6.3</v>
       </c>
       <c r="G18">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="H18">
         <v>0.8</v>
@@ -1813,18 +1673,53 @@
         <v>20.7</v>
       </c>
       <c r="J18">
-        <v>8.8000000000000007</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K18">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="L18">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>29</v>
+      <c r="M18">
+        <v>91</v>
+      </c>
+      <c r="N18">
+        <v>24.1</v>
+      </c>
+      <c r="O18">
+        <v>2.9</v>
+      </c>
+      <c r="P18">
+        <v>0.3</v>
+      </c>
+      <c r="Q18">
+        <v>0.5</v>
+      </c>
+      <c r="R18">
+        <v>8.9</v>
+      </c>
+      <c r="S18">
+        <v>3.7</v>
+      </c>
+      <c r="T18">
+        <v>64</v>
+      </c>
+      <c r="U18">
+        <v>80.8</v>
+      </c>
+      <c r="V18">
+        <v>6.6</v>
+      </c>
+      <c r="W18">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Congo</t>
+        </is>
       </c>
       <c r="B19">
         <v>27</v>
@@ -1836,10 +1731,10 @@
         <v>4.2</v>
       </c>
       <c r="E19">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F19">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="G19">
         <v>5.2</v>
@@ -1859,22 +1754,57 @@
       <c r="L19">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>30</v>
+      <c r="M19">
+        <v>75.7</v>
+      </c>
+      <c r="N19">
+        <v>21.9</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>2.5</v>
+      </c>
+      <c r="R19">
+        <v>24.3</v>
+      </c>
+      <c r="S19">
+        <v>2.3</v>
+      </c>
+      <c r="T19">
+        <v>34.6</v>
+      </c>
+      <c r="U19">
+        <v>60.6</v>
+      </c>
+      <c r="V19">
+        <v>13.6</v>
+      </c>
+      <c r="W19">
+        <v>36.3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Congo Democratic Republic</t>
+        </is>
       </c>
       <c r="B20">
-        <v>9.6999999999999993</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C20">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="D20">
         <v>17.2</v>
       </c>
       <c r="E20">
-        <v>36.299999999999997</v>
+        <v>36.3</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -1883,13 +1813,13 @@
         <v>5.4</v>
       </c>
       <c r="H20">
-        <v>9.1999999999999993</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I20">
         <v>59.3</v>
       </c>
       <c r="J20">
-        <v>32.799999999999997</v>
+        <v>32.8</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1897,10 +1827,45 @@
       <c r="L20">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>31</v>
+      <c r="M20">
+        <v>48.8</v>
+      </c>
+      <c r="N20">
+        <v>5.6</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.4</v>
+      </c>
+      <c r="R20">
+        <v>51.2</v>
+      </c>
+      <c r="S20">
+        <v>0.3</v>
+      </c>
+      <c r="T20">
+        <v>7</v>
+      </c>
+      <c r="U20">
+        <v>36.2</v>
+      </c>
+      <c r="V20">
+        <v>12.1</v>
+      </c>
+      <c r="W20">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Cote d'Ivoire</t>
+        </is>
       </c>
       <c r="B21">
         <v>16.2</v>
@@ -1921,7 +1886,7 @@
         <v>13.2</v>
       </c>
       <c r="H21">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="I21">
         <v>46.4</v>
@@ -1935,10 +1900,45 @@
       <c r="L21">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>32</v>
+      <c r="M21">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="N21">
+        <v>20.3</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.3</v>
+      </c>
+      <c r="R21">
+        <v>21.5</v>
+      </c>
+      <c r="S21">
+        <v>0.7</v>
+      </c>
+      <c r="T21">
+        <v>40.3</v>
+      </c>
+      <c r="U21">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="V21">
+        <v>5.3</v>
+      </c>
+      <c r="W21">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Dominican Republic</t>
+        </is>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1971,12 +1971,47 @@
         <v>2.9</v>
       </c>
       <c r="L22">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>33</v>
+        <v>4.1</v>
+      </c>
+      <c r="M22">
+        <v>98.7</v>
+      </c>
+      <c r="N22">
+        <v>6.6</v>
+      </c>
+      <c r="O22">
+        <v>0.4</v>
+      </c>
+      <c r="P22">
+        <v>6.1</v>
+      </c>
+      <c r="Q22">
+        <v>77.8</v>
+      </c>
+      <c r="R22">
+        <v>1.3</v>
+      </c>
+      <c r="S22">
+        <v>0.5</v>
+      </c>
+      <c r="T22">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="U22">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="V22">
+        <v>0.9</v>
+      </c>
+      <c r="W22">
+        <v>86.90000000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Egypt</t>
+        </is>
       </c>
       <c r="B23">
         <v>3</v>
@@ -2009,12 +2044,47 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>90.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>34</v>
+        <v>90.59999999999999</v>
+      </c>
+      <c r="M23">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="N23">
+        <v>0.4</v>
+      </c>
+      <c r="O23">
+        <v>1.7</v>
+      </c>
+      <c r="P23">
+        <v>0.1</v>
+      </c>
+      <c r="Q23">
+        <v>2.7</v>
+      </c>
+      <c r="R23">
+        <v>0.4</v>
+      </c>
+      <c r="S23">
+        <v>0.4</v>
+      </c>
+      <c r="T23">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="U23">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="V23">
+        <v>0.6</v>
+      </c>
+      <c r="W23">
+        <v>93.2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Eritrea</t>
+        </is>
       </c>
       <c r="B24">
         <v>20.8</v>
@@ -2029,10 +2099,10 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="G24">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="H24">
         <v>5.4</v>
@@ -2049,13 +2119,48 @@
       <c r="L24">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>35</v>
+      <c r="M24">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>12.2</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>32.5</v>
+      </c>
+      <c r="S24">
+        <v>0.1</v>
+      </c>
+      <c r="T24">
+        <v>26.8</v>
+      </c>
+      <c r="U24">
+        <v>42.1</v>
+      </c>
+      <c r="V24">
+        <v>25.3</v>
+      </c>
+      <c r="W24">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Eswatini</t>
+        </is>
       </c>
       <c r="B25">
-        <v>17.600000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="C25">
         <v>6.9</v>
@@ -2070,7 +2175,7 @@
         <v>4.3</v>
       </c>
       <c r="G25">
-        <v>9.3000000000000007</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H25">
         <v>15.6</v>
@@ -2085,12 +2190,47 @@
         <v>0.5</v>
       </c>
       <c r="L25">
-        <v>17.399999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>36</v>
+        <v>17.4</v>
+      </c>
+      <c r="M25">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="N25">
+        <v>21.3</v>
+      </c>
+      <c r="O25">
+        <v>1.6</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.1</v>
+      </c>
+      <c r="R25">
+        <v>28.6</v>
+      </c>
+      <c r="S25">
+        <v>0.3</v>
+      </c>
+      <c r="T25">
+        <v>42.6</v>
+      </c>
+      <c r="U25">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="V25">
+        <v>4.5</v>
+      </c>
+      <c r="W25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ethiopia</t>
+        </is>
       </c>
       <c r="B26">
         <v>17.7</v>
@@ -2108,7 +2248,7 @@
         <v>5.9</v>
       </c>
       <c r="G26">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="H26">
         <v>10.7</v>
@@ -2125,10 +2265,45 @@
       <c r="L26">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>37</v>
+      <c r="M26">
+        <v>65.2</v>
+      </c>
+      <c r="N26">
+        <v>13.4</v>
+      </c>
+      <c r="O26">
+        <v>0.2</v>
+      </c>
+      <c r="P26">
+        <v>0.2</v>
+      </c>
+      <c r="Q26">
+        <v>0.2</v>
+      </c>
+      <c r="R26">
+        <v>34.8</v>
+      </c>
+      <c r="S26">
+        <v>0.1</v>
+      </c>
+      <c r="T26">
+        <v>19.5</v>
+      </c>
+      <c r="U26">
+        <v>50</v>
+      </c>
+      <c r="V26">
+        <v>15</v>
+      </c>
+      <c r="W26">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Gabon</t>
+        </is>
       </c>
       <c r="B27">
         <v>20.2</v>
@@ -2163,16 +2338,51 @@
       <c r="L27">
         <v>25.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>38</v>
+      <c r="M27">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="N27">
+        <v>38.4</v>
+      </c>
+      <c r="O27">
+        <v>0.1</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>1.1</v>
+      </c>
+      <c r="R27">
+        <v>6.7</v>
+      </c>
+      <c r="S27">
+        <v>0.5</v>
+      </c>
+      <c r="T27">
+        <v>65.2</v>
+      </c>
+      <c r="U27">
+        <v>84.7</v>
+      </c>
+      <c r="V27">
+        <v>7.2</v>
+      </c>
+      <c r="W27">
+        <v>65.59999999999999</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Gambia</t>
+        </is>
       </c>
       <c r="B28">
-        <v>32.799999999999997</v>
+        <v>32.8</v>
       </c>
       <c r="C28">
-        <v>8.8000000000000007</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2201,16 +2411,51 @@
       <c r="L28">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>39</v>
+      <c r="M28">
+        <v>91</v>
+      </c>
+      <c r="N28">
+        <v>38.2</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0.4</v>
+      </c>
+      <c r="R28">
+        <v>8.9</v>
+      </c>
+      <c r="S28">
+        <v>0.8</v>
+      </c>
+      <c r="T28">
+        <v>43.7</v>
+      </c>
+      <c r="U28">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="V28">
+        <v>4</v>
+      </c>
+      <c r="W28">
+        <v>46.1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
       </c>
       <c r="B29">
         <v>14.6</v>
       </c>
       <c r="C29">
-        <v>19.399999999999999</v>
+        <v>19.4</v>
       </c>
       <c r="D29">
         <v>0.1</v>
@@ -2219,13 +2464,13 @@
         <v>0.6</v>
       </c>
       <c r="F29">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="G29">
         <v>1.8</v>
       </c>
       <c r="H29">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="I29">
         <v>46.3</v>
@@ -2239,10 +2484,45 @@
       <c r="L29">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>40</v>
+      <c r="M29">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="N29">
+        <v>5.4</v>
+      </c>
+      <c r="O29">
+        <v>0.2</v>
+      </c>
+      <c r="P29">
+        <v>0.1</v>
+      </c>
+      <c r="Q29">
+        <v>1.1</v>
+      </c>
+      <c r="R29">
+        <v>6.9</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>46.1</v>
+      </c>
+      <c r="U29">
+        <v>87.3</v>
+      </c>
+      <c r="V29">
+        <v>5.6</v>
+      </c>
+      <c r="W29">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Guatemala</t>
+        </is>
       </c>
       <c r="B30">
         <v>1.9</v>
@@ -2266,7 +2546,7 @@
         <v>1.5</v>
       </c>
       <c r="I30">
-        <v>9.3000000000000007</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J30">
         <v>1.2</v>
@@ -2277,10 +2557,45 @@
       <c r="L30">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>41</v>
+      <c r="M30">
+        <v>86.5</v>
+      </c>
+      <c r="N30">
+        <v>31.1</v>
+      </c>
+      <c r="O30">
+        <v>0.1</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>28.4</v>
+      </c>
+      <c r="R30">
+        <v>13.5</v>
+      </c>
+      <c r="S30">
+        <v>0.2</v>
+      </c>
+      <c r="T30">
+        <v>82.2</v>
+      </c>
+      <c r="U30">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="V30">
+        <v>0.4</v>
+      </c>
+      <c r="W30">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Guinea</t>
+        </is>
       </c>
       <c r="B31">
         <v>3.9</v>
@@ -2292,13 +2607,13 @@
         <v>2.7</v>
       </c>
       <c r="E31">
-        <v>9.6999999999999993</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F31">
         <v>10.6</v>
       </c>
       <c r="G31">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="H31">
         <v>5.9</v>
@@ -2315,13 +2630,48 @@
       <c r="L31">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>42</v>
+      <c r="M31">
+        <v>79.3</v>
+      </c>
+      <c r="N31">
+        <v>4.8</v>
+      </c>
+      <c r="O31">
+        <v>0.1</v>
+      </c>
+      <c r="P31">
+        <v>0.2</v>
+      </c>
+      <c r="Q31">
+        <v>1.1</v>
+      </c>
+      <c r="R31">
+        <v>20.7</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>29.1</v>
+      </c>
+      <c r="U31">
+        <v>60.2</v>
+      </c>
+      <c r="V31">
+        <v>16.6</v>
+      </c>
+      <c r="W31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Guyana</t>
+        </is>
       </c>
       <c r="B32">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2353,10 +2703,45 @@
       <c r="L32">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>43</v>
+      <c r="M32">
+        <v>94.8</v>
+      </c>
+      <c r="N32">
+        <v>18.4</v>
+      </c>
+      <c r="O32">
+        <v>0.1</v>
+      </c>
+      <c r="P32">
+        <v>0.1</v>
+      </c>
+      <c r="Q32">
+        <v>32.2</v>
+      </c>
+      <c r="R32">
+        <v>5.2</v>
+      </c>
+      <c r="S32">
+        <v>0.6</v>
+      </c>
+      <c r="T32">
+        <v>91.8</v>
+      </c>
+      <c r="U32">
+        <v>94.3</v>
+      </c>
+      <c r="V32">
+        <v>0.2</v>
+      </c>
+      <c r="W32">
+        <v>92.59999999999999</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Haiti</t>
+        </is>
       </c>
       <c r="B33">
         <v>18.8</v>
@@ -2383,7 +2768,7 @@
         <v>66.5</v>
       </c>
       <c r="J33">
-        <v>19.399999999999999</v>
+        <v>19.4</v>
       </c>
       <c r="K33">
         <v>1.7</v>
@@ -2391,10 +2776,45 @@
       <c r="L33">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>44</v>
+      <c r="M33">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="N33">
+        <v>2.3</v>
+      </c>
+      <c r="O33">
+        <v>0.9</v>
+      </c>
+      <c r="P33">
+        <v>0.3</v>
+      </c>
+      <c r="Q33">
+        <v>2.2</v>
+      </c>
+      <c r="R33">
+        <v>24.4</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>12.7</v>
+      </c>
+      <c r="U33">
+        <v>65.5</v>
+      </c>
+      <c r="V33">
+        <v>10.1</v>
+      </c>
+      <c r="W33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Honduras</t>
+        </is>
       </c>
       <c r="B34">
         <v>0.7</v>
@@ -2429,16 +2849,51 @@
       <c r="L34">
         <v>42.3</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>45</v>
+      <c r="M34">
+        <v>90.2</v>
+      </c>
+      <c r="N34">
+        <v>6.3</v>
+      </c>
+      <c r="O34">
+        <v>0.3</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>38.6</v>
+      </c>
+      <c r="R34">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="S34">
+        <v>0.9</v>
+      </c>
+      <c r="T34">
+        <v>87.3</v>
+      </c>
+      <c r="U34">
+        <v>90</v>
+      </c>
+      <c r="V34">
+        <v>0.1</v>
+      </c>
+      <c r="W34">
+        <v>88.40000000000001</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
       </c>
       <c r="B35">
         <v>15.9</v>
       </c>
       <c r="C35">
-        <v>39.200000000000003</v>
+        <v>39.2</v>
       </c>
       <c r="D35">
         <v>0.3</v>
@@ -2459,18 +2914,53 @@
         <v>31.4</v>
       </c>
       <c r="J35">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="K35">
         <v>0.2</v>
       </c>
       <c r="L35">
-        <v>16.600000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>46</v>
+        <v>16.6</v>
+      </c>
+      <c r="M35">
+        <v>94.5</v>
+      </c>
+      <c r="N35">
+        <v>13.6</v>
+      </c>
+      <c r="O35">
+        <v>1.3</v>
+      </c>
+      <c r="P35">
+        <v>0.2</v>
+      </c>
+      <c r="Q35">
+        <v>3.1</v>
+      </c>
+      <c r="R35">
+        <v>5.5</v>
+      </c>
+      <c r="S35">
+        <v>0.2</v>
+      </c>
+      <c r="T35">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="U35">
+        <v>92.7</v>
+      </c>
+      <c r="V35">
+        <v>1.8</v>
+      </c>
+      <c r="W35">
+        <v>66.3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
       </c>
       <c r="B36">
         <v>0.6</v>
@@ -2488,7 +2978,7 @@
         <v>16.8</v>
       </c>
       <c r="G36">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="H36">
         <v>1.7</v>
@@ -2500,15 +2990,50 @@
         <v>0.5</v>
       </c>
       <c r="K36">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="L36">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>47</v>
+      <c r="M36">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="N36">
+        <v>1.1</v>
+      </c>
+      <c r="O36">
+        <v>0.4</v>
+      </c>
+      <c r="P36">
+        <v>0.9</v>
+      </c>
+      <c r="Q36">
+        <v>35</v>
+      </c>
+      <c r="R36">
+        <v>9.1</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>81.7</v>
+      </c>
+      <c r="U36">
+        <v>90</v>
+      </c>
+      <c r="V36">
+        <v>0.2</v>
+      </c>
+      <c r="W36">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Jordan</t>
+        </is>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2543,10 +3068,45 @@
       <c r="L37">
         <v>57.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>48</v>
+      <c r="M37">
+        <v>99.8</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>37.8</v>
+      </c>
+      <c r="R37">
+        <v>0.2</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>99.2</v>
+      </c>
+      <c r="U37">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="V37">
+        <v>0.1</v>
+      </c>
+      <c r="W37">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Kazakhstan</t>
+        </is>
       </c>
       <c r="B38">
         <v>7.6</v>
@@ -2581,10 +3141,45 @@
       <c r="L38">
         <v>49.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>49</v>
+      <c r="M38">
+        <v>69.40000000000001</v>
+      </c>
+      <c r="N38">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="O38">
+        <v>3</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0.1</v>
+      </c>
+      <c r="R38">
+        <v>30.6</v>
+      </c>
+      <c r="S38">
+        <v>0.5</v>
+      </c>
+      <c r="T38">
+        <v>59.3</v>
+      </c>
+      <c r="U38">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="V38">
+        <v>0.8</v>
+      </c>
+      <c r="W38">
+        <v>70.09999999999999</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Kenya</t>
+        </is>
       </c>
       <c r="B39">
         <v>18</v>
@@ -2593,10 +3188,10 @@
         <v>7.3</v>
       </c>
       <c r="D39">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E39">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="F39">
         <v>7.9</v>
@@ -2619,10 +3214,45 @@
       <c r="L39">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>50</v>
+      <c r="M39">
+        <v>78.3</v>
+      </c>
+      <c r="N39">
+        <v>13.9</v>
+      </c>
+      <c r="O39">
+        <v>1.6</v>
+      </c>
+      <c r="P39">
+        <v>1.6</v>
+      </c>
+      <c r="Q39">
+        <v>3.8</v>
+      </c>
+      <c r="R39">
+        <v>21.7</v>
+      </c>
+      <c r="S39">
+        <v>0.3</v>
+      </c>
+      <c r="T39">
+        <v>45.4</v>
+      </c>
+      <c r="U39">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="V39">
+        <v>6</v>
+      </c>
+      <c r="W39">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Kyrgyz Republic</t>
+        </is>
       </c>
       <c r="B40">
         <v>20.8</v>
@@ -2637,13 +3267,13 @@
         <v>1.6</v>
       </c>
       <c r="F40">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="G40">
         <v>0.7</v>
       </c>
       <c r="H40">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I40">
         <v>29.9</v>
@@ -2657,13 +3287,48 @@
       <c r="L40">
         <v>30.9</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>51</v>
+      <c r="M40">
+        <v>89.2</v>
+      </c>
+      <c r="N40">
+        <v>30.4</v>
+      </c>
+      <c r="O40">
+        <v>0.9</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>10.7</v>
+      </c>
+      <c r="S40">
+        <v>0.1</v>
+      </c>
+      <c r="T40">
+        <v>66.2</v>
+      </c>
+      <c r="U40">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="V40">
+        <v>0.7</v>
+      </c>
+      <c r="W40">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Lesotho</t>
+        </is>
       </c>
       <c r="B41">
-        <v>38.799999999999997</v>
+        <v>38.8</v>
       </c>
       <c r="C41">
         <v>5.7</v>
@@ -2672,10 +3337,10 @@
         <v>4.2</v>
       </c>
       <c r="E41">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F41">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="G41">
         <v>7.1</v>
@@ -2695,10 +3360,45 @@
       <c r="L41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>52</v>
+      <c r="M41">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="N41">
+        <v>22.6</v>
+      </c>
+      <c r="O41">
+        <v>0.4</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>16.1</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>26.9</v>
+      </c>
+      <c r="U41">
+        <v>73.7</v>
+      </c>
+      <c r="V41">
+        <v>9.9</v>
+      </c>
+      <c r="W41">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Liberia</t>
+        </is>
       </c>
       <c r="B42">
         <v>4.2</v>
@@ -2716,13 +3416,13 @@
         <v>8.6</v>
       </c>
       <c r="G42">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="H42">
         <v>11.5</v>
       </c>
       <c r="I42">
-        <v>73.900000000000006</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="J42">
         <v>3.8</v>
@@ -2733,10 +3433,45 @@
       <c r="L42">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>53</v>
+      <c r="M42">
+        <v>84.8</v>
+      </c>
+      <c r="N42">
+        <v>0.9</v>
+      </c>
+      <c r="O42">
+        <v>0.1</v>
+      </c>
+      <c r="P42">
+        <v>0.1</v>
+      </c>
+      <c r="Q42">
+        <v>0.2</v>
+      </c>
+      <c r="R42">
+        <v>15.2</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>19.3</v>
+      </c>
+      <c r="U42">
+        <v>81</v>
+      </c>
+      <c r="V42">
+        <v>3.1</v>
+      </c>
+      <c r="W42">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Madagascar</t>
+        </is>
       </c>
       <c r="B43">
         <v>17</v>
@@ -2745,7 +3480,7 @@
         <v>4.2</v>
       </c>
       <c r="D43">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="E43">
         <v>22</v>
@@ -2771,10 +3506,45 @@
       <c r="L43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>54</v>
+      <c r="M43">
+        <v>44.2</v>
+      </c>
+      <c r="N43">
+        <v>3.1</v>
+      </c>
+      <c r="O43">
+        <v>0.1</v>
+      </c>
+      <c r="P43">
+        <v>0.3</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>55.8</v>
+      </c>
+      <c r="S43">
+        <v>0.2</v>
+      </c>
+      <c r="T43">
+        <v>18.8</v>
+      </c>
+      <c r="U43">
+        <v>41.6</v>
+      </c>
+      <c r="V43">
+        <v>1.5</v>
+      </c>
+      <c r="W43">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Malawi</t>
+        </is>
       </c>
       <c r="B44">
         <v>13.6</v>
@@ -2792,7 +3562,7 @@
         <v>5.5</v>
       </c>
       <c r="G44">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H44">
         <v>3.4</v>
@@ -2809,10 +3579,45 @@
       <c r="L44">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>55</v>
+      <c r="M44">
+        <v>86.3</v>
+      </c>
+      <c r="N44">
+        <v>5.8</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0.1</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>13.7</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>13.8</v>
+      </c>
+      <c r="U44">
+        <v>76</v>
+      </c>
+      <c r="V44">
+        <v>8.1</v>
+      </c>
+      <c r="W44">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Maldives</t>
+        </is>
       </c>
       <c r="B45">
         <v>0.1</v>
@@ -2847,10 +3652,45 @@
       <c r="L45">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>56</v>
+      <c r="M45">
+        <v>99.7</v>
+      </c>
+      <c r="N45">
+        <v>2.5</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>36.7</v>
+      </c>
+      <c r="R45">
+        <v>0.3</v>
+      </c>
+      <c r="S45">
+        <v>0.3</v>
+      </c>
+      <c r="T45">
+        <v>96.7</v>
+      </c>
+      <c r="U45">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="V45">
+        <v>0.1</v>
+      </c>
+      <c r="W45">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Mali</t>
+        </is>
       </c>
       <c r="B46">
         <v>17.3</v>
@@ -2877,7 +3717,7 @@
         <v>61.7</v>
       </c>
       <c r="J46">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="K46">
         <v>0.3</v>
@@ -2885,10 +3725,45 @@
       <c r="L46">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>57</v>
+      <c r="M46">
+        <v>69.3</v>
+      </c>
+      <c r="N46">
+        <v>7.2</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0.5</v>
+      </c>
+      <c r="Q46">
+        <v>0.1</v>
+      </c>
+      <c r="R46">
+        <v>30.7</v>
+      </c>
+      <c r="S46">
+        <v>0.2</v>
+      </c>
+      <c r="T46">
+        <v>24.8</v>
+      </c>
+      <c r="U46">
+        <v>65.8</v>
+      </c>
+      <c r="V46">
+        <v>2.9</v>
+      </c>
+      <c r="W46">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Mauritania</t>
+        </is>
       </c>
       <c r="B47">
         <v>27.6</v>
@@ -2915,18 +3790,53 @@
         <v>45.6</v>
       </c>
       <c r="J47">
-        <v>17.399999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
       <c r="L47">
-        <v>17.899999999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>58</v>
+        <v>17.9</v>
+      </c>
+      <c r="M47">
+        <v>66.5</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>4.1</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>33.1</v>
+      </c>
+      <c r="S47">
+        <v>1.5</v>
+      </c>
+      <c r="T47">
+        <v>28.6</v>
+      </c>
+      <c r="U47">
+        <v>57</v>
+      </c>
+      <c r="V47">
+        <v>9.1</v>
+      </c>
+      <c r="W47">
+        <v>35.8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Moldova</t>
+        </is>
       </c>
       <c r="B48">
         <v>0.9</v>
@@ -2961,10 +3871,45 @@
       <c r="L48">
         <v>29.6</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>59</v>
+      <c r="M48">
+        <v>94.7</v>
+      </c>
+      <c r="N48">
+        <v>6.4</v>
+      </c>
+      <c r="O48">
+        <v>0.3</v>
+      </c>
+      <c r="P48">
+        <v>2.3</v>
+      </c>
+      <c r="Q48">
+        <v>2.5</v>
+      </c>
+      <c r="R48">
+        <v>5.2</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
       </c>
       <c r="B49">
         <v>10.9</v>
@@ -2985,7 +3930,7 @@
         <v>10.7</v>
       </c>
       <c r="H49">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -2999,10 +3944,45 @@
       <c r="L49">
         <v>58.2</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>60</v>
+      <c r="M49">
+        <v>79.8</v>
+      </c>
+      <c r="N49">
+        <v>2.2</v>
+      </c>
+      <c r="O49">
+        <v>0.9</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0.5</v>
+      </c>
+      <c r="R49">
+        <v>20.1</v>
+      </c>
+      <c r="S49">
+        <v>0.2</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Mozambique</t>
+        </is>
       </c>
       <c r="B50">
         <v>15.9</v>
@@ -3017,13 +3997,13 @@
         <v>2</v>
       </c>
       <c r="F50">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G50">
         <v>24.5</v>
       </c>
       <c r="H50">
-        <v>9.1999999999999993</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I50">
         <v>44.4</v>
@@ -3035,12 +4015,47 @@
         <v>1.7</v>
       </c>
       <c r="L50">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>61</v>
+        <v>2.2</v>
+      </c>
+      <c r="M50">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="N50">
+        <v>14.2</v>
+      </c>
+      <c r="O50">
+        <v>0.2</v>
+      </c>
+      <c r="P50">
+        <v>0.1</v>
+      </c>
+      <c r="Q50">
+        <v>0.2</v>
+      </c>
+      <c r="R50">
+        <v>35.9</v>
+      </c>
+      <c r="S50">
+        <v>0.3</v>
+      </c>
+      <c r="T50">
+        <v>30.3</v>
+      </c>
+      <c r="U50">
+        <v>54.1</v>
+      </c>
+      <c r="V50">
+        <v>6.1</v>
+      </c>
+      <c r="W50">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Myanmar</t>
+        </is>
       </c>
       <c r="B51">
         <v>3.2</v>
@@ -3075,10 +4090,45 @@
       <c r="L51">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>62</v>
+      <c r="M51">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="N51">
+        <v>4.2</v>
+      </c>
+      <c r="O51">
+        <v>1.4</v>
+      </c>
+      <c r="P51">
+        <v>0.9</v>
+      </c>
+      <c r="Q51">
+        <v>15.5</v>
+      </c>
+      <c r="R51">
+        <v>17.6</v>
+      </c>
+      <c r="S51">
+        <v>0.2</v>
+      </c>
+      <c r="T51">
+        <v>48.6</v>
+      </c>
+      <c r="U51">
+        <v>80.3</v>
+      </c>
+      <c r="V51">
+        <v>1.2</v>
+      </c>
+      <c r="W51">
+        <v>52.9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Namibia</t>
+        </is>
       </c>
       <c r="B52">
         <v>26.1</v>
@@ -3111,15 +4161,50 @@
         <v>0.1</v>
       </c>
       <c r="L52">
-        <v>36.799999999999997</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>63</v>
+        <v>36.8</v>
+      </c>
+      <c r="M52">
+        <v>87.5</v>
+      </c>
+      <c r="N52">
+        <v>14.2</v>
+      </c>
+      <c r="O52">
+        <v>0.2</v>
+      </c>
+      <c r="P52">
+        <v>0.4</v>
+      </c>
+      <c r="Q52">
+        <v>0.6</v>
+      </c>
+      <c r="R52">
+        <v>12.4</v>
+      </c>
+      <c r="S52">
+        <v>2.6</v>
+      </c>
+      <c r="T52">
+        <v>52.7</v>
+      </c>
+      <c r="U52">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="V52">
+        <v>5.3</v>
+      </c>
+      <c r="W52">
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Nepal</t>
+        </is>
       </c>
       <c r="B53">
-        <v>19.899999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="C53">
         <v>35.9</v>
@@ -3151,10 +4236,45 @@
       <c r="L53">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>64</v>
+      <c r="M53">
+        <v>96</v>
+      </c>
+      <c r="N53">
+        <v>24.4</v>
+      </c>
+      <c r="O53">
+        <v>0.4</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>3.6</v>
+      </c>
+      <c r="R53">
+        <v>4</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>68.8</v>
+      </c>
+      <c r="U53">
+        <v>94.8</v>
+      </c>
+      <c r="V53">
+        <v>1.1</v>
+      </c>
+      <c r="W53">
+        <v>69.09999999999999</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Nicaragua</t>
+        </is>
       </c>
       <c r="B54">
         <v>3.2</v>
@@ -3189,10 +4309,45 @@
       <c r="L54">
         <v>31.1</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>65</v>
+      <c r="M54">
+        <v>70.7</v>
+      </c>
+      <c r="N54">
+        <v>32</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>29.3</v>
+      </c>
+      <c r="S54">
+        <v>0.1</v>
+      </c>
+      <c r="T54">
+        <v>69.8</v>
+      </c>
+      <c r="U54">
+        <v>70.3</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>76.09999999999999</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Niger</t>
+        </is>
       </c>
       <c r="B55">
         <v>24.5</v>
@@ -3207,7 +4362,7 @@
         <v>0.6</v>
       </c>
       <c r="F55">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="G55">
         <v>31</v>
@@ -3219,7 +4374,7 @@
         <v>54.4</v>
       </c>
       <c r="J55">
-        <v>33.200000000000003</v>
+        <v>33.2</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -3227,16 +4382,51 @@
       <c r="L55">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>66</v>
+      <c r="M55">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="N55">
+        <v>4.5</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>32.9</v>
+      </c>
+      <c r="S55">
+        <v>0.1</v>
+      </c>
+      <c r="T55">
+        <v>10.1</v>
+      </c>
+      <c r="U55">
+        <v>47.6</v>
+      </c>
+      <c r="V55">
+        <v>18.3</v>
+      </c>
+      <c r="W55">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
       </c>
       <c r="B56">
         <v>7.5</v>
       </c>
       <c r="C56">
-        <v>37.200000000000003</v>
+        <v>37.2</v>
       </c>
       <c r="D56">
         <v>0.5</v>
@@ -3265,10 +4455,45 @@
       <c r="L56">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>67</v>
+      <c r="M56">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="N56">
+        <v>1.4</v>
+      </c>
+      <c r="O56">
+        <v>0.7</v>
+      </c>
+      <c r="P56">
+        <v>1.9</v>
+      </c>
+      <c r="Q56">
+        <v>0.7</v>
+      </c>
+      <c r="R56">
+        <v>24.6</v>
+      </c>
+      <c r="S56">
+        <v>0.1</v>
+      </c>
+      <c r="T56">
+        <v>27.3</v>
+      </c>
+      <c r="U56">
+        <v>71.8</v>
+      </c>
+      <c r="V56">
+        <v>3.5</v>
+      </c>
+      <c r="W56">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
       </c>
       <c r="B57">
         <v>6.5</v>
@@ -3295,18 +4520,53 @@
         <v>20.5</v>
       </c>
       <c r="J57">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="K57">
         <v>0.1</v>
       </c>
       <c r="L57">
-        <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>68</v>
+        <v>20.4</v>
+      </c>
+      <c r="M57">
+        <v>96</v>
+      </c>
+      <c r="N57">
+        <v>1.2</v>
+      </c>
+      <c r="O57">
+        <v>0.6</v>
+      </c>
+      <c r="P57">
+        <v>0.5</v>
+      </c>
+      <c r="Q57">
+        <v>3</v>
+      </c>
+      <c r="R57">
+        <v>4</v>
+      </c>
+      <c r="S57">
+        <v>0.1</v>
+      </c>
+      <c r="T57">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="U57">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="V57">
+        <v>3.7</v>
+      </c>
+      <c r="W57">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Papua New Guinea</t>
+        </is>
       </c>
       <c r="B58">
         <v>4.2</v>
@@ -3341,10 +4601,45 @@
       <c r="L58">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>69</v>
+      <c r="M58">
+        <v>45.5</v>
+      </c>
+      <c r="N58">
+        <v>4</v>
+      </c>
+      <c r="O58">
+        <v>0.3</v>
+      </c>
+      <c r="P58">
+        <v>2</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>54.3</v>
+      </c>
+      <c r="S58">
+        <v>0.2</v>
+      </c>
+      <c r="T58">
+        <v>28</v>
+      </c>
+      <c r="U58">
+        <v>42.7</v>
+      </c>
+      <c r="V58">
+        <v>2.2</v>
+      </c>
+      <c r="W58">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3379,10 +4674,45 @@
       <c r="L59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>70</v>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
       </c>
       <c r="B60">
         <v>2.4</v>
@@ -3406,7 +4736,7 @@
         <v>2.9</v>
       </c>
       <c r="I60">
-        <v>19.600000000000001</v>
+        <v>19.6</v>
       </c>
       <c r="J60">
         <v>1.7</v>
@@ -3417,10 +4747,45 @@
       <c r="L60">
         <v>71.7</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>71</v>
+      <c r="M60">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="N60">
+        <v>4.8</v>
+      </c>
+      <c r="O60">
+        <v>1.5</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>5.4</v>
+      </c>
+      <c r="R60">
+        <v>14.1</v>
+      </c>
+      <c r="S60">
+        <v>4.6</v>
+      </c>
+      <c r="T60">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="U60">
+        <v>85.2</v>
+      </c>
+      <c r="V60">
+        <v>0.5</v>
+      </c>
+      <c r="W60">
+        <v>78.59999999999999</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
       </c>
       <c r="B61">
         <v>3.2</v>
@@ -3429,7 +4794,7 @@
         <v>12.4</v>
       </c>
       <c r="D61">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="E61">
         <v>1.7</v>
@@ -3453,12 +4818,47 @@
         <v>0.4</v>
       </c>
       <c r="L61">
-        <v>20.100000000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>72</v>
+        <v>20.1</v>
+      </c>
+      <c r="M61">
+        <v>96.5</v>
+      </c>
+      <c r="N61">
+        <v>3.3</v>
+      </c>
+      <c r="O61">
+        <v>0.3</v>
+      </c>
+      <c r="P61">
+        <v>0.2</v>
+      </c>
+      <c r="Q61">
+        <v>44.6</v>
+      </c>
+      <c r="R61">
+        <v>3.5</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="U61">
+        <v>95.2</v>
+      </c>
+      <c r="V61">
+        <v>1.1</v>
+      </c>
+      <c r="W61">
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Rwanda</t>
+        </is>
       </c>
       <c r="B62">
         <v>28.6</v>
@@ -3467,13 +4867,13 @@
         <v>1.2</v>
       </c>
       <c r="D62">
-        <v>32.799999999999997</v>
+        <v>32.8</v>
       </c>
       <c r="E62">
         <v>13.9</v>
       </c>
       <c r="F62">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="G62">
         <v>0.9</v>
@@ -3488,15 +4888,50 @@
         <v>27</v>
       </c>
       <c r="K62">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="L62">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>73</v>
+      <c r="M62">
+        <v>79.2</v>
+      </c>
+      <c r="N62">
+        <v>9</v>
+      </c>
+      <c r="O62">
+        <v>0.1</v>
+      </c>
+      <c r="P62">
+        <v>0.4</v>
+      </c>
+      <c r="Q62">
+        <v>1.1</v>
+      </c>
+      <c r="R62">
+        <v>20.7</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>14</v>
+      </c>
+      <c r="U62">
+        <v>60.5</v>
+      </c>
+      <c r="V62">
+        <v>18.4</v>
+      </c>
+      <c r="W62">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Sao Tome and Principe</t>
+        </is>
       </c>
       <c r="B63">
         <v>57.7</v>
@@ -3531,10 +4966,45 @@
       <c r="L63">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>74</v>
+      <c r="M63">
+        <v>94.2</v>
+      </c>
+      <c r="N63">
+        <v>26.7</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0.1</v>
+      </c>
+      <c r="R63">
+        <v>5.8</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>25.4</v>
+      </c>
+      <c r="U63">
+        <v>79.2</v>
+      </c>
+      <c r="V63">
+        <v>11.6</v>
+      </c>
+      <c r="W63">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
       </c>
       <c r="B64">
         <v>7.7</v>
@@ -3569,10 +5039,45 @@
       <c r="L64">
         <v>22.1</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="M64">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="N64">
+        <v>35.1</v>
+      </c>
+      <c r="O64">
+        <v>0.1</v>
+      </c>
+      <c r="P64">
+        <v>4.7</v>
+      </c>
+      <c r="Q64">
+        <v>3.8</v>
+      </c>
+      <c r="R64">
+        <v>14.4</v>
+      </c>
+      <c r="S64">
+        <v>0.3</v>
+      </c>
+      <c r="T64">
+        <v>70.90000000000001</v>
+      </c>
+      <c r="U64">
+        <v>82.2</v>
+      </c>
+      <c r="V64">
+        <v>3</v>
+      </c>
+      <c r="W64">
         <v>75</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Sierra Leone</t>
+        </is>
       </c>
       <c r="B65">
         <v>16.2</v>
@@ -3607,10 +5112,45 @@
       <c r="L65">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>76</v>
+      <c r="M65">
+        <v>70.5</v>
+      </c>
+      <c r="N65">
+        <v>3.8</v>
+      </c>
+      <c r="O65">
+        <v>0.2</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0.2</v>
+      </c>
+      <c r="R65">
+        <v>29.5</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>22</v>
+      </c>
+      <c r="U65">
+        <v>64</v>
+      </c>
+      <c r="V65">
+        <v>5.3</v>
+      </c>
+      <c r="W65">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
       </c>
       <c r="B66">
         <v>14.1</v>
@@ -3631,10 +5171,10 @@
         <v>1.3</v>
       </c>
       <c r="H66">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="I66">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="J66">
         <v>4.5</v>
@@ -3645,16 +5185,51 @@
       <c r="L66">
         <v>45.1</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>77</v>
+      <c r="M66">
+        <v>95.3</v>
+      </c>
+      <c r="N66">
+        <v>25.7</v>
+      </c>
+      <c r="O66">
+        <v>2.1</v>
+      </c>
+      <c r="P66">
+        <v>0.8</v>
+      </c>
+      <c r="Q66">
+        <v>0.9</v>
+      </c>
+      <c r="R66">
+        <v>4.7</v>
+      </c>
+      <c r="S66">
+        <v>0.3</v>
+      </c>
+      <c r="T66">
+        <v>78.3</v>
+      </c>
+      <c r="U66">
+        <v>92.3</v>
+      </c>
+      <c r="V66">
+        <v>2.5</v>
+      </c>
+      <c r="W66">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Tajikistan</t>
+        </is>
       </c>
       <c r="B67">
         <v>13.8</v>
       </c>
       <c r="C67">
-        <v>9.3000000000000007</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D67">
         <v>1.2</v>
@@ -3675,7 +5250,7 @@
         <v>21.6</v>
       </c>
       <c r="J67">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="K67">
         <v>0.1</v>
@@ -3683,10 +5258,45 @@
       <c r="L67">
         <v>25.8</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>78</v>
+      <c r="M67">
+        <v>85.8</v>
+      </c>
+      <c r="N67">
+        <v>25</v>
+      </c>
+      <c r="O67">
+        <v>5.9</v>
+      </c>
+      <c r="P67">
+        <v>0.2</v>
+      </c>
+      <c r="Q67">
+        <v>0.1</v>
+      </c>
+      <c r="R67">
+        <v>14.2</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>67.7</v>
+      </c>
+      <c r="U67">
+        <v>83.5</v>
+      </c>
+      <c r="V67">
+        <v>1.6</v>
+      </c>
+      <c r="W67">
+        <v>75.3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Tanzania</t>
+        </is>
       </c>
       <c r="B68">
         <v>17.2</v>
@@ -3695,7 +5305,7 @@
         <v>1.9</v>
       </c>
       <c r="D68">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="E68">
         <v>6.7</v>
@@ -3710,7 +5320,7 @@
         <v>10.3</v>
       </c>
       <c r="I68">
-        <v>36.799999999999997</v>
+        <v>36.8</v>
       </c>
       <c r="J68">
         <v>22</v>
@@ -3721,10 +5331,45 @@
       <c r="L68">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>79</v>
+      <c r="M68">
+        <v>65.5</v>
+      </c>
+      <c r="N68">
+        <v>8.4</v>
+      </c>
+      <c r="O68">
+        <v>1.2</v>
+      </c>
+      <c r="P68">
+        <v>0.6</v>
+      </c>
+      <c r="Q68">
+        <v>1.1</v>
+      </c>
+      <c r="R68">
+        <v>34.5</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>37.4</v>
+      </c>
+      <c r="U68">
+        <v>57</v>
+      </c>
+      <c r="V68">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="W68">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Timor-Leste</t>
+        </is>
       </c>
       <c r="B69">
         <v>23.6</v>
@@ -3759,10 +5404,45 @@
       <c r="L69">
         <v>22.8</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>80</v>
+      <c r="M69">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="N69">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="O69">
+        <v>0.8</v>
+      </c>
+      <c r="P69">
+        <v>0.2</v>
+      </c>
+      <c r="Q69">
+        <v>5.3</v>
+      </c>
+      <c r="R69">
+        <v>19.6</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>60.4</v>
+      </c>
+      <c r="U69">
+        <v>75.5</v>
+      </c>
+      <c r="V69">
+        <v>3.2</v>
+      </c>
+      <c r="W69">
+        <v>65.90000000000001</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Togo</t>
+        </is>
       </c>
       <c r="B70">
         <v>16</v>
@@ -3789,7 +5469,7 @@
         <v>62.5</v>
       </c>
       <c r="J70">
-        <v>9.3000000000000007</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K70">
         <v>0.9</v>
@@ -3797,16 +5477,51 @@
       <c r="L70">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>81</v>
+      <c r="M70">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="N70">
+        <v>4.1</v>
+      </c>
+      <c r="O70">
+        <v>0.1</v>
+      </c>
+      <c r="P70">
+        <v>0.1</v>
+      </c>
+      <c r="Q70">
+        <v>0.5</v>
+      </c>
+      <c r="R70">
+        <v>27.9</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>22.8</v>
+      </c>
+      <c r="U70">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="V70">
+        <v>2.9</v>
+      </c>
+      <c r="W70">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
       </c>
       <c r="B71">
         <v>1.7</v>
       </c>
       <c r="C71">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="D71">
         <v>7.6</v>
@@ -3835,10 +5550,45 @@
       <c r="L71">
         <v>49.9</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>82</v>
+      <c r="M71">
+        <v>99.2</v>
+      </c>
+      <c r="N71">
+        <v>0.4</v>
+      </c>
+      <c r="O71">
+        <v>0.1</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>35.8</v>
+      </c>
+      <c r="R71">
+        <v>0.8</v>
+      </c>
+      <c r="S71">
+        <v>0.1</v>
+      </c>
+      <c r="T71">
+        <v>92.8</v>
+      </c>
+      <c r="U71">
+        <v>97.7</v>
+      </c>
+      <c r="V71">
+        <v>1.2</v>
+      </c>
+      <c r="W71">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Turkmenistan</t>
+        </is>
       </c>
       <c r="B72">
         <v>6.9</v>
@@ -3865,7 +5615,7 @@
         <v>14.9</v>
       </c>
       <c r="J72">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -3873,10 +5623,45 @@
       <c r="L72">
         <v>25.7</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>83</v>
+      <c r="M72">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="N72">
+        <v>29.5</v>
+      </c>
+      <c r="O72">
+        <v>4</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>31.9</v>
+      </c>
+      <c r="S72">
+        <v>0.5</v>
+      </c>
+      <c r="T72">
+        <v>58.3</v>
+      </c>
+      <c r="U72">
+        <v>64.5</v>
+      </c>
+      <c r="V72">
+        <v>0.8</v>
+      </c>
+      <c r="W72">
+        <v>81.40000000000001</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Uganda</t>
+        </is>
       </c>
       <c r="B73">
         <v>8.6</v>
@@ -3906,15 +5691,50 @@
         <v>29.5</v>
       </c>
       <c r="K73">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="L73">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>84</v>
+      <c r="M73">
+        <v>76.2</v>
+      </c>
+      <c r="N73">
+        <v>5</v>
+      </c>
+      <c r="O73">
+        <v>0.3</v>
+      </c>
+      <c r="P73">
+        <v>0.6</v>
+      </c>
+      <c r="Q73">
+        <v>0.7</v>
+      </c>
+      <c r="R73">
+        <v>23.8</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>17.6</v>
+      </c>
+      <c r="U73">
+        <v>54.3</v>
+      </c>
+      <c r="V73">
+        <v>21.2</v>
+      </c>
+      <c r="W73">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
       </c>
       <c r="B74">
         <v>2.5</v>
@@ -3949,10 +5769,45 @@
       <c r="L74">
         <v>55.6</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>85</v>
+      <c r="M74">
+        <v>98.8</v>
+      </c>
+      <c r="N74">
+        <v>9.6</v>
+      </c>
+      <c r="O74">
+        <v>0.6</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>4.1</v>
+      </c>
+      <c r="R74">
+        <v>1.2</v>
+      </c>
+      <c r="S74">
+        <v>0.1</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Uzbekistan</t>
+        </is>
       </c>
       <c r="B75">
         <v>18</v>
@@ -3979,7 +5834,7 @@
         <v>24.5</v>
       </c>
       <c r="J75">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="K75">
         <v>0.2</v>
@@ -3987,10 +5842,45 @@
       <c r="L75">
         <v>59.7</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>86</v>
+      <c r="M75">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>2.3</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0.3</v>
+      </c>
+      <c r="R75">
+        <v>19.4</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>60.3</v>
+      </c>
+      <c r="U75">
+        <v>78.8</v>
+      </c>
+      <c r="V75">
+        <v>1.3</v>
+      </c>
+      <c r="W75">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Vietnam</t>
+        </is>
       </c>
       <c r="B76">
         <v>1.4</v>
@@ -4025,10 +5915,45 @@
       <c r="L76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>87</v>
+      <c r="M76">
+        <v>34.4</v>
+      </c>
+      <c r="N76">
+        <v>20.4</v>
+      </c>
+      <c r="O76">
+        <v>0.6</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0.1</v>
+      </c>
+      <c r="R76">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="S76">
+        <v>0.1</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Yemen</t>
+        </is>
       </c>
       <c r="B77">
         <v>0</v>
@@ -4037,7 +5962,7 @@
         <v>13.9</v>
       </c>
       <c r="D77">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -4055,7 +5980,7 @@
         <v>3.2</v>
       </c>
       <c r="J77">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K77">
         <v>3.4</v>
@@ -4063,13 +5988,48 @@
       <c r="L77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>88</v>
+      <c r="M77">
+        <v>74.2</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>12.7</v>
+      </c>
+      <c r="P77">
+        <v>0.5</v>
+      </c>
+      <c r="Q77">
+        <v>11.5</v>
+      </c>
+      <c r="R77">
+        <v>25.7</v>
+      </c>
+      <c r="S77">
+        <v>0.8</v>
+      </c>
+      <c r="T77">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="U77">
+        <v>69.2</v>
+      </c>
+      <c r="V77">
+        <v>4.5</v>
+      </c>
+      <c r="W77">
+        <v>87.8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
       </c>
       <c r="B78">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C78">
         <v>23.9</v>
@@ -4101,10 +6061,45 @@
       <c r="L78">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>89</v>
+      <c r="M78">
+        <v>72.3</v>
+      </c>
+      <c r="N78">
+        <v>11.8</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0.3</v>
+      </c>
+      <c r="R78">
+        <v>27.7</v>
+      </c>
+      <c r="S78">
+        <v>0.1</v>
+      </c>
+      <c r="T78">
+        <v>32.4</v>
+      </c>
+      <c r="U78">
+        <v>66</v>
+      </c>
+      <c r="V78">
+        <v>5.7</v>
+      </c>
+      <c r="W78">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Zimbabwe</t>
+        </is>
       </c>
       <c r="B79">
         <v>5.5</v>
@@ -4138,6 +6133,39 @@
       </c>
       <c r="L79">
         <v>14.1</v>
+      </c>
+      <c r="M79">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="N79">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="O79">
+        <v>0.2</v>
+      </c>
+      <c r="P79">
+        <v>0.1</v>
+      </c>
+      <c r="Q79">
+        <v>0.5</v>
+      </c>
+      <c r="R79">
+        <v>21.6</v>
+      </c>
+      <c r="S79">
+        <v>0.1</v>
+      </c>
+      <c r="T79">
+        <v>35.3</v>
+      </c>
+      <c r="U79">
+        <v>67.8</v>
+      </c>
+      <c r="V79">
+        <v>10.3</v>
+      </c>
+      <c r="W79">
+        <v>37.6</v>
       </c>
     </row>
   </sheetData>

--- a/results/df-water-access.xlsx
+++ b/results/df-water-access.xlsx
@@ -1,21 +1,335 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\Desktop\2020-2021\Fall of 2020\Independent Study\water-accessibility\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9BEE01-5FDD-47AD-A006-28F9810DDE09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>ptap</t>
+  </si>
+  <si>
+    <t>bore</t>
+  </si>
+  <si>
+    <t>pspr</t>
+  </si>
+  <si>
+    <t>uspr</t>
+  </si>
+  <si>
+    <t>pwel</t>
+  </si>
+  <si>
+    <t>uwel</t>
+  </si>
+  <si>
+    <t>surw</t>
+  </si>
+  <si>
+    <t>tles</t>
+  </si>
+  <si>
+    <t>tmor</t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>phom</t>
+  </si>
+  <si>
+    <t>imws</t>
+  </si>
+  <si>
+    <t>pipy</t>
+  </si>
+  <si>
+    <t>truc</t>
+  </si>
+  <si>
+    <t>bott</t>
+  </si>
+  <si>
+    <t>uiws</t>
+  </si>
+  <si>
+    <t>othw</t>
+  </si>
+  <si>
+    <t>iwsp</t>
+  </si>
+  <si>
+    <t>basw</t>
+  </si>
+  <si>
+    <t>liws</t>
+  </si>
+  <si>
+    <t>watp</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Congo Democratic Republic</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kyrgyz Republic</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>cart</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +377,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -109,7 +431,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +463,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +515,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,141 +708,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ptap</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>bore</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pspr</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>uspr</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>pwel</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>uwel</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>surw</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>tles</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>tmor</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>rain</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>phom</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>imws</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>pipy</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>truc</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>ctan</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bott</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>uiws</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>othw</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>iwsp</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>basw</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>liws</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>watp</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Afghanistan</t>
-        </is>
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
       </c>
       <c r="B2">
         <v>14.2</v>
       </c>
       <c r="C2">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="D2">
         <v>4.7</v>
@@ -505,13 +817,13 @@
         <v>45.2</v>
       </c>
       <c r="J2">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K2">
         <v>0.4</v>
       </c>
       <c r="L2">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="M2">
         <v>71.2</v>
@@ -523,7 +835,7 @@
         <v>1.5</v>
       </c>
       <c r="P2">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Q2">
         <v>0.2</v>
@@ -547,11 +859,9 @@
         <v>45.3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Albania</t>
-        </is>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
       </c>
       <c r="B3">
         <v>2.4</v>
@@ -566,7 +876,7 @@
         <v>0.8</v>
       </c>
       <c r="F3">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G3">
         <v>0.8</v>
@@ -578,7 +888,7 @@
         <v>20.6</v>
       </c>
       <c r="J3">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -587,7 +897,7 @@
         <v>48.8</v>
       </c>
       <c r="M3">
-        <v>98.40000000000001</v>
+        <v>98.4</v>
       </c>
       <c r="N3">
         <v>5.2</v>
@@ -599,7 +909,7 @@
         <v>0.2</v>
       </c>
       <c r="Q3">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="R3">
         <v>1.6</v>
@@ -617,14 +927,12 @@
         <v>0.9</v>
       </c>
       <c r="W3">
-        <v>77.90000000000001</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Angola</t>
-        </is>
+        <v>77.900000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>24</v>
       </c>
       <c r="B4">
         <v>10.3</v>
@@ -642,7 +950,7 @@
         <v>9.1</v>
       </c>
       <c r="G4">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H4">
         <v>18</v>
@@ -660,13 +968,13 @@
         <v>4.3</v>
       </c>
       <c r="M4">
-        <v>66.90000000000001</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="N4">
-        <v>9.699999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="O4">
-        <v>9.699999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="P4">
         <v>4.3</v>
@@ -693,11 +1001,9 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Armenia</t>
-        </is>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>25</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -733,7 +1039,7 @@
         <v>88.3</v>
       </c>
       <c r="M5">
-        <v>99.90000000000001</v>
+        <v>99.9</v>
       </c>
       <c r="N5">
         <v>8</v>
@@ -754,35 +1060,33 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>97.59999999999999</v>
+        <v>97.6</v>
       </c>
       <c r="U5">
-        <v>99.09999999999999</v>
+        <v>99.1</v>
       </c>
       <c r="V5">
         <v>0.1</v>
       </c>
       <c r="W5">
-        <v>97.59999999999999</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Azerbaijan</t>
-        </is>
+        <v>97.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
       </c>
       <c r="B6">
         <v>3.5</v>
       </c>
       <c r="C6">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D6">
         <v>7.5</v>
       </c>
       <c r="E6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F6">
         <v>6.2</v>
@@ -797,7 +1101,7 @@
         <v>18.7</v>
       </c>
       <c r="J6">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -806,7 +1110,7 @@
         <v>34</v>
       </c>
       <c r="M6">
-        <v>90.59999999999999</v>
+        <v>90.6</v>
       </c>
       <c r="N6">
         <v>19.7</v>
@@ -824,32 +1128,30 @@
         <v>9.4</v>
       </c>
       <c r="S6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T6">
         <v>71.2</v>
       </c>
       <c r="U6">
-        <v>86.40000000000001</v>
+        <v>86.4</v>
       </c>
       <c r="V6">
         <v>3.4</v>
       </c>
       <c r="W6">
-        <v>75.90000000000001</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Bangladesh</t>
-        </is>
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>27</v>
       </c>
       <c r="B7">
         <v>2.7</v>
       </c>
       <c r="C7">
-        <v>86.40000000000001</v>
+        <v>86.4</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -894,16 +1196,16 @@
         <v>0.3</v>
       </c>
       <c r="R7">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="S7">
         <v>0.1</v>
       </c>
       <c r="T7">
-        <v>75.09999999999999</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="U7">
-        <v>96.40000000000001</v>
+        <v>96.4</v>
       </c>
       <c r="V7">
         <v>1.3</v>
@@ -912,11 +1214,9 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Benin</t>
-        </is>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>28</v>
       </c>
       <c r="B8">
         <v>13</v>
@@ -931,7 +1231,7 @@
         <v>1.2</v>
       </c>
       <c r="F8">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G8">
         <v>20.8</v>
@@ -949,7 +1249,7 @@
         <v>0.4</v>
       </c>
       <c r="L8">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="M8">
         <v>71.7</v>
@@ -985,11 +1285,9 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Bolivia</t>
-        </is>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>29</v>
       </c>
       <c r="B9">
         <v>5.3</v>
@@ -1058,11 +1356,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>30</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1131,14 +1427,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Burkina Faso</t>
-        </is>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>31</v>
       </c>
       <c r="B11">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="C11">
         <v>40.6</v>
@@ -1171,7 +1465,7 @@
         <v>2.6</v>
       </c>
       <c r="M11">
-        <v>80.90000000000001</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="N11">
         <v>9.6</v>
@@ -1186,7 +1480,7 @@
         <v>0.2</v>
       </c>
       <c r="R11">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="S11">
         <v>0.5</v>
@@ -1201,14 +1495,12 @@
         <v>28.5</v>
       </c>
       <c r="W11">
-        <v>17.1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Burundi</t>
-        </is>
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>32</v>
       </c>
       <c r="B12">
         <v>24</v>
@@ -1232,7 +1524,7 @@
         <v>4.3</v>
       </c>
       <c r="I12">
-        <v>64.90000000000001</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="J12">
         <v>25.5</v>
@@ -1241,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M12">
-        <v>82.90000000000001</v>
+        <v>82.9</v>
       </c>
       <c r="N12">
         <v>5</v>
@@ -1259,7 +1551,7 @@
         <v>0.1</v>
       </c>
       <c r="R12">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="S12">
         <v>0.1</v>
@@ -1271,17 +1563,15 @@
         <v>63.1</v>
       </c>
       <c r="V12">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="W12">
         <v>9.6</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Cambodia</t>
-        </is>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>33</v>
       </c>
       <c r="B13">
         <v>0.7</v>
@@ -1299,7 +1589,7 @@
         <v>2.6</v>
       </c>
       <c r="G13">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H13">
         <v>7.3</v>
@@ -1350,11 +1640,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Cameroon</t>
-        </is>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>34</v>
       </c>
       <c r="B14">
         <v>10.6</v>
@@ -1363,7 +1651,7 @@
         <v>29.9</v>
       </c>
       <c r="D14">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E14">
         <v>6</v>
@@ -1387,7 +1675,7 @@
         <v>0.5</v>
       </c>
       <c r="L14">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="M14">
         <v>78.8</v>
@@ -1411,7 +1699,7 @@
         <v>0.1</v>
       </c>
       <c r="T14">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="U14">
         <v>71</v>
@@ -1420,14 +1708,12 @@
         <v>7.5</v>
       </c>
       <c r="W14">
-        <v>34.2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Central African Republic</t>
-        </is>
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>35</v>
       </c>
       <c r="B15">
         <v>14.6</v>
@@ -1451,10 +1737,10 @@
         <v>9.4</v>
       </c>
       <c r="I15">
-        <v>75.09999999999999</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="J15">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1478,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>83.59999999999999</v>
+        <v>83.6</v>
       </c>
       <c r="S15">
         <v>0.6</v>
@@ -1490,17 +1776,15 @@
         <v>15.2</v>
       </c>
       <c r="V15">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W15">
         <v>7.5</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Chad</t>
-        </is>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>36</v>
       </c>
       <c r="B16">
         <v>10.3</v>
@@ -1569,11 +1853,9 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Colombia</t>
-        </is>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>37</v>
       </c>
       <c r="B17">
         <v>0.1</v>
@@ -1606,7 +1888,7 @@
         <v>2</v>
       </c>
       <c r="L17">
-        <v>80.90000000000001</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="M17">
         <v>92.8</v>
@@ -1630,7 +1912,7 @@
         <v>0.7</v>
       </c>
       <c r="T17">
-        <v>91.09999999999999</v>
+        <v>91.1</v>
       </c>
       <c r="U17">
         <v>92.5</v>
@@ -1639,14 +1921,12 @@
         <v>0.2</v>
       </c>
       <c r="W17">
-        <v>95.90000000000001</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Comoros</t>
-        </is>
+        <v>95.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>38</v>
       </c>
       <c r="B18">
         <v>22.6</v>
@@ -1664,7 +1944,7 @@
         <v>6.3</v>
       </c>
       <c r="G18">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H18">
         <v>0.8</v>
@@ -1673,10 +1953,10 @@
         <v>20.7</v>
       </c>
       <c r="J18">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="K18">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="L18">
         <v>13.8</v>
@@ -1715,11 +1995,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Congo</t>
-        </is>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>39</v>
       </c>
       <c r="B19">
         <v>27</v>
@@ -1731,10 +2009,10 @@
         <v>4.2</v>
       </c>
       <c r="E19">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F19">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G19">
         <v>5.2</v>
@@ -1773,7 +2051,7 @@
         <v>24.3</v>
       </c>
       <c r="S19">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="T19">
         <v>34.6</v>
@@ -1785,26 +2063,24 @@
         <v>13.6</v>
       </c>
       <c r="W19">
-        <v>36.3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Congo Democratic Republic</t>
-        </is>
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>40</v>
       </c>
       <c r="B20">
-        <v>9.699999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="C20">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D20">
         <v>17.2</v>
       </c>
       <c r="E20">
-        <v>36.3</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -1813,13 +2089,13 @@
         <v>5.4</v>
       </c>
       <c r="H20">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="I20">
         <v>59.3</v>
       </c>
       <c r="J20">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1852,7 +2128,7 @@
         <v>7</v>
       </c>
       <c r="U20">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="V20">
         <v>12.1</v>
@@ -1861,11 +2137,9 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Cote d'Ivoire</t>
-        </is>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>41</v>
       </c>
       <c r="B21">
         <v>16.2</v>
@@ -1886,7 +2160,7 @@
         <v>13.2</v>
       </c>
       <c r="H21">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I21">
         <v>46.4</v>
@@ -1901,7 +2175,7 @@
         <v>11.2</v>
       </c>
       <c r="M21">
-        <v>78.40000000000001</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="N21">
         <v>20.3</v>
@@ -1922,10 +2196,10 @@
         <v>0.7</v>
       </c>
       <c r="T21">
-        <v>40.3</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="U21">
-        <v>72.59999999999999</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="V21">
         <v>5.3</v>
@@ -1934,11 +2208,9 @@
         <v>44.2</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Dominican Republic</t>
-        </is>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>42</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1971,7 +2243,7 @@
         <v>2.9</v>
       </c>
       <c r="L22">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="M22">
         <v>98.7</v>
@@ -1995,23 +2267,21 @@
         <v>0.5</v>
       </c>
       <c r="T22">
-        <v>86.09999999999999</v>
+        <v>86.1</v>
       </c>
       <c r="U22">
-        <v>97.59999999999999</v>
+        <v>97.6</v>
       </c>
       <c r="V22">
         <v>0.9</v>
       </c>
       <c r="W22">
-        <v>86.90000000000001</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Egypt</t>
-        </is>
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>43</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -2044,10 +2314,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>90.59999999999999</v>
+        <v>90.6</v>
       </c>
       <c r="M23">
-        <v>99.59999999999999</v>
+        <v>99.6</v>
       </c>
       <c r="N23">
         <v>0.4</v>
@@ -2068,10 +2338,10 @@
         <v>0.4</v>
       </c>
       <c r="T23">
-        <v>93.09999999999999</v>
+        <v>93.1</v>
       </c>
       <c r="U23">
-        <v>98.90000000000001</v>
+        <v>98.9</v>
       </c>
       <c r="V23">
         <v>0.6</v>
@@ -2080,11 +2350,9 @@
         <v>93.2</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Eritrea</t>
-        </is>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>44</v>
       </c>
       <c r="B24">
         <v>20.8</v>
@@ -2099,10 +2367,10 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="G24">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="H24">
         <v>5.4</v>
@@ -2120,7 +2388,7 @@
         <v>16.3</v>
       </c>
       <c r="M24">
-        <v>67.40000000000001</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2153,14 +2421,12 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Eswatini</t>
-        </is>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>45</v>
       </c>
       <c r="B25">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="C25">
         <v>6.9</v>
@@ -2175,7 +2441,7 @@
         <v>4.3</v>
       </c>
       <c r="G25">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="H25">
         <v>15.6</v>
@@ -2190,10 +2456,10 @@
         <v>0.5</v>
       </c>
       <c r="L25">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="M25">
-        <v>71.40000000000001</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="N25">
         <v>21.3</v>
@@ -2217,7 +2483,7 @@
         <v>42.6</v>
       </c>
       <c r="U25">
-        <v>66.59999999999999</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="V25">
         <v>4.5</v>
@@ -2226,11 +2492,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Ethiopia</t>
-        </is>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>46</v>
       </c>
       <c r="B26">
         <v>17.7</v>
@@ -2248,7 +2512,7 @@
         <v>5.9</v>
       </c>
       <c r="G26">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H26">
         <v>10.7</v>
@@ -2281,7 +2545,7 @@
         <v>0.2</v>
       </c>
       <c r="R26">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="S26">
         <v>0.1</v>
@@ -2299,11 +2563,9 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Gabon</t>
-        </is>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>47</v>
       </c>
       <c r="B27">
         <v>20.2</v>
@@ -2339,7 +2601,7 @@
         <v>25.4</v>
       </c>
       <c r="M27">
-        <v>93.09999999999999</v>
+        <v>93.1</v>
       </c>
       <c r="N27">
         <v>38.4</v>
@@ -2351,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R27">
         <v>6.7</v>
@@ -2369,20 +2631,18 @@
         <v>7.2</v>
       </c>
       <c r="W27">
-        <v>65.59999999999999</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Gambia</t>
-        </is>
+        <v>65.599999999999994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>48</v>
       </c>
       <c r="B28">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="C28">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2415,7 +2675,7 @@
         <v>91</v>
       </c>
       <c r="N28">
-        <v>38.2</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -2436,7 +2696,7 @@
         <v>43.7</v>
       </c>
       <c r="U28">
-        <v>86.40000000000001</v>
+        <v>86.4</v>
       </c>
       <c r="V28">
         <v>4</v>
@@ -2445,17 +2705,15 @@
         <v>46.1</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Ghana</t>
-        </is>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>49</v>
       </c>
       <c r="B29">
         <v>14.6</v>
       </c>
       <c r="C29">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="D29">
         <v>0.1</v>
@@ -2464,13 +2722,13 @@
         <v>0.6</v>
       </c>
       <c r="F29">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G29">
         <v>1.8</v>
       </c>
       <c r="H29">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I29">
         <v>46.3</v>
@@ -2485,7 +2743,7 @@
         <v>2.7</v>
       </c>
       <c r="M29">
-        <v>93.09999999999999</v>
+        <v>93.1</v>
       </c>
       <c r="N29">
         <v>5.4</v>
@@ -2497,7 +2755,7 @@
         <v>0.1</v>
       </c>
       <c r="Q29">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R29">
         <v>6.9</v>
@@ -2518,11 +2776,9 @@
         <v>46.6</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Guatemala</t>
-        </is>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>50</v>
       </c>
       <c r="B30">
         <v>1.9</v>
@@ -2546,7 +2802,7 @@
         <v>1.5</v>
       </c>
       <c r="I30">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="J30">
         <v>1.2</v>
@@ -2582,7 +2838,7 @@
         <v>82.2</v>
       </c>
       <c r="U30">
-        <v>86.09999999999999</v>
+        <v>86.1</v>
       </c>
       <c r="V30">
         <v>0.4</v>
@@ -2591,11 +2847,9 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Guinea</t>
-        </is>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>51</v>
       </c>
       <c r="B31">
         <v>3.9</v>
@@ -2607,13 +2861,13 @@
         <v>2.7</v>
       </c>
       <c r="E31">
-        <v>9.699999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F31">
         <v>10.6</v>
       </c>
       <c r="G31">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H31">
         <v>5.9</v>
@@ -2643,7 +2897,7 @@
         <v>0.2</v>
       </c>
       <c r="Q31">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R31">
         <v>20.7</v>
@@ -2658,20 +2912,18 @@
         <v>60.2</v>
       </c>
       <c r="V31">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="W31">
         <v>31</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Guyana</t>
-        </is>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>52</v>
       </c>
       <c r="B32">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2707,7 +2959,7 @@
         <v>94.8</v>
       </c>
       <c r="N32">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="O32">
         <v>0.1</v>
@@ -2716,7 +2968,7 @@
         <v>0.1</v>
       </c>
       <c r="Q32">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="R32">
         <v>5.2</v>
@@ -2734,14 +2986,12 @@
         <v>0.2</v>
       </c>
       <c r="W32">
-        <v>92.59999999999999</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Haiti</t>
-        </is>
+        <v>92.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>53</v>
       </c>
       <c r="B33">
         <v>18.8</v>
@@ -2768,7 +3018,7 @@
         <v>66.5</v>
       </c>
       <c r="J33">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="K33">
         <v>1.7</v>
@@ -2777,10 +3027,10 @@
         <v>1.2</v>
       </c>
       <c r="M33">
-        <v>75.59999999999999</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="N33">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="O33">
         <v>0.9</v>
@@ -2789,7 +3039,7 @@
         <v>0.3</v>
       </c>
       <c r="Q33">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="R33">
         <v>24.4</v>
@@ -2810,11 +3060,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Honduras</t>
-        </is>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>54</v>
       </c>
       <c r="B34">
         <v>0.7</v>
@@ -2865,7 +3113,7 @@
         <v>38.6</v>
       </c>
       <c r="R34">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="S34">
         <v>0.9</v>
@@ -2880,20 +3128,18 @@
         <v>0.1</v>
       </c>
       <c r="W34">
-        <v>88.40000000000001</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
+        <v>88.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>55</v>
       </c>
       <c r="B35">
         <v>15.9</v>
       </c>
       <c r="C35">
-        <v>39.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="D35">
         <v>0.3</v>
@@ -2914,13 +3160,13 @@
         <v>31.4</v>
       </c>
       <c r="J35">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K35">
         <v>0.2</v>
       </c>
       <c r="L35">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="M35">
         <v>94.5</v>
@@ -2944,7 +3190,7 @@
         <v>0.2</v>
       </c>
       <c r="T35">
-        <v>64.40000000000001</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="U35">
         <v>92.7</v>
@@ -2956,11 +3202,9 @@
         <v>66.3</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Indonesia</t>
-        </is>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>56</v>
       </c>
       <c r="B36">
         <v>0.6</v>
@@ -2978,7 +3222,7 @@
         <v>16.8</v>
       </c>
       <c r="G36">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H36">
         <v>1.7</v>
@@ -2990,16 +3234,16 @@
         <v>0.5</v>
       </c>
       <c r="K36">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L36">
         <v>7.3</v>
       </c>
       <c r="M36">
-        <v>90.90000000000001</v>
+        <v>90.9</v>
       </c>
       <c r="N36">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O36">
         <v>0.4</v>
@@ -3029,11 +3273,9 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Jordan</t>
-        </is>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>57</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3081,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="R37">
         <v>0.2</v>
@@ -3093,7 +3335,7 @@
         <v>99.2</v>
       </c>
       <c r="U37">
-        <v>99.59999999999999</v>
+        <v>99.6</v>
       </c>
       <c r="V37">
         <v>0.1</v>
@@ -3102,11 +3344,9 @@
         <v>99.3</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Kazakhstan</t>
-        </is>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>58</v>
       </c>
       <c r="B38">
         <v>7.6</v>
@@ -3142,10 +3382,10 @@
         <v>49.5</v>
       </c>
       <c r="M38">
-        <v>69.40000000000001</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="N38">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="O38">
         <v>3</v>
@@ -3166,20 +3406,18 @@
         <v>59.3</v>
       </c>
       <c r="U38">
-        <v>68.40000000000001</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="V38">
         <v>0.8</v>
       </c>
       <c r="W38">
-        <v>70.09999999999999</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Kenya</t>
-        </is>
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>59</v>
       </c>
       <c r="B39">
         <v>18</v>
@@ -3188,10 +3426,10 @@
         <v>7.3</v>
       </c>
       <c r="D39">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E39">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F39">
         <v>7.9</v>
@@ -3239,7 +3477,7 @@
         <v>45.4</v>
       </c>
       <c r="U39">
-        <v>71.59999999999999</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="V39">
         <v>6</v>
@@ -3248,11 +3486,9 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Kyrgyz Republic</t>
-        </is>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>60</v>
       </c>
       <c r="B40">
         <v>20.8</v>
@@ -3267,13 +3503,13 @@
         <v>1.6</v>
       </c>
       <c r="F40">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G40">
         <v>0.7</v>
       </c>
       <c r="H40">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I40">
         <v>29.9</v>
@@ -3312,7 +3548,7 @@
         <v>66.2</v>
       </c>
       <c r="U40">
-        <v>87.90000000000001</v>
+        <v>87.9</v>
       </c>
       <c r="V40">
         <v>0.7</v>
@@ -3321,14 +3557,12 @@
         <v>68.2</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Lesotho</t>
-        </is>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>61</v>
       </c>
       <c r="B41">
-        <v>38.8</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="C41">
         <v>5.7</v>
@@ -3337,10 +3571,10 @@
         <v>4.2</v>
       </c>
       <c r="E41">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F41">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G41">
         <v>7.1</v>
@@ -3361,7 +3595,7 @@
         <v>3</v>
       </c>
       <c r="M41">
-        <v>83.90000000000001</v>
+        <v>83.9</v>
       </c>
       <c r="N41">
         <v>22.6</v>
@@ -3376,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="R41">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -3394,11 +3628,9 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Liberia</t>
-        </is>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>62</v>
       </c>
       <c r="B42">
         <v>4.2</v>
@@ -3416,13 +3648,13 @@
         <v>8.6</v>
       </c>
       <c r="G42">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H42">
         <v>11.5</v>
       </c>
       <c r="I42">
-        <v>73.90000000000001</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="J42">
         <v>3.8</v>
@@ -3467,11 +3699,9 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Madagascar</t>
-        </is>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>63</v>
       </c>
       <c r="B43">
         <v>17</v>
@@ -3480,7 +3710,7 @@
         <v>4.2</v>
       </c>
       <c r="D43">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E43">
         <v>22</v>
@@ -3540,11 +3770,9 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Malawi</t>
-        </is>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>64</v>
       </c>
       <c r="B44">
         <v>13.6</v>
@@ -3562,7 +3790,7 @@
         <v>5.5</v>
       </c>
       <c r="G44">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="H44">
         <v>3.4</v>
@@ -3613,11 +3841,9 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Maldives</t>
-        </is>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>65</v>
       </c>
       <c r="B45">
         <v>0.1</v>
@@ -3665,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>36.7</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="R45">
         <v>0.3</v>
@@ -3677,7 +3903,7 @@
         <v>96.7</v>
       </c>
       <c r="U45">
-        <v>99.40000000000001</v>
+        <v>99.4</v>
       </c>
       <c r="V45">
         <v>0.1</v>
@@ -3686,11 +3912,9 @@
         <v>96.8</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Mali</t>
-        </is>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>66</v>
       </c>
       <c r="B46">
         <v>17.3</v>
@@ -3717,7 +3941,7 @@
         <v>61.7</v>
       </c>
       <c r="J46">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K46">
         <v>0.3</v>
@@ -3759,11 +3983,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Mauritania</t>
-        </is>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>67</v>
       </c>
       <c r="B47">
         <v>27.6</v>
@@ -3790,13 +4012,13 @@
         <v>45.6</v>
       </c>
       <c r="J47">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
       <c r="L47">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="M47">
         <v>66.5</v>
@@ -3805,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="O47">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -3829,14 +4051,12 @@
         <v>9.1</v>
       </c>
       <c r="W47">
-        <v>35.8</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Moldova</t>
-        </is>
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>68</v>
       </c>
       <c r="B48">
         <v>0.9</v>
@@ -3881,7 +4101,7 @@
         <v>0.3</v>
       </c>
       <c r="P48">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="Q48">
         <v>2.5</v>
@@ -3905,11 +4125,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Morocco</t>
-        </is>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>69</v>
       </c>
       <c r="B49">
         <v>10.9</v>
@@ -3930,7 +4148,7 @@
         <v>10.7</v>
       </c>
       <c r="H49">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -3948,7 +4166,7 @@
         <v>79.8</v>
       </c>
       <c r="N49">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="O49">
         <v>0.9</v>
@@ -3960,7 +4178,7 @@
         <v>0.5</v>
       </c>
       <c r="R49">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="S49">
         <v>0.2</v>
@@ -3978,11 +4196,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Mozambique</t>
-        </is>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>70</v>
       </c>
       <c r="B50">
         <v>15.9</v>
@@ -3997,13 +4213,13 @@
         <v>2</v>
       </c>
       <c r="F50">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="G50">
         <v>24.5</v>
       </c>
       <c r="H50">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="I50">
         <v>44.4</v>
@@ -4015,10 +4231,10 @@
         <v>1.7</v>
       </c>
       <c r="L50">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M50">
-        <v>64.09999999999999</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="N50">
         <v>14.2</v>
@@ -4051,11 +4267,9 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Myanmar</t>
-        </is>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>71</v>
       </c>
       <c r="B51">
         <v>3.2</v>
@@ -4091,7 +4305,7 @@
         <v>2.1</v>
       </c>
       <c r="M51">
-        <v>82.40000000000001</v>
+        <v>82.4</v>
       </c>
       <c r="N51">
         <v>4.2</v>
@@ -4106,7 +4320,7 @@
         <v>15.5</v>
       </c>
       <c r="R51">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="S51">
         <v>0.2</v>
@@ -4124,11 +4338,9 @@
         <v>52.9</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Namibia</t>
-        </is>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>72</v>
       </c>
       <c r="B52">
         <v>26.1</v>
@@ -4161,7 +4373,7 @@
         <v>0.1</v>
       </c>
       <c r="L52">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="M52">
         <v>87.5</v>
@@ -4188,7 +4400,7 @@
         <v>52.7</v>
       </c>
       <c r="U52">
-        <v>81.09999999999999</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="V52">
         <v>5.3</v>
@@ -4197,14 +4409,12 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Nepal</t>
-        </is>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>73</v>
       </c>
       <c r="B53">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="C53">
         <v>35.9</v>
@@ -4264,17 +4474,15 @@
         <v>94.8</v>
       </c>
       <c r="V53">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W53">
-        <v>69.09999999999999</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Nicaragua</t>
-        </is>
+        <v>69.099999999999994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>74</v>
       </c>
       <c r="B54">
         <v>3.2</v>
@@ -4340,14 +4548,12 @@
         <v>0</v>
       </c>
       <c r="W54">
-        <v>76.09999999999999</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Niger</t>
-        </is>
+        <v>76.099999999999994</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>75</v>
       </c>
       <c r="B55">
         <v>24.5</v>
@@ -4362,7 +4568,7 @@
         <v>0.6</v>
       </c>
       <c r="F55">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="G55">
         <v>31</v>
@@ -4374,7 +4580,7 @@
         <v>54.4</v>
       </c>
       <c r="J55">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -4383,7 +4589,7 @@
         <v>2.7</v>
       </c>
       <c r="M55">
-        <v>67.09999999999999</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="N55">
         <v>4.5</v>
@@ -4416,17 +4622,15 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>76</v>
       </c>
       <c r="B56">
         <v>7.5</v>
       </c>
       <c r="C56">
-        <v>37.2</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="D56">
         <v>0.5</v>
@@ -4456,7 +4660,7 @@
         <v>1.7</v>
       </c>
       <c r="M56">
-        <v>75.40000000000001</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="N56">
         <v>1.4</v>
@@ -4489,11 +4693,9 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Pakistan</t>
-        </is>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>77</v>
       </c>
       <c r="B57">
         <v>6.5</v>
@@ -4520,13 +4722,13 @@
         <v>20.5</v>
       </c>
       <c r="J57">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="K57">
         <v>0.1</v>
       </c>
       <c r="L57">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M57">
         <v>96</v>
@@ -4550,10 +4752,10 @@
         <v>0.1</v>
       </c>
       <c r="T57">
-        <v>73.09999999999999</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="U57">
-        <v>91.59999999999999</v>
+        <v>91.6</v>
       </c>
       <c r="V57">
         <v>3.7</v>
@@ -4562,11 +4764,9 @@
         <v>73.8</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Papua New Guinea</t>
-        </is>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>78</v>
       </c>
       <c r="B58">
         <v>4.2</v>
@@ -4629,17 +4829,15 @@
         <v>42.7</v>
       </c>
       <c r="V58">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="W58">
         <v>35</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Paraguay</t>
-        </is>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>79</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4708,11 +4906,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Peru</t>
-        </is>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>80</v>
       </c>
       <c r="B60">
         <v>2.4</v>
@@ -4736,7 +4932,7 @@
         <v>2.9</v>
       </c>
       <c r="I60">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="J60">
         <v>1.7</v>
@@ -4748,7 +4944,7 @@
         <v>71.7</v>
       </c>
       <c r="M60">
-        <v>85.90000000000001</v>
+        <v>85.9</v>
       </c>
       <c r="N60">
         <v>4.8</v>
@@ -4766,10 +4962,10 @@
         <v>14.1</v>
       </c>
       <c r="S60">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="T60">
-        <v>76.40000000000001</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="U60">
         <v>85.2</v>
@@ -4778,14 +4974,12 @@
         <v>0.5</v>
       </c>
       <c r="W60">
-        <v>78.59999999999999</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Philippines</t>
-        </is>
+        <v>78.599999999999994</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>81</v>
       </c>
       <c r="B61">
         <v>3.2</v>
@@ -4794,7 +4988,7 @@
         <v>12.4</v>
       </c>
       <c r="D61">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E61">
         <v>1.7</v>
@@ -4818,7 +5012,7 @@
         <v>0.4</v>
       </c>
       <c r="L61">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="M61">
         <v>96.5</v>
@@ -4842,23 +5036,21 @@
         <v>0</v>
       </c>
       <c r="T61">
-        <v>80.59999999999999</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="U61">
         <v>95.2</v>
       </c>
       <c r="V61">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W61">
         <v>81.5</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Rwanda</t>
-        </is>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>82</v>
       </c>
       <c r="B62">
         <v>28.6</v>
@@ -4867,13 +5059,13 @@
         <v>1.2</v>
       </c>
       <c r="D62">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="E62">
         <v>13.9</v>
       </c>
       <c r="F62">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G62">
         <v>0.9</v>
@@ -4888,7 +5080,7 @@
         <v>27</v>
       </c>
       <c r="K62">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L62">
         <v>0.3</v>
@@ -4906,7 +5098,7 @@
         <v>0.4</v>
       </c>
       <c r="Q62">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R62">
         <v>20.7</v>
@@ -4921,17 +5113,15 @@
         <v>60.5</v>
       </c>
       <c r="V62">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="W62">
         <v>14.1</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Sao Tome and Principe</t>
-        </is>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>83</v>
       </c>
       <c r="B63">
         <v>57.7</v>
@@ -5000,11 +5190,9 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Senegal</t>
-        </is>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>84</v>
       </c>
       <c r="B64">
         <v>7.7</v>
@@ -5040,7 +5228,7 @@
         <v>22.1</v>
       </c>
       <c r="M64">
-        <v>85.59999999999999</v>
+        <v>85.6</v>
       </c>
       <c r="N64">
         <v>35.1</v>
@@ -5061,7 +5249,7 @@
         <v>0.3</v>
       </c>
       <c r="T64">
-        <v>70.90000000000001</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="U64">
         <v>82.2</v>
@@ -5073,11 +5261,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Sierra Leone</t>
-        </is>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>85</v>
       </c>
       <c r="B65">
         <v>16.2</v>
@@ -5146,11 +5332,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>86</v>
       </c>
       <c r="B66">
         <v>14.1</v>
@@ -5171,10 +5355,10 @@
         <v>1.3</v>
       </c>
       <c r="H66">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I66">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="J66">
         <v>4.5</v>
@@ -5219,17 +5403,15 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Tajikistan</t>
-        </is>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>87</v>
       </c>
       <c r="B67">
         <v>13.8</v>
       </c>
       <c r="C67">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D67">
         <v>1.2</v>
@@ -5250,7 +5432,7 @@
         <v>21.6</v>
       </c>
       <c r="J67">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K67">
         <v>0.1</v>
@@ -5292,11 +5474,9 @@
         <v>75.3</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Tanzania</t>
-        </is>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>88</v>
       </c>
       <c r="B68">
         <v>17.2</v>
@@ -5305,7 +5485,7 @@
         <v>1.9</v>
       </c>
       <c r="D68">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E68">
         <v>6.7</v>
@@ -5320,7 +5500,7 @@
         <v>10.3</v>
       </c>
       <c r="I68">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="J68">
         <v>22</v>
@@ -5344,7 +5524,7 @@
         <v>0.6</v>
       </c>
       <c r="Q68">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R68">
         <v>34.5</v>
@@ -5359,17 +5539,15 @@
         <v>57</v>
       </c>
       <c r="V68">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="W68">
         <v>40.9</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Timor-Leste</t>
-        </is>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>89</v>
       </c>
       <c r="B69">
         <v>23.6</v>
@@ -5405,10 +5583,10 @@
         <v>22.8</v>
       </c>
       <c r="M69">
-        <v>80.40000000000001</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="N69">
-        <v>9.699999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="O69">
         <v>0.8</v>
@@ -5420,7 +5598,7 @@
         <v>5.3</v>
       </c>
       <c r="R69">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="S69">
         <v>0</v>
@@ -5435,14 +5613,12 @@
         <v>3.2</v>
       </c>
       <c r="W69">
-        <v>65.90000000000001</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Togo</t>
-        </is>
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>90</v>
       </c>
       <c r="B70">
         <v>16</v>
@@ -5469,7 +5645,7 @@
         <v>62.5</v>
       </c>
       <c r="J70">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="K70">
         <v>0.9</v>
@@ -5478,10 +5654,10 @@
         <v>1.9</v>
       </c>
       <c r="M70">
-        <v>72.09999999999999</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="N70">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="O70">
         <v>0.1</v>
@@ -5502,7 +5678,7 @@
         <v>22.8</v>
       </c>
       <c r="U70">
-        <v>68.90000000000001</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="V70">
         <v>2.9</v>
@@ -5511,17 +5687,15 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>91</v>
       </c>
       <c r="B71">
         <v>1.7</v>
       </c>
       <c r="C71">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D71">
         <v>7.6</v>
@@ -5563,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="R71">
         <v>0.8</v>
@@ -5584,11 +5758,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Turkmenistan</t>
-        </is>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>92</v>
       </c>
       <c r="B72">
         <v>6.9</v>
@@ -5615,7 +5787,7 @@
         <v>14.9</v>
       </c>
       <c r="J72">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -5624,7 +5796,7 @@
         <v>25.7</v>
       </c>
       <c r="M72">
-        <v>66.09999999999999</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="N72">
         <v>29.5</v>
@@ -5654,14 +5826,12 @@
         <v>0.8</v>
       </c>
       <c r="W72">
-        <v>81.40000000000001</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Uganda</t>
-        </is>
+        <v>81.400000000000006</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>93</v>
       </c>
       <c r="B73">
         <v>8.6</v>
@@ -5691,7 +5861,7 @@
         <v>29.5</v>
       </c>
       <c r="K73">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L73">
         <v>2.5</v>
@@ -5718,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="T73">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="U73">
         <v>54.3</v>
@@ -5730,11 +5900,9 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>94</v>
       </c>
       <c r="B74">
         <v>2.5</v>
@@ -5782,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="R74">
         <v>1.2</v>
@@ -5803,11 +5971,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Uzbekistan</t>
-        </is>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>95</v>
       </c>
       <c r="B75">
         <v>18</v>
@@ -5834,7 +6000,7 @@
         <v>24.5</v>
       </c>
       <c r="J75">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K75">
         <v>0.2</v>
@@ -5843,13 +6009,13 @@
         <v>59.7</v>
       </c>
       <c r="M75">
-        <v>80.59999999999999</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="N75">
         <v>0</v>
       </c>
       <c r="O75">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="P75">
         <v>0</v>
@@ -5858,7 +6024,7 @@
         <v>0.3</v>
       </c>
       <c r="R75">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="S75">
         <v>0</v>
@@ -5876,11 +6042,9 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Vietnam</t>
-        </is>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>96</v>
       </c>
       <c r="B76">
         <v>1.4</v>
@@ -5919,7 +6083,7 @@
         <v>34.4</v>
       </c>
       <c r="N76">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="O76">
         <v>0.6</v>
@@ -5931,7 +6095,7 @@
         <v>0.1</v>
       </c>
       <c r="R76">
-        <v>65.59999999999999</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="S76">
         <v>0.1</v>
@@ -5949,11 +6113,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Yemen</t>
-        </is>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>97</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -5962,7 +6124,7 @@
         <v>13.9</v>
       </c>
       <c r="D77">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -5980,7 +6142,7 @@
         <v>3.2</v>
       </c>
       <c r="J77">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K77">
         <v>3.4</v>
@@ -6010,7 +6172,7 @@
         <v>0.8</v>
       </c>
       <c r="T77">
-        <v>67.09999999999999</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="U77">
         <v>69.2</v>
@@ -6022,14 +6184,12 @@
         <v>87.8</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Zambia</t>
-        </is>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>98</v>
       </c>
       <c r="B78">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C78">
         <v>23.9</v>
@@ -6095,11 +6255,9 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>99</v>
       </c>
       <c r="B79">
         <v>5.5</v>
@@ -6135,10 +6293,10 @@
         <v>14.1</v>
       </c>
       <c r="M79">
-        <v>78.40000000000001</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="N79">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="O79">
         <v>0.2</v>
@@ -6156,7 +6314,7 @@
         <v>0.1</v>
       </c>
       <c r="T79">
-        <v>35.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="U79">
         <v>67.8</v>

--- a/results/df-water-access.xlsx
+++ b/results/df-water-access.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W79"/>
+  <dimension ref="A1:R79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,112 +365,87 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>imws</t>
+          <t>phom</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>phom</t>
+          <t>pipy</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>pipy</t>
+          <t>ptap</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>ptap</t>
+          <t>bore</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>bore</t>
+          <t>pwel</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>pwel</t>
+          <t>pspr</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>pspr</t>
+          <t>rain</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>rain</t>
+          <t>uwel</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>uiws</t>
+          <t>uspr</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>uwel</t>
+          <t>truc</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>uspr</t>
+          <t>ctan</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>truc</t>
+          <t>bott</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ctan</t>
+          <t>othw</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>bott</t>
+          <t>surw</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>othw</t>
+          <t>tles</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>surw</t>
+          <t>tmor</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>tles</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>tmor</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
           <t>watp</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>iwsp</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>basw</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>liws</t>
         </is>
       </c>
     </row>
@@ -481,70 +456,55 @@
         </is>
       </c>
       <c r="B2">
-        <v>71.2</v>
+        <v>2.3</v>
       </c>
       <c r="C2">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="D2">
-        <v>4.8</v>
+        <v>14.2</v>
       </c>
       <c r="E2">
-        <v>14.2</v>
+        <v>20.1</v>
       </c>
       <c r="F2">
-        <v>20.1</v>
+        <v>18.5</v>
       </c>
       <c r="G2">
-        <v>18.5</v>
+        <v>4.7</v>
       </c>
       <c r="H2">
-        <v>4.7</v>
+        <v>0.4</v>
       </c>
       <c r="I2">
-        <v>0.4</v>
+        <v>11.1</v>
       </c>
       <c r="J2">
-        <v>28.7</v>
+        <v>8.6</v>
       </c>
       <c r="K2">
-        <v>11.1</v>
+        <v>1.5</v>
       </c>
       <c r="L2">
-        <v>8.6</v>
+        <v>4.4</v>
       </c>
       <c r="M2">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="N2">
-        <v>4.4</v>
+        <v>1.7</v>
       </c>
       <c r="O2">
-        <v>0.2</v>
+        <v>7.3</v>
       </c>
       <c r="P2">
-        <v>1.7</v>
+        <v>45.2</v>
       </c>
       <c r="Q2">
-        <v>7.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="R2">
-        <v>45.2</v>
-      </c>
-      <c r="S2">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="T2">
         <v>45.3</v>
-      </c>
-      <c r="U2">
-        <v>35.4</v>
-      </c>
-      <c r="V2">
-        <v>65.3</v>
-      </c>
-      <c r="W2">
-        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -554,70 +514,55 @@
         </is>
       </c>
       <c r="B3">
-        <v>98.40000000000001</v>
+        <v>48.8</v>
       </c>
       <c r="C3">
-        <v>48.8</v>
+        <v>5.2</v>
       </c>
       <c r="D3">
-        <v>5.2</v>
+        <v>2.4</v>
       </c>
       <c r="E3">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="F3">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="G3">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="H3">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J3">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="K3">
-        <v>0.8</v>
+        <v>14.1</v>
       </c>
       <c r="L3">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M3">
-        <v>14.1</v>
+        <v>19.6</v>
       </c>
       <c r="N3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O3">
-        <v>19.6</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.1</v>
+        <v>20.6</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="R3">
-        <v>20.6</v>
-      </c>
-      <c r="S3">
-        <v>1.1</v>
-      </c>
-      <c r="T3">
         <v>77.90000000000001</v>
-      </c>
-      <c r="U3">
-        <v>77</v>
-      </c>
-      <c r="V3">
-        <v>97</v>
-      </c>
-      <c r="W3">
-        <v>0.9</v>
       </c>
     </row>
     <row r="4">
@@ -627,70 +572,55 @@
         </is>
       </c>
       <c r="B4">
-        <v>66.90000000000001</v>
+        <v>4.3</v>
       </c>
       <c r="C4">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="D4">
+        <v>10.3</v>
+      </c>
+      <c r="E4">
+        <v>1.9</v>
+      </c>
+      <c r="F4">
+        <v>9.1</v>
+      </c>
+      <c r="G4">
+        <v>3.3</v>
+      </c>
+      <c r="H4">
+        <v>1.7</v>
+      </c>
+      <c r="I4">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="J4">
+        <v>4.8</v>
+      </c>
+      <c r="K4">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="L4">
         <v>4.3</v>
       </c>
-      <c r="D4">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="E4">
-        <v>10.3</v>
-      </c>
-      <c r="F4">
-        <v>1.9</v>
-      </c>
-      <c r="G4">
-        <v>9.1</v>
-      </c>
-      <c r="H4">
-        <v>3.3</v>
-      </c>
-      <c r="I4">
-        <v>1.7</v>
-      </c>
-      <c r="J4">
-        <v>33.1</v>
-      </c>
-      <c r="K4">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="L4">
-        <v>4.8</v>
-      </c>
       <c r="M4">
-        <v>9.699999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="N4">
-        <v>4.3</v>
+        <v>1.8</v>
       </c>
       <c r="O4">
-        <v>1.2</v>
+        <v>18</v>
       </c>
       <c r="P4">
-        <v>1.8</v>
+        <v>46.1</v>
       </c>
       <c r="Q4">
-        <v>18</v>
+        <v>15.6</v>
       </c>
       <c r="R4">
-        <v>46.1</v>
-      </c>
-      <c r="S4">
-        <v>15.6</v>
-      </c>
-      <c r="T4">
         <v>34.5</v>
-      </c>
-      <c r="U4">
-        <v>32.6</v>
-      </c>
-      <c r="V4">
-        <v>57</v>
-      </c>
-      <c r="W4">
-        <v>7.5</v>
       </c>
     </row>
     <row r="5">
@@ -700,25 +630,25 @@
         </is>
       </c>
       <c r="B5">
-        <v>99.90000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="C5">
-        <v>88.3</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F5">
         <v>0.2</v>
       </c>
       <c r="G5">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -727,13 +657,13 @@
         <v>0.1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -742,28 +672,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R5">
-        <v>1.6</v>
-      </c>
-      <c r="S5">
-        <v>0.1</v>
-      </c>
-      <c r="T5">
         <v>97.59999999999999</v>
-      </c>
-      <c r="U5">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="V5">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="W5">
-        <v>0.1</v>
       </c>
     </row>
     <row r="6">
@@ -773,70 +688,55 @@
         </is>
       </c>
       <c r="B6">
-        <v>90.59999999999999</v>
+        <v>34</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>19.7</v>
       </c>
       <c r="D6">
-        <v>19.7</v>
+        <v>3.5</v>
       </c>
       <c r="E6">
-        <v>3.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F6">
-        <v>9.300000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="G6">
-        <v>6.2</v>
+        <v>7.5</v>
       </c>
       <c r="H6">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J6">
-        <v>9.4</v>
+        <v>1.1</v>
       </c>
       <c r="K6">
-        <v>0.2</v>
+        <v>9.5</v>
       </c>
       <c r="L6">
+        <v>0.7</v>
+      </c>
+      <c r="M6">
+        <v>0.1</v>
+      </c>
+      <c r="N6">
         <v>1.1</v>
       </c>
-      <c r="M6">
-        <v>9.5</v>
-      </c>
-      <c r="N6">
-        <v>0.7</v>
-      </c>
       <c r="O6">
-        <v>0.1</v>
+        <v>7</v>
       </c>
       <c r="P6">
-        <v>1.1</v>
+        <v>18.7</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>4.4</v>
       </c>
       <c r="R6">
-        <v>18.7</v>
-      </c>
-      <c r="S6">
-        <v>4.4</v>
-      </c>
-      <c r="T6">
         <v>75.90000000000001</v>
-      </c>
-      <c r="U6">
-        <v>71.2</v>
-      </c>
-      <c r="V6">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="W6">
-        <v>3.4</v>
       </c>
     </row>
     <row r="7">
@@ -846,70 +746,55 @@
         </is>
       </c>
       <c r="B7">
-        <v>97.8</v>
+        <v>4.3</v>
       </c>
       <c r="C7">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="D7">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="E7">
-        <v>2.7</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="F7">
-        <v>86.40000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="G7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I7">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J7">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
       <c r="K7">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="L7">
+        <v>0.1</v>
+      </c>
+      <c r="M7">
         <v>0.3</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
       <c r="N7">
         <v>0.1</v>
       </c>
       <c r="O7">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="P7">
-        <v>0.1</v>
+        <v>22.7</v>
       </c>
       <c r="Q7">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="R7">
-        <v>22.7</v>
-      </c>
-      <c r="S7">
-        <v>1.6</v>
-      </c>
-      <c r="T7">
         <v>75.5</v>
-      </c>
-      <c r="U7">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="V7">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="W7">
-        <v>1.3</v>
       </c>
     </row>
     <row r="8">
@@ -919,70 +804,55 @@
         </is>
       </c>
       <c r="B8">
-        <v>71.7</v>
+        <v>5.1</v>
       </c>
       <c r="C8">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="D8">
-        <v>4.2</v>
+        <v>13</v>
       </c>
       <c r="E8">
-        <v>13</v>
+        <v>28.9</v>
       </c>
       <c r="F8">
-        <v>28.9</v>
+        <v>4.4</v>
       </c>
       <c r="G8">
-        <v>4.4</v>
+        <v>0.3</v>
       </c>
       <c r="H8">
+        <v>0.4</v>
+      </c>
+      <c r="I8">
+        <v>20.8</v>
+      </c>
+      <c r="J8">
+        <v>1.2</v>
+      </c>
+      <c r="K8">
+        <v>0.2</v>
+      </c>
+      <c r="L8">
         <v>0.3</v>
       </c>
-      <c r="I8">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
         <v>0.4</v>
       </c>
-      <c r="J8">
-        <v>28.3</v>
-      </c>
-      <c r="K8">
-        <v>20.8</v>
-      </c>
-      <c r="L8">
-        <v>1.2</v>
-      </c>
-      <c r="M8">
-        <v>0.2</v>
-      </c>
-      <c r="N8">
-        <v>0.3</v>
-      </c>
       <c r="O8">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="P8">
-        <v>0.4</v>
+        <v>49.8</v>
       </c>
       <c r="Q8">
-        <v>5.8</v>
+        <v>12.1</v>
       </c>
       <c r="R8">
-        <v>49.8</v>
-      </c>
-      <c r="S8">
-        <v>12.1</v>
-      </c>
-      <c r="T8">
         <v>37.4</v>
-      </c>
-      <c r="U8">
-        <v>29.6</v>
-      </c>
-      <c r="V8">
-        <v>64</v>
-      </c>
-      <c r="W8">
-        <v>7.3</v>
       </c>
     </row>
     <row r="9">
@@ -992,70 +862,55 @@
         </is>
       </c>
       <c r="B9">
-        <v>87.3</v>
+        <v>24.6</v>
       </c>
       <c r="C9">
-        <v>24.6</v>
+        <v>54.1</v>
       </c>
       <c r="D9">
-        <v>54.1</v>
+        <v>5.3</v>
       </c>
       <c r="E9">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>6.2</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>1.7</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>12.3</v>
-      </c>
-      <c r="K9">
-        <v>6.2</v>
-      </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="P9">
-        <v>0.9</v>
+        <v>11.2</v>
       </c>
       <c r="Q9">
-        <v>5.2</v>
+        <v>0.7</v>
       </c>
       <c r="R9">
-        <v>11.2</v>
-      </c>
-      <c r="S9">
-        <v>0.7</v>
-      </c>
-      <c r="T9">
         <v>88</v>
-      </c>
-      <c r="U9">
-        <v>85.7</v>
-      </c>
-      <c r="V9">
-        <v>87.3</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1065,13 +920,13 @@
         </is>
       </c>
       <c r="B10">
-        <v>76</v>
+        <v>69.2</v>
       </c>
       <c r="C10">
-        <v>69.2</v>
+        <v>3.5</v>
       </c>
       <c r="D10">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1089,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1098,36 +953,21 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="O10">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
         <v>0</v>
       </c>
     </row>
@@ -1138,70 +978,55 @@
         </is>
       </c>
       <c r="B11">
-        <v>80.90000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="C11">
-        <v>2.6</v>
+        <v>9.6</v>
       </c>
       <c r="D11">
-        <v>9.6</v>
+        <v>18.4</v>
       </c>
       <c r="E11">
-        <v>18.4</v>
+        <v>40.6</v>
       </c>
       <c r="F11">
-        <v>40.6</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>0.2</v>
       </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>16.3</v>
+      </c>
+      <c r="J11">
+        <v>1.5</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>0.2</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>19.1</v>
-      </c>
-      <c r="K11">
-        <v>16.3</v>
-      </c>
-      <c r="L11">
-        <v>1.5</v>
-      </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N11">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="O11">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="P11">
-        <v>0.5</v>
+        <v>49.8</v>
       </c>
       <c r="Q11">
-        <v>0.8</v>
+        <v>32.6</v>
       </c>
       <c r="R11">
-        <v>49.8</v>
-      </c>
-      <c r="S11">
-        <v>32.6</v>
-      </c>
-      <c r="T11">
         <v>17.1</v>
-      </c>
-      <c r="U11">
-        <v>14.4</v>
-      </c>
-      <c r="V11">
-        <v>52.1</v>
-      </c>
-      <c r="W11">
-        <v>28.5</v>
       </c>
     </row>
     <row r="12">
@@ -1211,70 +1036,55 @@
         </is>
       </c>
       <c r="B12">
-        <v>82.90000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="C12">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>24</v>
+        <v>0.6</v>
       </c>
       <c r="F12">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="G12">
-        <v>1.8</v>
+        <v>47.9</v>
       </c>
       <c r="H12">
-        <v>47.9</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="J12">
-        <v>17.1</v>
+        <v>10.9</v>
       </c>
       <c r="K12">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O12">
-        <v>0.1</v>
+        <v>4.3</v>
       </c>
       <c r="P12">
-        <v>0.1</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="Q12">
-        <v>4.3</v>
+        <v>25.5</v>
       </c>
       <c r="R12">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="S12">
-        <v>25.5</v>
-      </c>
-      <c r="T12">
         <v>9.6</v>
-      </c>
-      <c r="U12">
-        <v>9.5</v>
-      </c>
-      <c r="V12">
-        <v>63.1</v>
-      </c>
-      <c r="W12">
-        <v>19.9</v>
       </c>
     </row>
     <row r="13">
@@ -1284,69 +1094,54 @@
         </is>
       </c>
       <c r="B13">
-        <v>83.7</v>
+        <v>9.4</v>
       </c>
       <c r="C13">
-        <v>9.4</v>
+        <v>1.8</v>
       </c>
       <c r="D13">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="E13">
+        <v>23</v>
+      </c>
+      <c r="F13">
+        <v>2.6</v>
+      </c>
+      <c r="G13">
+        <v>0.2</v>
+      </c>
+      <c r="H13">
+        <v>35.5</v>
+      </c>
+      <c r="I13">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J13">
         <v>0.7</v>
       </c>
-      <c r="F13">
-        <v>23</v>
-      </c>
-      <c r="G13">
-        <v>2.6</v>
-      </c>
-      <c r="H13">
-        <v>0.2</v>
-      </c>
-      <c r="I13">
-        <v>35.5</v>
-      </c>
-      <c r="J13">
-        <v>16.2</v>
-      </c>
       <c r="K13">
-        <v>8.199999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="L13">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="M13">
-        <v>0.4</v>
+        <v>9.6</v>
       </c>
       <c r="N13">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>9.6</v>
+        <v>7.3</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
         <v>0</v>
       </c>
     </row>
@@ -1357,70 +1152,55 @@
         </is>
       </c>
       <c r="B14">
-        <v>78.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C14">
-        <v>8.300000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="D14">
-        <v>6.9</v>
+        <v>10.6</v>
       </c>
       <c r="E14">
-        <v>10.6</v>
+        <v>29.9</v>
       </c>
       <c r="F14">
-        <v>29.9</v>
+        <v>3.9</v>
       </c>
       <c r="G14">
-        <v>3.9</v>
+        <v>5.1</v>
       </c>
       <c r="H14">
-        <v>5.1</v>
+        <v>0.5</v>
       </c>
       <c r="I14">
-        <v>0.5</v>
+        <v>9.5</v>
       </c>
       <c r="J14">
-        <v>21.2</v>
+        <v>6</v>
       </c>
       <c r="K14">
-        <v>9.5</v>
+        <v>0.1</v>
       </c>
       <c r="L14">
-        <v>6</v>
+        <v>0.4</v>
       </c>
       <c r="M14">
-        <v>0.1</v>
+        <v>2.9</v>
       </c>
       <c r="N14">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="O14">
-        <v>2.9</v>
+        <v>5.6</v>
       </c>
       <c r="P14">
-        <v>0.1</v>
+        <v>54.6</v>
       </c>
       <c r="Q14">
-        <v>5.6</v>
+        <v>10.9</v>
       </c>
       <c r="R14">
-        <v>54.6</v>
-      </c>
-      <c r="S14">
-        <v>10.9</v>
-      </c>
-      <c r="T14">
         <v>34.2</v>
-      </c>
-      <c r="U14">
-        <v>32.7</v>
-      </c>
-      <c r="V14">
-        <v>71</v>
-      </c>
-      <c r="W14">
-        <v>7.5</v>
       </c>
     </row>
     <row r="15">
@@ -1430,16 +1210,16 @@
         </is>
       </c>
       <c r="B15">
-        <v>16.3</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="D15">
-        <v>1.7</v>
+        <v>14.6</v>
       </c>
       <c r="E15">
-        <v>14.6</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1454,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>83.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1466,34 +1246,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="P15">
-        <v>0.6</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="Q15">
-        <v>9.4</v>
+        <v>17.4</v>
       </c>
       <c r="R15">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="S15">
-        <v>17.4</v>
-      </c>
-      <c r="T15">
         <v>7.5</v>
-      </c>
-      <c r="U15">
-        <v>1.8</v>
-      </c>
-      <c r="V15">
-        <v>15.2</v>
-      </c>
-      <c r="W15">
-        <v>1.1</v>
       </c>
     </row>
     <row r="16">
@@ -1503,69 +1268,54 @@
         </is>
       </c>
       <c r="B16">
-        <v>55.8</v>
+        <v>2.6</v>
       </c>
       <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>10.3</v>
+      </c>
+      <c r="E16">
+        <v>31.4</v>
+      </c>
+      <c r="F16">
+        <v>7.6</v>
+      </c>
+      <c r="G16">
+        <v>0.2</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>33</v>
+      </c>
+      <c r="J16">
         <v>2.6</v>
       </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>10.3</v>
-      </c>
-      <c r="F16">
-        <v>31.4</v>
-      </c>
-      <c r="G16">
-        <v>7.6</v>
-      </c>
-      <c r="H16">
-        <v>0.2</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>44</v>
-      </c>
       <c r="K16">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N16">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1</v>
+        <v>8.4</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>57.2</v>
       </c>
       <c r="Q16">
-        <v>8.4</v>
+        <v>26</v>
       </c>
       <c r="R16">
-        <v>57.2</v>
-      </c>
-      <c r="S16">
-        <v>26</v>
-      </c>
-      <c r="T16">
-        <v>11.2</v>
-      </c>
-      <c r="U16">
-        <v>7.9</v>
-      </c>
-      <c r="V16">
-        <v>40.5</v>
-      </c>
-      <c r="W16">
         <v>11.2</v>
       </c>
     </row>
@@ -1576,70 +1326,55 @@
         </is>
       </c>
       <c r="B17">
-        <v>92.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="C17">
-        <v>80.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E17">
-        <v>0.1</v>
+        <v>1.6</v>
       </c>
       <c r="F17">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="J17">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
+        <v>7</v>
+      </c>
+      <c r="N17">
+        <v>0.7</v>
+      </c>
+      <c r="O17">
+        <v>5.2</v>
+      </c>
+      <c r="P17">
+        <v>3.3</v>
+      </c>
+      <c r="Q17">
         <v>0.6</v>
       </c>
-      <c r="N17">
-        <v>0.5</v>
-      </c>
-      <c r="O17">
-        <v>7</v>
-      </c>
-      <c r="P17">
-        <v>0.7</v>
-      </c>
-      <c r="Q17">
-        <v>5.2</v>
-      </c>
       <c r="R17">
-        <v>3.3</v>
-      </c>
-      <c r="S17">
-        <v>0.6</v>
-      </c>
-      <c r="T17">
         <v>95.90000000000001</v>
-      </c>
-      <c r="U17">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="V17">
-        <v>92.5</v>
-      </c>
-      <c r="W17">
-        <v>0.2</v>
       </c>
     </row>
     <row r="18">
@@ -1649,70 +1384,55 @@
         </is>
       </c>
       <c r="B18">
-        <v>91</v>
+        <v>13.8</v>
       </c>
       <c r="C18">
-        <v>13.8</v>
+        <v>24.1</v>
       </c>
       <c r="D18">
-        <v>24.1</v>
+        <v>22.6</v>
       </c>
       <c r="E18">
-        <v>22.6</v>
+        <v>0.4</v>
       </c>
       <c r="F18">
-        <v>0.4</v>
+        <v>6.3</v>
       </c>
       <c r="G18">
-        <v>6.3</v>
+        <v>3.7</v>
       </c>
       <c r="H18">
+        <v>16.4</v>
+      </c>
+      <c r="I18">
+        <v>2.3</v>
+      </c>
+      <c r="J18">
+        <v>2.1</v>
+      </c>
+      <c r="K18">
+        <v>2.9</v>
+      </c>
+      <c r="L18">
+        <v>0.3</v>
+      </c>
+      <c r="M18">
+        <v>0.5</v>
+      </c>
+      <c r="N18">
         <v>3.7</v>
       </c>
-      <c r="I18">
-        <v>16.4</v>
-      </c>
-      <c r="J18">
-        <v>8.9</v>
-      </c>
-      <c r="K18">
-        <v>2.3</v>
-      </c>
-      <c r="L18">
-        <v>2.1</v>
-      </c>
-      <c r="M18">
-        <v>2.9</v>
-      </c>
-      <c r="N18">
-        <v>0.3</v>
-      </c>
       <c r="O18">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="P18">
-        <v>3.7</v>
+        <v>20.7</v>
       </c>
       <c r="Q18">
-        <v>0.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="R18">
-        <v>20.7</v>
-      </c>
-      <c r="S18">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="T18">
         <v>66</v>
-      </c>
-      <c r="U18">
-        <v>64</v>
-      </c>
-      <c r="V18">
-        <v>80.8</v>
-      </c>
-      <c r="W18">
-        <v>6.6</v>
       </c>
     </row>
     <row r="19">
@@ -1722,70 +1442,55 @@
         </is>
       </c>
       <c r="B19">
-        <v>75.7</v>
+        <v>3.5</v>
       </c>
       <c r="C19">
-        <v>3.5</v>
+        <v>21.9</v>
       </c>
       <c r="D19">
-        <v>21.9</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>27</v>
+        <v>9.9</v>
       </c>
       <c r="F19">
-        <v>9.9</v>
+        <v>4.6</v>
       </c>
       <c r="G19">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="H19">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="I19">
-        <v>2.1</v>
+        <v>5.2</v>
       </c>
       <c r="J19">
-        <v>24.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K19">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="O19">
-        <v>2.5</v>
+        <v>8.1</v>
       </c>
       <c r="P19">
-        <v>2.3</v>
+        <v>39</v>
       </c>
       <c r="Q19">
-        <v>8.1</v>
+        <v>22.9</v>
       </c>
       <c r="R19">
-        <v>39</v>
-      </c>
-      <c r="S19">
-        <v>22.9</v>
-      </c>
-      <c r="T19">
         <v>36.3</v>
-      </c>
-      <c r="U19">
-        <v>34.6</v>
-      </c>
-      <c r="V19">
-        <v>60.6</v>
-      </c>
-      <c r="W19">
-        <v>13.6</v>
       </c>
     </row>
     <row r="20">
@@ -1795,70 +1500,55 @@
         </is>
       </c>
       <c r="B20">
-        <v>48.8</v>
+        <v>0.9</v>
       </c>
       <c r="C20">
-        <v>0.9</v>
+        <v>5.6</v>
       </c>
       <c r="D20">
-        <v>5.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E20">
-        <v>9.699999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="F20">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>17.2</v>
       </c>
       <c r="H20">
-        <v>17.2</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="J20">
-        <v>51.2</v>
+        <v>36.3</v>
       </c>
       <c r="K20">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>36.3</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O20">
-        <v>0.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="P20">
-        <v>0.3</v>
+        <v>59.3</v>
       </c>
       <c r="Q20">
-        <v>9.199999999999999</v>
+        <v>32.8</v>
       </c>
       <c r="R20">
-        <v>59.3</v>
-      </c>
-      <c r="S20">
-        <v>32.8</v>
-      </c>
-      <c r="T20">
         <v>7.1</v>
-      </c>
-      <c r="U20">
-        <v>7</v>
-      </c>
-      <c r="V20">
-        <v>36.2</v>
-      </c>
-      <c r="W20">
-        <v>12.1</v>
       </c>
     </row>
     <row r="21">
@@ -1868,70 +1558,55 @@
         </is>
       </c>
       <c r="B21">
-        <v>78.40000000000001</v>
+        <v>11.2</v>
       </c>
       <c r="C21">
-        <v>11.2</v>
+        <v>20.3</v>
       </c>
       <c r="D21">
-        <v>20.3</v>
+        <v>16.2</v>
       </c>
       <c r="E21">
-        <v>16.2</v>
+        <v>12</v>
       </c>
       <c r="F21">
-        <v>12</v>
+        <v>17.8</v>
       </c>
       <c r="G21">
-        <v>17.8</v>
+        <v>0.6</v>
       </c>
       <c r="H21">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="J21">
-        <v>21.5</v>
+        <v>2.7</v>
       </c>
       <c r="K21">
-        <v>13.2</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O21">
-        <v>0.3</v>
+        <v>4.9</v>
       </c>
       <c r="P21">
-        <v>0.7</v>
+        <v>46.4</v>
       </c>
       <c r="Q21">
-        <v>4.9</v>
+        <v>8.9</v>
       </c>
       <c r="R21">
-        <v>46.4</v>
-      </c>
-      <c r="S21">
-        <v>8.9</v>
-      </c>
-      <c r="T21">
         <v>44.2</v>
-      </c>
-      <c r="U21">
-        <v>40.3</v>
-      </c>
-      <c r="V21">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="W21">
-        <v>5.3</v>
       </c>
     </row>
     <row r="22">
@@ -1941,70 +1616,55 @@
         </is>
       </c>
       <c r="B22">
-        <v>98.7</v>
+        <v>4.1</v>
       </c>
       <c r="C22">
-        <v>4.1</v>
+        <v>6.6</v>
       </c>
       <c r="D22">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>2.9</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0.4</v>
+      </c>
+      <c r="L22">
+        <v>6.1</v>
+      </c>
+      <c r="M22">
+        <v>77.8</v>
+      </c>
+      <c r="N22">
+        <v>0.5</v>
+      </c>
+      <c r="O22">
+        <v>0.7</v>
+      </c>
+      <c r="P22">
+        <v>12</v>
+      </c>
+      <c r="Q22">
         <v>1</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>2.9</v>
-      </c>
-      <c r="J22">
-        <v>1.3</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0.4</v>
-      </c>
-      <c r="N22">
-        <v>6.1</v>
-      </c>
-      <c r="O22">
-        <v>77.8</v>
-      </c>
-      <c r="P22">
-        <v>0.5</v>
-      </c>
-      <c r="Q22">
-        <v>0.7</v>
-      </c>
       <c r="R22">
-        <v>12</v>
-      </c>
-      <c r="S22">
-        <v>1</v>
-      </c>
-      <c r="T22">
         <v>86.90000000000001</v>
-      </c>
-      <c r="U22">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="V22">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="W22">
-        <v>0.9</v>
       </c>
     </row>
     <row r="23">
@@ -2014,70 +1674,55 @@
         </is>
       </c>
       <c r="B23">
-        <v>99.59999999999999</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="C23">
-        <v>90.59999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="D23">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="F23">
         <v>0.5</v>
       </c>
       <c r="G23">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H23">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1.7</v>
+      </c>
+      <c r="L23">
+        <v>0.1</v>
+      </c>
+      <c r="M23">
+        <v>2.7</v>
+      </c>
+      <c r="N23">
         <v>0.4</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>1.7</v>
-      </c>
-      <c r="N23">
-        <v>0.1</v>
-      </c>
       <c r="O23">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.4</v>
+        <v>6.1</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="R23">
-        <v>6.1</v>
-      </c>
-      <c r="S23">
-        <v>0.6</v>
-      </c>
-      <c r="T23">
         <v>93.2</v>
-      </c>
-      <c r="U23">
-        <v>93.09999999999999</v>
-      </c>
-      <c r="V23">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="W23">
-        <v>0.6</v>
       </c>
     </row>
     <row r="24">
@@ -2087,70 +1732,55 @@
         </is>
       </c>
       <c r="B24">
-        <v>67.40000000000001</v>
+        <v>16.3</v>
       </c>
       <c r="C24">
-        <v>16.3</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="E24">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>18.1</v>
       </c>
       <c r="G24">
-        <v>18.1</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>16.4</v>
       </c>
       <c r="J24">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>16.4</v>
+        <v>12.2</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>12.2</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="P24">
-        <v>0.1</v>
+        <v>23</v>
       </c>
       <c r="Q24">
-        <v>5.4</v>
+        <v>49.3</v>
       </c>
       <c r="R24">
-        <v>23</v>
-      </c>
-      <c r="S24">
-        <v>49.3</v>
-      </c>
-      <c r="T24">
         <v>27.7</v>
-      </c>
-      <c r="U24">
-        <v>26.8</v>
-      </c>
-      <c r="V24">
-        <v>42.1</v>
-      </c>
-      <c r="W24">
-        <v>25.3</v>
       </c>
     </row>
     <row r="25">
@@ -2160,70 +1790,55 @@
         </is>
       </c>
       <c r="B25">
-        <v>71.40000000000001</v>
+        <v>17.4</v>
       </c>
       <c r="C25">
-        <v>17.4</v>
+        <v>21.3</v>
       </c>
       <c r="D25">
-        <v>21.3</v>
+        <v>17.6</v>
       </c>
       <c r="E25">
-        <v>17.6</v>
+        <v>6.9</v>
       </c>
       <c r="F25">
-        <v>6.9</v>
+        <v>4.3</v>
       </c>
       <c r="G25">
-        <v>4.3</v>
+        <v>1.7</v>
       </c>
       <c r="H25">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="I25">
-        <v>0.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J25">
-        <v>28.6</v>
+        <v>3.4</v>
       </c>
       <c r="K25">
-        <v>9.300000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="L25">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O25">
-        <v>0.1</v>
+        <v>15.6</v>
       </c>
       <c r="P25">
-        <v>0.3</v>
+        <v>42.5</v>
       </c>
       <c r="Q25">
-        <v>15.6</v>
+        <v>14</v>
       </c>
       <c r="R25">
-        <v>42.5</v>
-      </c>
-      <c r="S25">
-        <v>14</v>
-      </c>
-      <c r="T25">
         <v>43</v>
-      </c>
-      <c r="U25">
-        <v>42.6</v>
-      </c>
-      <c r="V25">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="W25">
-        <v>4.5</v>
       </c>
     </row>
     <row r="26">
@@ -2233,70 +1848,55 @@
         </is>
       </c>
       <c r="B26">
-        <v>65.2</v>
+        <v>0.9</v>
       </c>
       <c r="C26">
-        <v>0.9</v>
+        <v>13.4</v>
       </c>
       <c r="D26">
-        <v>13.4</v>
+        <v>17.7</v>
       </c>
       <c r="E26">
-        <v>17.7</v>
+        <v>11.1</v>
       </c>
       <c r="F26">
-        <v>11.1</v>
+        <v>5.9</v>
       </c>
       <c r="G26">
-        <v>5.9</v>
+        <v>11.7</v>
       </c>
       <c r="H26">
-        <v>11.7</v>
+        <v>0.5</v>
       </c>
       <c r="I26">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="J26">
-        <v>34.8</v>
+        <v>20</v>
       </c>
       <c r="K26">
-        <v>4.1</v>
+        <v>0.2</v>
       </c>
       <c r="L26">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="M26">
         <v>0.2</v>
       </c>
       <c r="N26">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O26">
-        <v>0.2</v>
+        <v>10.7</v>
       </c>
       <c r="P26">
-        <v>0.1</v>
+        <v>51.2</v>
       </c>
       <c r="Q26">
-        <v>10.7</v>
+        <v>28.2</v>
       </c>
       <c r="R26">
-        <v>51.2</v>
-      </c>
-      <c r="S26">
-        <v>28.2</v>
-      </c>
-      <c r="T26">
         <v>20.3</v>
-      </c>
-      <c r="U26">
-        <v>19.5</v>
-      </c>
-      <c r="V26">
-        <v>50</v>
-      </c>
-      <c r="W26">
-        <v>15</v>
       </c>
     </row>
     <row r="27">
@@ -2306,70 +1906,55 @@
         </is>
       </c>
       <c r="B27">
-        <v>93.09999999999999</v>
+        <v>25.4</v>
       </c>
       <c r="C27">
-        <v>25.4</v>
+        <v>38.4</v>
       </c>
       <c r="D27">
-        <v>38.4</v>
+        <v>20.2</v>
       </c>
       <c r="E27">
-        <v>20.2</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="G27">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="H27">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="I27">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="J27">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O27">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="P27">
-        <v>0.5</v>
+        <v>23.1</v>
       </c>
       <c r="Q27">
-        <v>4.7</v>
+        <v>9.9</v>
       </c>
       <c r="R27">
-        <v>23.1</v>
-      </c>
-      <c r="S27">
-        <v>9.9</v>
-      </c>
-      <c r="T27">
         <v>65.59999999999999</v>
-      </c>
-      <c r="U27">
-        <v>65.2</v>
-      </c>
-      <c r="V27">
-        <v>84.7</v>
-      </c>
-      <c r="W27">
-        <v>7.2</v>
       </c>
     </row>
     <row r="28">
@@ -2379,70 +1964,55 @@
         </is>
       </c>
       <c r="B28">
-        <v>91</v>
+        <v>3.4</v>
       </c>
       <c r="C28">
-        <v>3.4</v>
+        <v>38.2</v>
       </c>
       <c r="D28">
-        <v>38.2</v>
+        <v>32.8</v>
       </c>
       <c r="E28">
-        <v>32.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F28">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="G28">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J28">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O28">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="P28">
-        <v>0.8</v>
+        <v>48.7</v>
       </c>
       <c r="Q28">
-        <v>0.1</v>
+        <v>4.5</v>
       </c>
       <c r="R28">
-        <v>48.7</v>
-      </c>
-      <c r="S28">
-        <v>4.5</v>
-      </c>
-      <c r="T28">
         <v>46.1</v>
-      </c>
-      <c r="U28">
-        <v>43.7</v>
-      </c>
-      <c r="V28">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="W28">
-        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -2452,70 +2022,55 @@
         </is>
       </c>
       <c r="B29">
-        <v>93.09999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="C29">
-        <v>2.7</v>
+        <v>5.4</v>
       </c>
       <c r="D29">
-        <v>5.4</v>
+        <v>14.6</v>
       </c>
       <c r="E29">
-        <v>14.6</v>
+        <v>19.4</v>
       </c>
       <c r="F29">
-        <v>19.4</v>
+        <v>4.1</v>
       </c>
       <c r="G29">
-        <v>4.1</v>
+        <v>0.1</v>
       </c>
       <c r="H29">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="I29">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="J29">
-        <v>6.9</v>
+        <v>0.6</v>
       </c>
       <c r="K29">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="L29">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="M29">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="N29">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>46.3</v>
       </c>
       <c r="Q29">
-        <v>4.4</v>
+        <v>6.7</v>
       </c>
       <c r="R29">
-        <v>46.3</v>
-      </c>
-      <c r="S29">
-        <v>6.7</v>
-      </c>
-      <c r="T29">
         <v>46.6</v>
-      </c>
-      <c r="U29">
-        <v>46.1</v>
-      </c>
-      <c r="V29">
-        <v>87.3</v>
-      </c>
-      <c r="W29">
-        <v>5.6</v>
       </c>
     </row>
     <row r="30">
@@ -2525,70 +2080,55 @@
         </is>
       </c>
       <c r="B30">
-        <v>86.5</v>
+        <v>20</v>
       </c>
       <c r="C30">
-        <v>20</v>
+        <v>31.1</v>
       </c>
       <c r="D30">
-        <v>31.1</v>
+        <v>1.9</v>
       </c>
       <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0.8</v>
+      </c>
+      <c r="H30">
+        <v>1.2</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
         <v>1.9</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0.8</v>
-      </c>
-      <c r="I30">
+      <c r="K30">
+        <v>0.1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>28.4</v>
+      </c>
+      <c r="N30">
+        <v>0.2</v>
+      </c>
+      <c r="O30">
+        <v>1.5</v>
+      </c>
+      <c r="P30">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Q30">
         <v>1.2</v>
       </c>
-      <c r="J30">
-        <v>13.5</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>1.9</v>
-      </c>
-      <c r="M30">
-        <v>0.1</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>28.4</v>
-      </c>
-      <c r="P30">
-        <v>0.2</v>
-      </c>
-      <c r="Q30">
-        <v>1.5</v>
-      </c>
       <c r="R30">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="S30">
-        <v>1.2</v>
-      </c>
-      <c r="T30">
         <v>89.5</v>
-      </c>
-      <c r="U30">
-        <v>82.2</v>
-      </c>
-      <c r="V30">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="W30">
-        <v>0.4</v>
       </c>
     </row>
     <row r="31">
@@ -2598,70 +2138,55 @@
         </is>
       </c>
       <c r="B31">
-        <v>79.3</v>
+        <v>7.5</v>
       </c>
       <c r="C31">
-        <v>7.5</v>
+        <v>4.8</v>
       </c>
       <c r="D31">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="E31">
-        <v>3.9</v>
+        <v>41.5</v>
       </c>
       <c r="F31">
-        <v>41.5</v>
+        <v>10.6</v>
       </c>
       <c r="G31">
-        <v>10.6</v>
+        <v>2.7</v>
       </c>
       <c r="H31">
-        <v>2.7</v>
+        <v>0.4</v>
       </c>
       <c r="I31">
-        <v>0.4</v>
+        <v>5.1</v>
       </c>
       <c r="J31">
-        <v>20.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K31">
-        <v>5.1</v>
+        <v>0.1</v>
       </c>
       <c r="L31">
-        <v>9.699999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="M31">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="N31">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <v>1.1</v>
+        <v>5.9</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>41.8</v>
       </c>
       <c r="Q31">
-        <v>5.9</v>
+        <v>24.1</v>
       </c>
       <c r="R31">
-        <v>41.8</v>
-      </c>
-      <c r="S31">
-        <v>24.1</v>
-      </c>
-      <c r="T31">
         <v>31</v>
-      </c>
-      <c r="U31">
-        <v>29.1</v>
-      </c>
-      <c r="V31">
-        <v>60.2</v>
-      </c>
-      <c r="W31">
-        <v>16.6</v>
       </c>
     </row>
     <row r="32">
@@ -2671,70 +2196,55 @@
         </is>
       </c>
       <c r="B32">
-        <v>94.8</v>
+        <v>14</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>18.4</v>
       </c>
       <c r="D32">
-        <v>18.4</v>
+        <v>1.1</v>
       </c>
       <c r="E32">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G32">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H32">
-        <v>0.4</v>
+        <v>27.1</v>
       </c>
       <c r="I32">
-        <v>27.1</v>
+        <v>0.5</v>
       </c>
       <c r="J32">
-        <v>5.2</v>
+        <v>0.5</v>
       </c>
       <c r="K32">
+        <v>0.1</v>
+      </c>
+      <c r="L32">
+        <v>0.1</v>
+      </c>
+      <c r="M32">
+        <v>32.2</v>
+      </c>
+      <c r="N32">
+        <v>0.6</v>
+      </c>
+      <c r="O32">
+        <v>3.5</v>
+      </c>
+      <c r="P32">
+        <v>6.5</v>
+      </c>
+      <c r="Q32">
         <v>0.5</v>
       </c>
-      <c r="L32">
-        <v>0.5</v>
-      </c>
-      <c r="M32">
-        <v>0.1</v>
-      </c>
-      <c r="N32">
-        <v>0.1</v>
-      </c>
-      <c r="O32">
-        <v>32.2</v>
-      </c>
-      <c r="P32">
-        <v>0.6</v>
-      </c>
-      <c r="Q32">
-        <v>3.5</v>
-      </c>
       <c r="R32">
-        <v>6.5</v>
-      </c>
-      <c r="S32">
-        <v>0.5</v>
-      </c>
-      <c r="T32">
         <v>92.59999999999999</v>
-      </c>
-      <c r="U32">
-        <v>91.8</v>
-      </c>
-      <c r="V32">
-        <v>94.3</v>
-      </c>
-      <c r="W32">
-        <v>0.2</v>
       </c>
     </row>
     <row r="33">
@@ -2744,70 +2254,55 @@
         </is>
       </c>
       <c r="B33">
-        <v>75.59999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="C33">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="D33">
-        <v>2.3</v>
+        <v>18.8</v>
       </c>
       <c r="E33">
-        <v>18.8</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="G33">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="H33">
-        <v>6.5</v>
+        <v>1.7</v>
       </c>
       <c r="I33">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="J33">
-        <v>24.4</v>
+        <v>19.8</v>
       </c>
       <c r="K33">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="L33">
-        <v>19.8</v>
+        <v>0.3</v>
       </c>
       <c r="M33">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="N33">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="O33">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="Q33">
-        <v>1.4</v>
+        <v>19.4</v>
       </c>
       <c r="R33">
-        <v>66.5</v>
-      </c>
-      <c r="S33">
-        <v>19.4</v>
-      </c>
-      <c r="T33">
         <v>14</v>
-      </c>
-      <c r="U33">
-        <v>12.7</v>
-      </c>
-      <c r="V33">
-        <v>65.5</v>
-      </c>
-      <c r="W33">
-        <v>10.1</v>
       </c>
     </row>
     <row r="34">
@@ -2817,70 +2312,55 @@
         </is>
       </c>
       <c r="B34">
-        <v>90.2</v>
+        <v>42.3</v>
       </c>
       <c r="C34">
-        <v>42.3</v>
+        <v>6.3</v>
       </c>
       <c r="D34">
-        <v>6.3</v>
+        <v>0.7</v>
       </c>
       <c r="E34">
+        <v>1.7</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0.2</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0.3</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>38.6</v>
+      </c>
+      <c r="N34">
+        <v>0.9</v>
+      </c>
+      <c r="O34">
+        <v>7.9</v>
+      </c>
+      <c r="P34">
+        <v>10.8</v>
+      </c>
+      <c r="Q34">
         <v>0.7</v>
       </c>
-      <c r="F34">
-        <v>1.7</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0.2</v>
-      </c>
-      <c r="J34">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0.3</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>38.6</v>
-      </c>
-      <c r="P34">
-        <v>0.9</v>
-      </c>
-      <c r="Q34">
-        <v>7.9</v>
-      </c>
       <c r="R34">
-        <v>10.8</v>
-      </c>
-      <c r="S34">
-        <v>0.7</v>
-      </c>
-      <c r="T34">
         <v>88.40000000000001</v>
-      </c>
-      <c r="U34">
-        <v>87.3</v>
-      </c>
-      <c r="V34">
-        <v>90</v>
-      </c>
-      <c r="W34">
-        <v>0.1</v>
       </c>
     </row>
     <row r="35">
@@ -2890,70 +2370,55 @@
         </is>
       </c>
       <c r="B35">
-        <v>94.5</v>
+        <v>16.6</v>
       </c>
       <c r="C35">
-        <v>16.6</v>
+        <v>13.6</v>
       </c>
       <c r="D35">
-        <v>13.6</v>
+        <v>15.9</v>
       </c>
       <c r="E35">
-        <v>15.9</v>
+        <v>39.2</v>
       </c>
       <c r="F35">
-        <v>39.2</v>
+        <v>3.7</v>
       </c>
       <c r="G35">
-        <v>3.7</v>
+        <v>0.3</v>
       </c>
       <c r="H35">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I35">
+        <v>4.2</v>
+      </c>
+      <c r="J35">
+        <v>0.4</v>
+      </c>
+      <c r="K35">
+        <v>1.3</v>
+      </c>
+      <c r="L35">
         <v>0.2</v>
       </c>
-      <c r="J35">
-        <v>5.5</v>
-      </c>
-      <c r="K35">
-        <v>4.2</v>
-      </c>
-      <c r="L35">
-        <v>0.4</v>
-      </c>
       <c r="M35">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="N35">
         <v>0.2</v>
       </c>
       <c r="O35">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="P35">
-        <v>0.2</v>
+        <v>31.4</v>
       </c>
       <c r="Q35">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="R35">
-        <v>31.4</v>
-      </c>
-      <c r="S35">
-        <v>2.3</v>
-      </c>
-      <c r="T35">
         <v>66.3</v>
-      </c>
-      <c r="U35">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="V35">
-        <v>92.7</v>
-      </c>
-      <c r="W35">
-        <v>1.8</v>
       </c>
     </row>
     <row r="36">
@@ -2963,70 +2428,55 @@
         </is>
       </c>
       <c r="B36">
-        <v>90.90000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="C36">
-        <v>7.3</v>
+        <v>1.1</v>
       </c>
       <c r="D36">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="E36">
-        <v>0.6</v>
+        <v>16.3</v>
       </c>
       <c r="F36">
-        <v>16.3</v>
+        <v>16.8</v>
       </c>
       <c r="G36">
-        <v>16.8</v>
+        <v>9.6</v>
       </c>
       <c r="H36">
-        <v>9.6</v>
+        <v>2.2</v>
       </c>
       <c r="I36">
-        <v>2.2</v>
+        <v>4.9</v>
       </c>
       <c r="J36">
-        <v>9.1</v>
+        <v>2.5</v>
       </c>
       <c r="K36">
-        <v>4.9</v>
+        <v>0.4</v>
       </c>
       <c r="L36">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="M36">
-        <v>0.4</v>
+        <v>35</v>
       </c>
       <c r="N36">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="O36">
-        <v>35</v>
+        <v>1.7</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="Q36">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="R36">
-        <v>11.3</v>
-      </c>
-      <c r="S36">
-        <v>0.5</v>
-      </c>
-      <c r="T36">
         <v>87.5</v>
-      </c>
-      <c r="U36">
-        <v>81.7</v>
-      </c>
-      <c r="V36">
-        <v>90</v>
-      </c>
-      <c r="W36">
-        <v>0.2</v>
       </c>
     </row>
     <row r="37">
@@ -3036,13 +2486,13 @@
         </is>
       </c>
       <c r="B37">
-        <v>99.8</v>
+        <v>57.2</v>
       </c>
       <c r="C37">
-        <v>57.2</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -3054,52 +2504,37 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="I37">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0.2</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>37.8</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37">
-        <v>37.8</v>
+        <v>0</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R37">
-        <v>0.4</v>
-      </c>
-      <c r="S37">
-        <v>0.1</v>
-      </c>
-      <c r="T37">
         <v>99.3</v>
-      </c>
-      <c r="U37">
-        <v>99.2</v>
-      </c>
-      <c r="V37">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="W37">
-        <v>0.1</v>
       </c>
     </row>
     <row r="38">
@@ -3109,16 +2544,16 @@
         </is>
       </c>
       <c r="B38">
-        <v>69.40000000000001</v>
+        <v>49.5</v>
       </c>
       <c r="C38">
-        <v>49.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D38">
-        <v>9.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="E38">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -3130,49 +2565,34 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>28.9</v>
       </c>
       <c r="J38">
-        <v>30.6</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>28.9</v>
+        <v>3</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O38">
-        <v>0.1</v>
+        <v>1.3</v>
       </c>
       <c r="P38">
-        <v>0.5</v>
+        <v>26.4</v>
       </c>
       <c r="Q38">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="R38">
-        <v>26.4</v>
-      </c>
-      <c r="S38">
-        <v>2.9</v>
-      </c>
-      <c r="T38">
         <v>70.09999999999999</v>
-      </c>
-      <c r="U38">
-        <v>59.3</v>
-      </c>
-      <c r="V38">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="W38">
-        <v>0.8</v>
       </c>
     </row>
     <row r="39">
@@ -3182,70 +2602,55 @@
         </is>
       </c>
       <c r="B39">
-        <v>78.3</v>
+        <v>10.3</v>
       </c>
       <c r="C39">
-        <v>10.3</v>
+        <v>13.9</v>
       </c>
       <c r="D39">
-        <v>13.9</v>
+        <v>18</v>
       </c>
       <c r="E39">
-        <v>18</v>
+        <v>7.3</v>
       </c>
       <c r="F39">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="G39">
-        <v>7.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H39">
-        <v>8.300000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="I39">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="J39">
-        <v>21.7</v>
+        <v>2.2</v>
       </c>
       <c r="K39">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="L39">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="M39">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="N39">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="O39">
-        <v>3.8</v>
+        <v>16.8</v>
       </c>
       <c r="P39">
-        <v>0.3</v>
+        <v>39.5</v>
       </c>
       <c r="Q39">
-        <v>16.8</v>
+        <v>12.1</v>
       </c>
       <c r="R39">
-        <v>39.5</v>
-      </c>
-      <c r="S39">
-        <v>12.1</v>
-      </c>
-      <c r="T39">
         <v>47.5</v>
-      </c>
-      <c r="U39">
-        <v>45.4</v>
-      </c>
-      <c r="V39">
-        <v>71.59999999999999</v>
-      </c>
-      <c r="W39">
-        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -3255,70 +2660,55 @@
         </is>
       </c>
       <c r="B40">
-        <v>89.2</v>
+        <v>30.9</v>
       </c>
       <c r="C40">
-        <v>30.9</v>
+        <v>30.4</v>
       </c>
       <c r="D40">
-        <v>30.4</v>
+        <v>20.8</v>
       </c>
       <c r="E40">
-        <v>20.8</v>
+        <v>1.9</v>
       </c>
       <c r="F40">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="G40">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="J40">
-        <v>10.7</v>
+        <v>1.6</v>
       </c>
       <c r="K40">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="L40">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="P40">
-        <v>0.1</v>
+        <v>29.9</v>
       </c>
       <c r="Q40">
-        <v>8.300000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="R40">
-        <v>29.9</v>
-      </c>
-      <c r="S40">
-        <v>1.2</v>
-      </c>
-      <c r="T40">
         <v>68.2</v>
-      </c>
-      <c r="U40">
-        <v>66.2</v>
-      </c>
-      <c r="V40">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="W40">
-        <v>0.7</v>
       </c>
     </row>
     <row r="41">
@@ -3328,70 +2718,55 @@
         </is>
       </c>
       <c r="B41">
-        <v>83.90000000000001</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>22.6</v>
       </c>
       <c r="D41">
-        <v>22.6</v>
+        <v>38.8</v>
       </c>
       <c r="E41">
-        <v>38.8</v>
+        <v>5.7</v>
       </c>
       <c r="F41">
-        <v>5.7</v>
+        <v>2.3</v>
       </c>
       <c r="G41">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="H41">
-        <v>4.2</v>
+        <v>0.1</v>
       </c>
       <c r="I41">
-        <v>0.1</v>
+        <v>7.1</v>
       </c>
       <c r="J41">
-        <v>16.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K41">
-        <v>7.1</v>
+        <v>0.4</v>
       </c>
       <c r="L41">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="Q41">
-        <v>0.7</v>
+        <v>16</v>
       </c>
       <c r="R41">
-        <v>56</v>
-      </c>
-      <c r="S41">
-        <v>16</v>
-      </c>
-      <c r="T41">
         <v>26.9</v>
-      </c>
-      <c r="U41">
-        <v>26.9</v>
-      </c>
-      <c r="V41">
-        <v>73.7</v>
-      </c>
-      <c r="W41">
-        <v>9.9</v>
       </c>
     </row>
     <row r="42">
@@ -3401,70 +2776,55 @@
         </is>
       </c>
       <c r="B42">
-        <v>84.8</v>
+        <v>0.4</v>
       </c>
       <c r="C42">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="D42">
-        <v>0.9</v>
+        <v>4.2</v>
       </c>
       <c r="E42">
-        <v>4.2</v>
+        <v>48.9</v>
       </c>
       <c r="F42">
-        <v>48.9</v>
+        <v>8.6</v>
       </c>
       <c r="G42">
-        <v>8.6</v>
+        <v>0.5</v>
       </c>
       <c r="H42">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="J42">
-        <v>15.2</v>
+        <v>1.4</v>
       </c>
       <c r="K42">
-        <v>2.2</v>
+        <v>0.1</v>
       </c>
       <c r="L42">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
       <c r="M42">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N42">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O42">
-        <v>0.2</v>
+        <v>11.5</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="Q42">
-        <v>11.5</v>
+        <v>3.8</v>
       </c>
       <c r="R42">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="S42">
-        <v>3.8</v>
-      </c>
-      <c r="T42">
         <v>21.5</v>
-      </c>
-      <c r="U42">
-        <v>19.3</v>
-      </c>
-      <c r="V42">
-        <v>81</v>
-      </c>
-      <c r="W42">
-        <v>3.1</v>
       </c>
     </row>
     <row r="43">
@@ -3474,70 +2834,55 @@
         </is>
       </c>
       <c r="B43">
-        <v>44.2</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="D43">
-        <v>3.1</v>
+        <v>17</v>
       </c>
       <c r="E43">
-        <v>17</v>
+        <v>4.2</v>
       </c>
       <c r="F43">
-        <v>4.2</v>
+        <v>11.5</v>
       </c>
       <c r="G43">
-        <v>11.5</v>
+        <v>4.6</v>
       </c>
       <c r="H43">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="J43">
-        <v>55.8</v>
+        <v>22</v>
       </c>
       <c r="K43">
-        <v>14.4</v>
+        <v>0.1</v>
       </c>
       <c r="L43">
-        <v>22</v>
+        <v>0.3</v>
       </c>
       <c r="M43">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>19.2</v>
       </c>
       <c r="P43">
-        <v>0.2</v>
+        <v>64.2</v>
       </c>
       <c r="Q43">
-        <v>19.2</v>
+        <v>5.9</v>
       </c>
       <c r="R43">
-        <v>64.2</v>
-      </c>
-      <c r="S43">
-        <v>5.9</v>
-      </c>
-      <c r="T43">
         <v>27.3</v>
-      </c>
-      <c r="U43">
-        <v>18.8</v>
-      </c>
-      <c r="V43">
-        <v>41.6</v>
-      </c>
-      <c r="W43">
-        <v>1.5</v>
       </c>
     </row>
     <row r="44">
@@ -3547,70 +2892,55 @@
         </is>
       </c>
       <c r="B44">
-        <v>86.3</v>
+        <v>3.7</v>
       </c>
       <c r="C44">
-        <v>3.7</v>
+        <v>5.8</v>
       </c>
       <c r="D44">
-        <v>5.8</v>
+        <v>13.6</v>
       </c>
       <c r="E44">
-        <v>13.6</v>
+        <v>55.4</v>
       </c>
       <c r="F44">
-        <v>55.4</v>
+        <v>5.5</v>
       </c>
       <c r="G44">
-        <v>5.5</v>
+        <v>0.2</v>
       </c>
       <c r="H44">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J44">
-        <v>13.7</v>
+        <v>1.6</v>
       </c>
       <c r="K44">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
       <c r="N44">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>70.2</v>
       </c>
       <c r="Q44">
-        <v>3.4</v>
+        <v>12.4</v>
       </c>
       <c r="R44">
-        <v>70.2</v>
-      </c>
-      <c r="S44">
-        <v>12.4</v>
-      </c>
-      <c r="T44">
         <v>14.4</v>
-      </c>
-      <c r="U44">
-        <v>13.8</v>
-      </c>
-      <c r="V44">
-        <v>76</v>
-      </c>
-      <c r="W44">
-        <v>8.1</v>
       </c>
     </row>
     <row r="45">
@@ -3620,70 +2950,55 @@
         </is>
       </c>
       <c r="B45">
-        <v>99.7</v>
+        <v>13.3</v>
       </c>
       <c r="C45">
-        <v>13.3</v>
+        <v>2.5</v>
       </c>
       <c r="D45">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="E45">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G45">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>46.7</v>
       </c>
       <c r="I45">
-        <v>46.7</v>
+        <v>0</v>
       </c>
       <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>36.7</v>
+      </c>
+      <c r="N45">
         <v>0.3</v>
       </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
       <c r="O45">
-        <v>36.7</v>
+        <v>0</v>
       </c>
       <c r="P45">
-        <v>0.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R45">
-        <v>2.9</v>
-      </c>
-      <c r="S45">
-        <v>0.1</v>
-      </c>
-      <c r="T45">
         <v>96.8</v>
-      </c>
-      <c r="U45">
-        <v>96.7</v>
-      </c>
-      <c r="V45">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="W45">
-        <v>0.1</v>
       </c>
     </row>
     <row r="46">
@@ -3693,70 +3008,55 @@
         </is>
       </c>
       <c r="B46">
-        <v>69.3</v>
+        <v>6.8</v>
       </c>
       <c r="C46">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="D46">
-        <v>7.2</v>
+        <v>17.3</v>
       </c>
       <c r="E46">
-        <v>17.3</v>
+        <v>22.9</v>
       </c>
       <c r="F46">
-        <v>22.9</v>
+        <v>10.8</v>
       </c>
       <c r="G46">
-        <v>10.8</v>
+        <v>0.5</v>
       </c>
       <c r="H46">
+        <v>0.3</v>
+      </c>
+      <c r="I46">
+        <v>28</v>
+      </c>
+      <c r="J46">
+        <v>0.7</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
         <v>0.5</v>
       </c>
-      <c r="I46">
-        <v>0.3</v>
-      </c>
-      <c r="J46">
-        <v>30.7</v>
-      </c>
-      <c r="K46">
-        <v>28</v>
-      </c>
-      <c r="L46">
-        <v>0.7</v>
-      </c>
       <c r="M46">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N46">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="O46">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="P46">
-        <v>0.2</v>
+        <v>61.7</v>
       </c>
       <c r="Q46">
-        <v>2</v>
+        <v>4.4</v>
       </c>
       <c r="R46">
-        <v>61.7</v>
-      </c>
-      <c r="S46">
-        <v>4.4</v>
-      </c>
-      <c r="T46">
         <v>33</v>
-      </c>
-      <c r="U46">
-        <v>24.8</v>
-      </c>
-      <c r="V46">
-        <v>65.8</v>
-      </c>
-      <c r="W46">
-        <v>2.9</v>
       </c>
     </row>
     <row r="47">
@@ -3766,70 +3066,55 @@
         </is>
       </c>
       <c r="B47">
-        <v>66.5</v>
+        <v>17.9</v>
       </c>
       <c r="C47">
-        <v>17.9</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>27.6</v>
       </c>
       <c r="E47">
-        <v>27.6</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="G47">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J47">
-        <v>33.1</v>
+        <v>1.4</v>
       </c>
       <c r="K47">
-        <v>27</v>
+        <v>4.1</v>
       </c>
       <c r="L47">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="P47">
-        <v>1.5</v>
+        <v>45.6</v>
       </c>
       <c r="Q47">
-        <v>3.2</v>
+        <v>17.4</v>
       </c>
       <c r="R47">
-        <v>45.6</v>
-      </c>
-      <c r="S47">
-        <v>17.4</v>
-      </c>
-      <c r="T47">
         <v>35.8</v>
-      </c>
-      <c r="U47">
-        <v>28.6</v>
-      </c>
-      <c r="V47">
-        <v>57</v>
-      </c>
-      <c r="W47">
-        <v>9.1</v>
       </c>
     </row>
     <row r="48">
@@ -3839,46 +3124,46 @@
         </is>
       </c>
       <c r="B48">
-        <v>94.7</v>
+        <v>29.6</v>
       </c>
       <c r="C48">
-        <v>29.6</v>
+        <v>6.4</v>
       </c>
       <c r="D48">
-        <v>6.4</v>
+        <v>0.9</v>
       </c>
       <c r="E48">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="F48">
-        <v>1.3</v>
+        <v>48.1</v>
       </c>
       <c r="G48">
-        <v>48.1</v>
+        <v>3.1</v>
       </c>
       <c r="H48">
-        <v>3.1</v>
+        <v>0.1</v>
       </c>
       <c r="I48">
-        <v>0.1</v>
+        <v>4.8</v>
       </c>
       <c r="J48">
-        <v>5.2</v>
+        <v>0.5</v>
       </c>
       <c r="K48">
-        <v>4.8</v>
+        <v>0.3</v>
       </c>
       <c r="L48">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="M48">
-        <v>0.3</v>
+        <v>2.5</v>
       </c>
       <c r="N48">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="O48">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -3887,21 +3172,6 @@
         <v>0</v>
       </c>
       <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48">
         <v>0</v>
       </c>
     </row>
@@ -3912,69 +3182,54 @@
         </is>
       </c>
       <c r="B49">
-        <v>79.8</v>
+        <v>58.2</v>
       </c>
       <c r="C49">
-        <v>58.2</v>
+        <v>2.2</v>
       </c>
       <c r="D49">
+        <v>10.9</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>5.6</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>1.5</v>
+      </c>
+      <c r="I49">
+        <v>10.7</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0.9</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0.5</v>
+      </c>
+      <c r="N49">
+        <v>0.2</v>
+      </c>
+      <c r="O49">
         <v>2.2</v>
       </c>
-      <c r="E49">
-        <v>10.9</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>5.6</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>1.5</v>
-      </c>
-      <c r="J49">
-        <v>20.1</v>
-      </c>
-      <c r="K49">
-        <v>10.7</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0.9</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <v>0.5</v>
-      </c>
       <c r="P49">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-      <c r="T49">
-        <v>0</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-      <c r="W49">
         <v>0</v>
       </c>
     </row>
@@ -3985,70 +3240,55 @@
         </is>
       </c>
       <c r="B50">
-        <v>64.09999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="C50">
-        <v>2.2</v>
+        <v>14.2</v>
       </c>
       <c r="D50">
-        <v>14.2</v>
+        <v>15.9</v>
       </c>
       <c r="E50">
-        <v>15.9</v>
+        <v>12.4</v>
       </c>
       <c r="F50">
-        <v>12.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G50">
-        <v>9.800000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="H50">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="I50">
-        <v>1.7</v>
+        <v>24.5</v>
       </c>
       <c r="J50">
-        <v>35.9</v>
+        <v>2</v>
       </c>
       <c r="K50">
-        <v>24.5</v>
+        <v>0.2</v>
       </c>
       <c r="L50">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="M50">
         <v>0.2</v>
       </c>
       <c r="N50">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="O50">
-        <v>0.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="P50">
-        <v>0.3</v>
+        <v>44.4</v>
       </c>
       <c r="Q50">
-        <v>9.199999999999999</v>
+        <v>13.1</v>
       </c>
       <c r="R50">
-        <v>44.4</v>
-      </c>
-      <c r="S50">
-        <v>13.1</v>
-      </c>
-      <c r="T50">
         <v>34.5</v>
-      </c>
-      <c r="U50">
-        <v>30.3</v>
-      </c>
-      <c r="V50">
-        <v>54.1</v>
-      </c>
-      <c r="W50">
-        <v>6.1</v>
       </c>
     </row>
     <row r="51">
@@ -4058,70 +3298,55 @@
         </is>
       </c>
       <c r="B51">
-        <v>82.40000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="C51">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="D51">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="E51">
-        <v>3.2</v>
+        <v>28.1</v>
       </c>
       <c r="F51">
-        <v>28.1</v>
+        <v>22.3</v>
       </c>
       <c r="G51">
-        <v>22.3</v>
+        <v>2.7</v>
       </c>
       <c r="H51">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="I51">
+        <v>8.5</v>
+      </c>
+      <c r="J51">
+        <v>1.9</v>
+      </c>
+      <c r="K51">
+        <v>1.4</v>
+      </c>
+      <c r="L51">
+        <v>0.9</v>
+      </c>
+      <c r="M51">
+        <v>15.5</v>
+      </c>
+      <c r="N51">
+        <v>0.2</v>
+      </c>
+      <c r="O51">
+        <v>6.9</v>
+      </c>
+      <c r="P51">
+        <v>44.1</v>
+      </c>
+      <c r="Q51">
         <v>2</v>
       </c>
-      <c r="J51">
-        <v>17.6</v>
-      </c>
-      <c r="K51">
-        <v>8.5</v>
-      </c>
-      <c r="L51">
-        <v>1.9</v>
-      </c>
-      <c r="M51">
-        <v>1.4</v>
-      </c>
-      <c r="N51">
-        <v>0.9</v>
-      </c>
-      <c r="O51">
-        <v>15.5</v>
-      </c>
-      <c r="P51">
-        <v>0.2</v>
-      </c>
-      <c r="Q51">
-        <v>6.9</v>
-      </c>
       <c r="R51">
-        <v>44.1</v>
-      </c>
-      <c r="S51">
-        <v>2</v>
-      </c>
-      <c r="T51">
         <v>52.9</v>
-      </c>
-      <c r="U51">
-        <v>48.6</v>
-      </c>
-      <c r="V51">
-        <v>80.3</v>
-      </c>
-      <c r="W51">
-        <v>1.2</v>
       </c>
     </row>
     <row r="52">
@@ -4131,70 +3356,55 @@
         </is>
       </c>
       <c r="B52">
-        <v>87.5</v>
+        <v>36.8</v>
       </c>
       <c r="C52">
-        <v>36.8</v>
+        <v>14.2</v>
       </c>
       <c r="D52">
-        <v>14.2</v>
+        <v>26.1</v>
       </c>
       <c r="E52">
-        <v>26.1</v>
+        <v>7.5</v>
       </c>
       <c r="F52">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="G52">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H52">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="I52">
-        <v>0.1</v>
+        <v>5.5</v>
       </c>
       <c r="J52">
-        <v>12.4</v>
+        <v>0.4</v>
       </c>
       <c r="K52">
-        <v>5.5</v>
+        <v>0.2</v>
       </c>
       <c r="L52">
         <v>0.4</v>
       </c>
       <c r="M52">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="N52">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="O52">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="P52">
-        <v>2.6</v>
+        <v>37.5</v>
       </c>
       <c r="Q52">
-        <v>3.9</v>
+        <v>8</v>
       </c>
       <c r="R52">
-        <v>37.5</v>
-      </c>
-      <c r="S52">
-        <v>8</v>
-      </c>
-      <c r="T52">
         <v>53.3</v>
-      </c>
-      <c r="U52">
-        <v>52.7</v>
-      </c>
-      <c r="V52">
-        <v>81.09999999999999</v>
-      </c>
-      <c r="W52">
-        <v>5.3</v>
       </c>
     </row>
     <row r="53">
@@ -4204,70 +3414,55 @@
         </is>
       </c>
       <c r="B53">
-        <v>96</v>
+        <v>7.1</v>
       </c>
       <c r="C53">
-        <v>7.1</v>
+        <v>24.4</v>
       </c>
       <c r="D53">
-        <v>24.4</v>
+        <v>19.9</v>
       </c>
       <c r="E53">
-        <v>19.9</v>
+        <v>35.9</v>
       </c>
       <c r="F53">
-        <v>35.9</v>
+        <v>1.3</v>
       </c>
       <c r="G53">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H53">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="N53">
         <v>0</v>
       </c>
       <c r="O53">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>28.9</v>
       </c>
       <c r="Q53">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R53">
-        <v>28.9</v>
-      </c>
-      <c r="S53">
-        <v>1.9</v>
-      </c>
-      <c r="T53">
         <v>69.09999999999999</v>
-      </c>
-      <c r="U53">
-        <v>68.8</v>
-      </c>
-      <c r="V53">
-        <v>94.8</v>
-      </c>
-      <c r="W53">
-        <v>1.1</v>
       </c>
     </row>
     <row r="54">
@@ -4277,16 +3472,16 @@
         </is>
       </c>
       <c r="B54">
-        <v>70.7</v>
+        <v>31.1</v>
       </c>
       <c r="C54">
-        <v>31.1</v>
+        <v>32</v>
       </c>
       <c r="D54">
-        <v>32</v>
+        <v>3.2</v>
       </c>
       <c r="E54">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -4295,13 +3490,13 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I54">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>29.3</v>
+        <v>0</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -4313,34 +3508,19 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="P54">
-        <v>0.1</v>
+        <v>21.2</v>
       </c>
       <c r="Q54">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="R54">
-        <v>21.2</v>
-      </c>
-      <c r="S54">
-        <v>1.7</v>
-      </c>
-      <c r="T54">
         <v>76.09999999999999</v>
-      </c>
-      <c r="U54">
-        <v>69.8</v>
-      </c>
-      <c r="V54">
-        <v>70.3</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -4350,70 +3530,55 @@
         </is>
       </c>
       <c r="B55">
-        <v>67.09999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="C55">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="D55">
-        <v>4.5</v>
+        <v>24.5</v>
       </c>
       <c r="E55">
-        <v>24.5</v>
+        <v>14.8</v>
       </c>
       <c r="F55">
-        <v>14.8</v>
+        <v>20.4</v>
       </c>
       <c r="G55">
-        <v>20.4</v>
+        <v>0.1</v>
       </c>
       <c r="H55">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J55">
-        <v>32.9</v>
+        <v>0.6</v>
       </c>
       <c r="K55">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P55">
-        <v>0.1</v>
+        <v>54.4</v>
       </c>
       <c r="Q55">
-        <v>1.2</v>
+        <v>33.2</v>
       </c>
       <c r="R55">
-        <v>54.4</v>
-      </c>
-      <c r="S55">
-        <v>33.2</v>
-      </c>
-      <c r="T55">
         <v>10.7</v>
-      </c>
-      <c r="U55">
-        <v>10.1</v>
-      </c>
-      <c r="V55">
-        <v>47.6</v>
-      </c>
-      <c r="W55">
-        <v>18.3</v>
       </c>
     </row>
     <row r="56">
@@ -4423,70 +3588,55 @@
         </is>
       </c>
       <c r="B56">
-        <v>75.40000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="C56">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="D56">
-        <v>1.4</v>
+        <v>7.5</v>
       </c>
       <c r="E56">
-        <v>7.5</v>
+        <v>37.2</v>
       </c>
       <c r="F56">
-        <v>37.2</v>
+        <v>11.4</v>
       </c>
       <c r="G56">
-        <v>11.4</v>
+        <v>0.5</v>
       </c>
       <c r="H56">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>13.5</v>
       </c>
       <c r="J56">
-        <v>24.6</v>
+        <v>1.6</v>
       </c>
       <c r="K56">
-        <v>13.5</v>
+        <v>0.7</v>
       </c>
       <c r="L56">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="M56">
         <v>0.7</v>
       </c>
       <c r="N56">
-        <v>1.9</v>
+        <v>0.1</v>
       </c>
       <c r="O56">
-        <v>0.7</v>
+        <v>9.4</v>
       </c>
       <c r="P56">
-        <v>0.1</v>
+        <v>59.5</v>
       </c>
       <c r="Q56">
-        <v>9.4</v>
+        <v>6.9</v>
       </c>
       <c r="R56">
-        <v>59.5</v>
-      </c>
-      <c r="S56">
-        <v>6.9</v>
-      </c>
-      <c r="T56">
         <v>33.5</v>
-      </c>
-      <c r="U56">
-        <v>27.3</v>
-      </c>
-      <c r="V56">
-        <v>71.8</v>
-      </c>
-      <c r="W56">
-        <v>3.5</v>
       </c>
     </row>
     <row r="57">
@@ -4496,70 +3646,55 @@
         </is>
       </c>
       <c r="B57">
-        <v>96</v>
+        <v>20.4</v>
       </c>
       <c r="C57">
-        <v>20.4</v>
+        <v>1.2</v>
       </c>
       <c r="D57">
+        <v>6.5</v>
+      </c>
+      <c r="E57">
+        <v>54.5</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
         <v>1.2</v>
       </c>
-      <c r="E57">
-        <v>6.5</v>
-      </c>
-      <c r="F57">
-        <v>54.5</v>
-      </c>
-      <c r="G57">
-        <v>2</v>
-      </c>
       <c r="H57">
+        <v>0.1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
         <v>1.2</v>
       </c>
-      <c r="I57">
-        <v>0.1</v>
-      </c>
-      <c r="J57">
-        <v>4</v>
-      </c>
       <c r="K57">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="L57">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="M57">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="N57">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="O57">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="P57">
-        <v>0.1</v>
+        <v>20.5</v>
       </c>
       <c r="Q57">
-        <v>1.7</v>
+        <v>4.9</v>
       </c>
       <c r="R57">
-        <v>20.5</v>
-      </c>
-      <c r="S57">
-        <v>4.9</v>
-      </c>
-      <c r="T57">
         <v>73.8</v>
-      </c>
-      <c r="U57">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="V57">
-        <v>91.59999999999999</v>
-      </c>
-      <c r="W57">
-        <v>3.7</v>
       </c>
     </row>
     <row r="58">
@@ -4569,70 +3704,55 @@
         </is>
       </c>
       <c r="B58">
-        <v>45.5</v>
+        <v>6.7</v>
       </c>
       <c r="C58">
-        <v>6.7</v>
+        <v>4</v>
       </c>
       <c r="D58">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="E58">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="F58">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="G58">
-        <v>3.1</v>
+        <v>6.6</v>
       </c>
       <c r="H58">
-        <v>6.6</v>
+        <v>15.3</v>
       </c>
       <c r="I58">
-        <v>15.3</v>
+        <v>9.6</v>
       </c>
       <c r="J58">
-        <v>54.3</v>
+        <v>29.3</v>
       </c>
       <c r="K58">
-        <v>9.6</v>
+        <v>0.3</v>
       </c>
       <c r="L58">
-        <v>29.3</v>
+        <v>2</v>
       </c>
       <c r="M58">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N58">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="P58">
-        <v>0.2</v>
+        <v>49.9</v>
       </c>
       <c r="Q58">
-        <v>15.2</v>
+        <v>13.2</v>
       </c>
       <c r="R58">
-        <v>49.9</v>
-      </c>
-      <c r="S58">
-        <v>13.2</v>
-      </c>
-      <c r="T58">
         <v>35</v>
-      </c>
-      <c r="U58">
-        <v>28</v>
-      </c>
-      <c r="V58">
-        <v>42.7</v>
-      </c>
-      <c r="W58">
-        <v>2.2</v>
       </c>
     </row>
     <row r="59">
@@ -4692,21 +3812,6 @@
       <c r="R59">
         <v>0</v>
       </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
-      <c r="T59">
-        <v>0</v>
-      </c>
-      <c r="U59">
-        <v>0</v>
-      </c>
-      <c r="V59">
-        <v>0</v>
-      </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4715,16 +3820,16 @@
         </is>
       </c>
       <c r="B60">
-        <v>85.90000000000001</v>
+        <v>71.7</v>
       </c>
       <c r="C60">
-        <v>71.7</v>
+        <v>4.8</v>
       </c>
       <c r="D60">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="E60">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -4733,52 +3838,37 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I60">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>14.1</v>
+        <v>0</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L60">
         <v>0</v>
       </c>
       <c r="M60">
-        <v>1.5</v>
+        <v>5.4</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="O60">
-        <v>5.4</v>
+        <v>2.9</v>
       </c>
       <c r="P60">
-        <v>4.6</v>
+        <v>19.6</v>
       </c>
       <c r="Q60">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="R60">
-        <v>19.6</v>
-      </c>
-      <c r="S60">
-        <v>1.7</v>
-      </c>
-      <c r="T60">
         <v>78.59999999999999</v>
-      </c>
-      <c r="U60">
-        <v>76.40000000000001</v>
-      </c>
-      <c r="V60">
-        <v>85.2</v>
-      </c>
-      <c r="W60">
-        <v>0.5</v>
       </c>
     </row>
     <row r="61">
@@ -4788,70 +3878,55 @@
         </is>
       </c>
       <c r="B61">
-        <v>96.5</v>
+        <v>20.1</v>
       </c>
       <c r="C61">
-        <v>20.1</v>
+        <v>3.3</v>
       </c>
       <c r="D61">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="E61">
-        <v>3.2</v>
+        <v>12.4</v>
       </c>
       <c r="F61">
-        <v>12.4</v>
+        <v>3.5</v>
       </c>
       <c r="G61">
-        <v>3.5</v>
+        <v>5.1</v>
       </c>
       <c r="H61">
-        <v>5.1</v>
+        <v>0.4</v>
       </c>
       <c r="I61">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="J61">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="K61">
+        <v>0.3</v>
+      </c>
+      <c r="L61">
+        <v>0.2</v>
+      </c>
+      <c r="M61">
+        <v>44.6</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0.2</v>
+      </c>
+      <c r="P61">
+        <v>16.8</v>
+      </c>
+      <c r="Q61">
         <v>1.6</v>
       </c>
-      <c r="L61">
-        <v>1.7</v>
-      </c>
-      <c r="M61">
-        <v>0.3</v>
-      </c>
-      <c r="N61">
-        <v>0.2</v>
-      </c>
-      <c r="O61">
-        <v>44.6</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>0.2</v>
-      </c>
       <c r="R61">
-        <v>16.8</v>
-      </c>
-      <c r="S61">
-        <v>1.6</v>
-      </c>
-      <c r="T61">
         <v>81.5</v>
-      </c>
-      <c r="U61">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="V61">
-        <v>95.2</v>
-      </c>
-      <c r="W61">
-        <v>1.1</v>
       </c>
     </row>
     <row r="62">
@@ -4861,70 +3936,55 @@
         </is>
       </c>
       <c r="B62">
-        <v>79.2</v>
+        <v>0.3</v>
       </c>
       <c r="C62">
-        <v>0.3</v>
+        <v>9</v>
       </c>
       <c r="D62">
-        <v>9</v>
+        <v>28.6</v>
       </c>
       <c r="E62">
-        <v>28.6</v>
+        <v>1.2</v>
       </c>
       <c r="F62">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="G62">
-        <v>2.2</v>
+        <v>32.8</v>
       </c>
       <c r="H62">
-        <v>32.8</v>
+        <v>1.1</v>
       </c>
       <c r="I62">
+        <v>0.9</v>
+      </c>
+      <c r="J62">
+        <v>13.9</v>
+      </c>
+      <c r="K62">
+        <v>0.1</v>
+      </c>
+      <c r="L62">
+        <v>0.4</v>
+      </c>
+      <c r="M62">
         <v>1.1</v>
       </c>
-      <c r="J62">
-        <v>20.7</v>
-      </c>
-      <c r="K62">
-        <v>0.9</v>
-      </c>
-      <c r="L62">
-        <v>13.9</v>
-      </c>
-      <c r="M62">
-        <v>0.1</v>
-      </c>
       <c r="N62">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="O62">
-        <v>1.1</v>
+        <v>5.9</v>
       </c>
       <c r="P62">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="Q62">
-        <v>5.9</v>
+        <v>27</v>
       </c>
       <c r="R62">
-        <v>58.4</v>
-      </c>
-      <c r="S62">
-        <v>27</v>
-      </c>
-      <c r="T62">
         <v>14.1</v>
-      </c>
-      <c r="U62">
-        <v>14</v>
-      </c>
-      <c r="V62">
-        <v>60.5</v>
-      </c>
-      <c r="W62">
-        <v>18.4</v>
       </c>
     </row>
     <row r="63">
@@ -4934,70 +3994,55 @@
         </is>
       </c>
       <c r="B63">
-        <v>94.2</v>
+        <v>3.9</v>
       </c>
       <c r="C63">
-        <v>3.9</v>
+        <v>26.7</v>
       </c>
       <c r="D63">
-        <v>26.7</v>
+        <v>57.7</v>
       </c>
       <c r="E63">
-        <v>57.7</v>
+        <v>0.3</v>
       </c>
       <c r="F63">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="G63">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="H63">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J63">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="L63">
         <v>0</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N63">
         <v>0</v>
       </c>
       <c r="O63">
-        <v>0.1</v>
+        <v>5.3</v>
       </c>
       <c r="P63">
-        <v>0</v>
+        <v>57.8</v>
       </c>
       <c r="Q63">
-        <v>5.3</v>
+        <v>13.1</v>
       </c>
       <c r="R63">
-        <v>57.8</v>
-      </c>
-      <c r="S63">
-        <v>13.1</v>
-      </c>
-      <c r="T63">
         <v>25.5</v>
-      </c>
-      <c r="U63">
-        <v>25.4</v>
-      </c>
-      <c r="V63">
-        <v>79.2</v>
-      </c>
-      <c r="W63">
-        <v>11.6</v>
       </c>
     </row>
     <row r="64">
@@ -5007,70 +4052,55 @@
         </is>
       </c>
       <c r="B64">
-        <v>85.59999999999999</v>
+        <v>22.1</v>
       </c>
       <c r="C64">
-        <v>22.1</v>
+        <v>35.1</v>
       </c>
       <c r="D64">
-        <v>35.1</v>
+        <v>7.7</v>
       </c>
       <c r="E64">
-        <v>7.7</v>
+        <v>2.9</v>
       </c>
       <c r="F64">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="G64">
-        <v>3.3</v>
+        <v>0.1</v>
       </c>
       <c r="H64">
         <v>0.1</v>
       </c>
       <c r="I64">
-        <v>0.1</v>
+        <v>13.6</v>
       </c>
       <c r="J64">
-        <v>14.4</v>
+        <v>0.1</v>
       </c>
       <c r="K64">
-        <v>13.6</v>
+        <v>0.1</v>
       </c>
       <c r="L64">
-        <v>0.1</v>
+        <v>4.7</v>
       </c>
       <c r="M64">
-        <v>0.1</v>
+        <v>3.8</v>
       </c>
       <c r="N64">
-        <v>4.7</v>
+        <v>0.3</v>
       </c>
       <c r="O64">
-        <v>3.8</v>
+        <v>0.4</v>
       </c>
       <c r="P64">
-        <v>0.3</v>
+        <v>18.7</v>
       </c>
       <c r="Q64">
-        <v>0.4</v>
+        <v>5.8</v>
       </c>
       <c r="R64">
-        <v>18.7</v>
-      </c>
-      <c r="S64">
-        <v>5.8</v>
-      </c>
-      <c r="T64">
         <v>75</v>
-      </c>
-      <c r="U64">
-        <v>70.90000000000001</v>
-      </c>
-      <c r="V64">
-        <v>82.2</v>
-      </c>
-      <c r="W64">
-        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -5080,37 +4110,37 @@
         </is>
       </c>
       <c r="B65">
-        <v>70.5</v>
+        <v>1.6</v>
       </c>
       <c r="C65">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="D65">
-        <v>3.8</v>
+        <v>16.2</v>
       </c>
       <c r="E65">
-        <v>16.2</v>
+        <v>14.8</v>
       </c>
       <c r="F65">
-        <v>14.8</v>
+        <v>24.7</v>
       </c>
       <c r="G65">
-        <v>24.7</v>
+        <v>1.9</v>
       </c>
       <c r="H65">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="I65">
-        <v>0.9</v>
+        <v>5.7</v>
       </c>
       <c r="J65">
-        <v>29.5</v>
+        <v>8.1</v>
       </c>
       <c r="K65">
-        <v>5.7</v>
+        <v>0.2</v>
       </c>
       <c r="L65">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="M65">
         <v>0.2</v>
@@ -5119,31 +4149,16 @@
         <v>0</v>
       </c>
       <c r="O65">
-        <v>0.2</v>
+        <v>15.7</v>
       </c>
       <c r="P65">
-        <v>0</v>
+        <v>64.3</v>
       </c>
       <c r="Q65">
-        <v>15.7</v>
+        <v>10.6</v>
       </c>
       <c r="R65">
-        <v>64.3</v>
-      </c>
-      <c r="S65">
-        <v>10.6</v>
-      </c>
-      <c r="T65">
         <v>23</v>
-      </c>
-      <c r="U65">
-        <v>22</v>
-      </c>
-      <c r="V65">
-        <v>64</v>
-      </c>
-      <c r="W65">
-        <v>5.3</v>
       </c>
     </row>
     <row r="66">
@@ -5153,70 +4168,55 @@
         </is>
       </c>
       <c r="B66">
-        <v>95.3</v>
+        <v>45.1</v>
       </c>
       <c r="C66">
-        <v>45.1</v>
+        <v>25.7</v>
       </c>
       <c r="D66">
-        <v>25.7</v>
+        <v>14.1</v>
       </c>
       <c r="E66">
-        <v>14.1</v>
+        <v>2.8</v>
       </c>
       <c r="F66">
-        <v>2.8</v>
+        <v>0.2</v>
       </c>
       <c r="G66">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H66">
+        <v>0.5</v>
+      </c>
+      <c r="I66">
+        <v>1.3</v>
+      </c>
+      <c r="J66">
+        <v>0.9</v>
+      </c>
+      <c r="K66">
+        <v>2.1</v>
+      </c>
+      <c r="L66">
+        <v>0.8</v>
+      </c>
+      <c r="M66">
+        <v>0.9</v>
+      </c>
+      <c r="N66">
         <v>0.3</v>
       </c>
-      <c r="I66">
-        <v>0.5</v>
-      </c>
-      <c r="J66">
-        <v>4.7</v>
-      </c>
-      <c r="K66">
-        <v>1.3</v>
-      </c>
-      <c r="L66">
-        <v>0.9</v>
-      </c>
-      <c r="M66">
-        <v>2.1</v>
-      </c>
-      <c r="N66">
-        <v>0.8</v>
-      </c>
       <c r="O66">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="P66">
-        <v>0.3</v>
+        <v>16.4</v>
       </c>
       <c r="Q66">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="R66">
-        <v>16.4</v>
-      </c>
-      <c r="S66">
-        <v>4.5</v>
-      </c>
-      <c r="T66">
         <v>78.5</v>
-      </c>
-      <c r="U66">
-        <v>78.3</v>
-      </c>
-      <c r="V66">
-        <v>92.3</v>
-      </c>
-      <c r="W66">
-        <v>2.5</v>
       </c>
     </row>
     <row r="67">
@@ -5226,70 +4226,55 @@
         </is>
       </c>
       <c r="B67">
-        <v>85.8</v>
+        <v>25.8</v>
       </c>
       <c r="C67">
-        <v>25.8</v>
+        <v>25</v>
       </c>
       <c r="D67">
-        <v>25</v>
+        <v>13.8</v>
       </c>
       <c r="E67">
-        <v>13.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F67">
-        <v>9.300000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="G67">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H67">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="I67">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="J67">
-        <v>14.2</v>
+        <v>1.8</v>
       </c>
       <c r="K67">
-        <v>0.4</v>
+        <v>5.9</v>
       </c>
       <c r="L67">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="M67">
-        <v>5.9</v>
+        <v>0.1</v>
       </c>
       <c r="N67">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O67">
-        <v>0.1</v>
+        <v>12.1</v>
       </c>
       <c r="P67">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="Q67">
-        <v>12.1</v>
+        <v>2.3</v>
       </c>
       <c r="R67">
-        <v>21.6</v>
-      </c>
-      <c r="S67">
-        <v>2.3</v>
-      </c>
-      <c r="T67">
         <v>75.3</v>
-      </c>
-      <c r="U67">
-        <v>67.7</v>
-      </c>
-      <c r="V67">
-        <v>83.5</v>
-      </c>
-      <c r="W67">
-        <v>1.6</v>
       </c>
     </row>
     <row r="68">
@@ -5299,70 +4284,55 @@
         </is>
       </c>
       <c r="B68">
-        <v>65.5</v>
+        <v>6.7</v>
       </c>
       <c r="C68">
+        <v>8.4</v>
+      </c>
+      <c r="D68">
+        <v>17.2</v>
+      </c>
+      <c r="E68">
+        <v>1.9</v>
+      </c>
+      <c r="F68">
+        <v>8.9</v>
+      </c>
+      <c r="G68">
+        <v>2.2</v>
+      </c>
+      <c r="H68">
+        <v>2.4</v>
+      </c>
+      <c r="I68">
+        <v>17.5</v>
+      </c>
+      <c r="J68">
         <v>6.7</v>
       </c>
-      <c r="D68">
-        <v>8.4</v>
-      </c>
-      <c r="E68">
-        <v>17.2</v>
-      </c>
-      <c r="F68">
-        <v>1.9</v>
-      </c>
-      <c r="G68">
-        <v>8.9</v>
-      </c>
-      <c r="H68">
-        <v>2.2</v>
-      </c>
-      <c r="I68">
-        <v>2.4</v>
-      </c>
-      <c r="J68">
-        <v>34.5</v>
-      </c>
       <c r="K68">
-        <v>17.5</v>
+        <v>1.2</v>
       </c>
       <c r="L68">
-        <v>6.7</v>
+        <v>0.6</v>
       </c>
       <c r="M68">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="N68">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="O68">
-        <v>1.1</v>
+        <v>10.3</v>
       </c>
       <c r="P68">
-        <v>0</v>
+        <v>36.8</v>
       </c>
       <c r="Q68">
-        <v>10.3</v>
+        <v>22</v>
       </c>
       <c r="R68">
-        <v>36.8</v>
-      </c>
-      <c r="S68">
-        <v>22</v>
-      </c>
-      <c r="T68">
         <v>40.9</v>
-      </c>
-      <c r="U68">
-        <v>37.4</v>
-      </c>
-      <c r="V68">
-        <v>57</v>
-      </c>
-      <c r="W68">
-        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="69">
@@ -5372,70 +4342,55 @@
         </is>
       </c>
       <c r="B69">
-        <v>80.40000000000001</v>
+        <v>22.8</v>
       </c>
       <c r="C69">
-        <v>22.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D69">
-        <v>9.699999999999999</v>
+        <v>23.6</v>
       </c>
       <c r="E69">
-        <v>23.6</v>
+        <v>3.8</v>
       </c>
       <c r="F69">
-        <v>3.8</v>
+        <v>5.9</v>
       </c>
       <c r="G69">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="H69">
-        <v>5.2</v>
+        <v>0.1</v>
       </c>
       <c r="I69">
-        <v>0.1</v>
+        <v>3.4</v>
       </c>
       <c r="J69">
-        <v>19.6</v>
+        <v>12.5</v>
       </c>
       <c r="K69">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="L69">
-        <v>12.5</v>
+        <v>0.2</v>
       </c>
       <c r="M69">
-        <v>0.8</v>
+        <v>5.3</v>
       </c>
       <c r="N69">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O69">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="P69">
-        <v>0</v>
+        <v>23.9</v>
       </c>
       <c r="Q69">
-        <v>3.7</v>
+        <v>7.7</v>
       </c>
       <c r="R69">
-        <v>23.9</v>
-      </c>
-      <c r="S69">
-        <v>7.7</v>
-      </c>
-      <c r="T69">
         <v>65.90000000000001</v>
-      </c>
-      <c r="U69">
-        <v>60.4</v>
-      </c>
-      <c r="V69">
-        <v>75.5</v>
-      </c>
-      <c r="W69">
-        <v>3.2</v>
       </c>
     </row>
     <row r="70">
@@ -5445,70 +4400,55 @@
         </is>
       </c>
       <c r="B70">
-        <v>72.09999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="C70">
-        <v>1.9</v>
+        <v>4.1</v>
       </c>
       <c r="D70">
-        <v>4.1</v>
+        <v>16</v>
       </c>
       <c r="E70">
-        <v>16</v>
+        <v>29.5</v>
       </c>
       <c r="F70">
-        <v>29.5</v>
+        <v>6.1</v>
       </c>
       <c r="G70">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="I70">
-        <v>0.9</v>
+        <v>13.6</v>
       </c>
       <c r="J70">
+        <v>0.5</v>
+      </c>
+      <c r="K70">
+        <v>0.1</v>
+      </c>
+      <c r="L70">
+        <v>0.1</v>
+      </c>
+      <c r="M70">
+        <v>0.5</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>13.8</v>
+      </c>
+      <c r="P70">
+        <v>62.5</v>
+      </c>
+      <c r="Q70">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="R70">
         <v>27.9</v>
-      </c>
-      <c r="K70">
-        <v>13.6</v>
-      </c>
-      <c r="L70">
-        <v>0.5</v>
-      </c>
-      <c r="M70">
-        <v>0.1</v>
-      </c>
-      <c r="N70">
-        <v>0.1</v>
-      </c>
-      <c r="O70">
-        <v>0.5</v>
-      </c>
-      <c r="P70">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>13.8</v>
-      </c>
-      <c r="R70">
-        <v>62.5</v>
-      </c>
-      <c r="S70">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="T70">
-        <v>27.9</v>
-      </c>
-      <c r="U70">
-        <v>22.8</v>
-      </c>
-      <c r="V70">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="W70">
-        <v>2.9</v>
       </c>
     </row>
     <row r="71">
@@ -5518,70 +4458,55 @@
         </is>
       </c>
       <c r="B71">
-        <v>99.2</v>
+        <v>49.9</v>
       </c>
       <c r="C71">
-        <v>49.9</v>
+        <v>0.4</v>
       </c>
       <c r="D71">
+        <v>1.7</v>
+      </c>
+      <c r="E71">
+        <v>2.2</v>
+      </c>
+      <c r="F71">
+        <v>1.3</v>
+      </c>
+      <c r="G71">
+        <v>7.6</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0.1</v>
+      </c>
+      <c r="J71">
         <v>0.4</v>
       </c>
-      <c r="E71">
-        <v>1.7</v>
-      </c>
-      <c r="F71">
-        <v>2.2</v>
-      </c>
-      <c r="G71">
-        <v>1.3</v>
-      </c>
-      <c r="H71">
-        <v>7.6</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0.8</v>
-      </c>
       <c r="K71">
         <v>0.1</v>
       </c>
       <c r="L71">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M71">
-        <v>0.1</v>
+        <v>35.8</v>
       </c>
       <c r="N71">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O71">
-        <v>35.8</v>
+        <v>0.1</v>
       </c>
       <c r="P71">
-        <v>0.1</v>
+        <v>5.2</v>
       </c>
       <c r="Q71">
-        <v>0.1</v>
+        <v>1.4</v>
       </c>
       <c r="R71">
-        <v>5.2</v>
-      </c>
-      <c r="S71">
-        <v>1.4</v>
-      </c>
-      <c r="T71">
         <v>93</v>
-      </c>
-      <c r="U71">
-        <v>92.8</v>
-      </c>
-      <c r="V71">
-        <v>97.7</v>
-      </c>
-      <c r="W71">
-        <v>1.2</v>
       </c>
     </row>
     <row r="72">
@@ -5591,16 +4516,16 @@
         </is>
       </c>
       <c r="B72">
-        <v>66.09999999999999</v>
+        <v>25.7</v>
       </c>
       <c r="C72">
-        <v>25.7</v>
+        <v>29.5</v>
       </c>
       <c r="D72">
-        <v>29.5</v>
+        <v>6.9</v>
       </c>
       <c r="E72">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -5615,46 +4540,31 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>31.9</v>
+        <v>0</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L72">
         <v>0</v>
       </c>
       <c r="M72">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N72">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O72">
         <v>0</v>
       </c>
       <c r="P72">
-        <v>0.5</v>
+        <v>14.9</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="R72">
-        <v>14.9</v>
-      </c>
-      <c r="S72">
-        <v>1.1</v>
-      </c>
-      <c r="T72">
         <v>81.40000000000001</v>
-      </c>
-      <c r="U72">
-        <v>58.3</v>
-      </c>
-      <c r="V72">
-        <v>64.5</v>
-      </c>
-      <c r="W72">
-        <v>0.8</v>
       </c>
     </row>
     <row r="73">
@@ -5664,70 +4574,55 @@
         </is>
       </c>
       <c r="B73">
-        <v>76.2</v>
+        <v>2.5</v>
       </c>
       <c r="C73">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="D73">
-        <v>5</v>
+        <v>8.6</v>
       </c>
       <c r="E73">
-        <v>8.6</v>
+        <v>42.3</v>
       </c>
       <c r="F73">
-        <v>42.3</v>
+        <v>5.8</v>
       </c>
       <c r="G73">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="H73">
-        <v>5.2</v>
+        <v>1.1</v>
       </c>
       <c r="I73">
-        <v>1.1</v>
+        <v>11.7</v>
       </c>
       <c r="J73">
-        <v>23.8</v>
+        <v>6.1</v>
       </c>
       <c r="K73">
-        <v>11.7</v>
+        <v>0.3</v>
       </c>
       <c r="L73">
-        <v>6.1</v>
+        <v>0.6</v>
       </c>
       <c r="M73">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="N73">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="O73">
-        <v>0.7</v>
+        <v>5.9</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>49.3</v>
       </c>
       <c r="Q73">
-        <v>5.9</v>
+        <v>29.5</v>
       </c>
       <c r="R73">
-        <v>49.3</v>
-      </c>
-      <c r="S73">
-        <v>29.5</v>
-      </c>
-      <c r="T73">
         <v>20.2</v>
-      </c>
-      <c r="U73">
-        <v>17.6</v>
-      </c>
-      <c r="V73">
-        <v>54.3</v>
-      </c>
-      <c r="W73">
-        <v>21.2</v>
       </c>
     </row>
     <row r="74">
@@ -5737,69 +4632,54 @@
         </is>
       </c>
       <c r="B74">
-        <v>98.8</v>
+        <v>55.6</v>
       </c>
       <c r="C74">
-        <v>55.6</v>
+        <v>9.6</v>
       </c>
       <c r="D74">
-        <v>9.6</v>
+        <v>2.5</v>
       </c>
       <c r="E74">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="F74">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G74">
-        <v>22</v>
+        <v>0.4</v>
       </c>
       <c r="H74">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="K74">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="L74">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M74">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="N74">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O74">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="P74">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
         <v>0</v>
       </c>
       <c r="R74">
-        <v>0</v>
-      </c>
-      <c r="S74">
-        <v>0</v>
-      </c>
-      <c r="T74">
-        <v>0</v>
-      </c>
-      <c r="U74">
-        <v>0</v>
-      </c>
-      <c r="V74">
-        <v>0</v>
-      </c>
-      <c r="W74">
         <v>0</v>
       </c>
     </row>
@@ -5810,16 +4690,16 @@
         </is>
       </c>
       <c r="B75">
-        <v>80.59999999999999</v>
+        <v>59.7</v>
       </c>
       <c r="C75">
-        <v>59.7</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E75">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -5828,52 +4708,37 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I75">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J75">
-        <v>19.4</v>
+        <v>0</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="L75">
         <v>0</v>
       </c>
       <c r="M75">
+        <v>0.3</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>3.4</v>
+      </c>
+      <c r="P75">
+        <v>24.5</v>
+      </c>
+      <c r="Q75">
         <v>2.3</v>
       </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
-      <c r="O75">
-        <v>0.3</v>
-      </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>3.4</v>
-      </c>
       <c r="R75">
-        <v>24.5</v>
-      </c>
-      <c r="S75">
-        <v>2.3</v>
-      </c>
-      <c r="T75">
         <v>72.5</v>
-      </c>
-      <c r="U75">
-        <v>60.3</v>
-      </c>
-      <c r="V75">
-        <v>78.8</v>
-      </c>
-      <c r="W75">
-        <v>1.3</v>
       </c>
     </row>
     <row r="76">
@@ -5883,16 +4748,16 @@
         </is>
       </c>
       <c r="B76">
-        <v>34.4</v>
+        <v>0</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="D76">
-        <v>20.4</v>
+        <v>1.4</v>
       </c>
       <c r="E76">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -5901,51 +4766,36 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="I76">
-        <v>11.8</v>
+        <v>0</v>
       </c>
       <c r="J76">
-        <v>65.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="L76">
         <v>0</v>
       </c>
       <c r="M76">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="N76">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O76">
-        <v>0.1</v>
+        <v>6.2</v>
       </c>
       <c r="P76">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>0</v>
-      </c>
-      <c r="S76">
-        <v>0</v>
-      </c>
-      <c r="T76">
-        <v>0</v>
-      </c>
-      <c r="U76">
-        <v>0</v>
-      </c>
-      <c r="V76">
-        <v>0</v>
-      </c>
-      <c r="W76">
         <v>0</v>
       </c>
     </row>
@@ -5956,7 +4806,7 @@
         </is>
       </c>
       <c r="B77">
-        <v>74.2</v>
+        <v>0</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -5965,61 +4815,46 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>13.9</v>
       </c>
       <c r="F77">
-        <v>13.9</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="H77">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="I77">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="J77">
-        <v>25.7</v>
+        <v>0</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>12.7</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M77">
-        <v>12.7</v>
+        <v>11.5</v>
       </c>
       <c r="N77">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="O77">
-        <v>11.5</v>
+        <v>2</v>
       </c>
       <c r="P77">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q77">
-        <v>2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="R77">
-        <v>3.2</v>
-      </c>
-      <c r="S77">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="T77">
         <v>87.8</v>
-      </c>
-      <c r="U77">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="V77">
-        <v>69.2</v>
-      </c>
-      <c r="W77">
-        <v>4.5</v>
       </c>
     </row>
     <row r="78">
@@ -6029,70 +4864,55 @@
         </is>
       </c>
       <c r="B78">
-        <v>72.3</v>
+        <v>7.3</v>
       </c>
       <c r="C78">
-        <v>7.3</v>
+        <v>11.8</v>
       </c>
       <c r="D78">
-        <v>11.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E78">
-        <v>8.300000000000001</v>
+        <v>23.9</v>
       </c>
       <c r="F78">
-        <v>23.9</v>
+        <v>12.9</v>
       </c>
       <c r="G78">
-        <v>12.9</v>
+        <v>0.5</v>
       </c>
       <c r="H78">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I78">
-        <v>0.2</v>
+        <v>17.2</v>
       </c>
       <c r="J78">
-        <v>27.7</v>
+        <v>2.8</v>
       </c>
       <c r="K78">
-        <v>17.2</v>
+        <v>0</v>
       </c>
       <c r="L78">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="M78">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N78">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O78">
-        <v>0.3</v>
+        <v>7.6</v>
       </c>
       <c r="P78">
-        <v>0.1</v>
+        <v>52.6</v>
       </c>
       <c r="Q78">
-        <v>7.6</v>
+        <v>10.1</v>
       </c>
       <c r="R78">
-        <v>52.6</v>
-      </c>
-      <c r="S78">
-        <v>10.1</v>
-      </c>
-      <c r="T78">
         <v>36.5</v>
-      </c>
-      <c r="U78">
-        <v>32.4</v>
-      </c>
-      <c r="V78">
-        <v>66</v>
-      </c>
-      <c r="W78">
-        <v>5.7</v>
       </c>
     </row>
     <row r="79">
@@ -6102,70 +4922,55 @@
         </is>
       </c>
       <c r="B79">
-        <v>78.40000000000001</v>
+        <v>14.1</v>
       </c>
       <c r="C79">
-        <v>14.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D79">
-        <v>9.300000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="E79">
-        <v>5.5</v>
+        <v>29.6</v>
       </c>
       <c r="F79">
-        <v>29.6</v>
+        <v>16.7</v>
       </c>
       <c r="G79">
-        <v>16.7</v>
+        <v>1.3</v>
       </c>
       <c r="H79">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="J79">
-        <v>21.6</v>
+        <v>3.3</v>
       </c>
       <c r="K79">
-        <v>10.9</v>
+        <v>0.2</v>
       </c>
       <c r="L79">
-        <v>3.3</v>
+        <v>0.1</v>
       </c>
       <c r="M79">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="N79">
         <v>0.1</v>
       </c>
       <c r="O79">
-        <v>0.5</v>
+        <v>7.3</v>
       </c>
       <c r="P79">
-        <v>0.1</v>
+        <v>45.4</v>
       </c>
       <c r="Q79">
-        <v>7.3</v>
+        <v>16.5</v>
       </c>
       <c r="R79">
-        <v>45.4</v>
-      </c>
-      <c r="S79">
-        <v>16.5</v>
-      </c>
-      <c r="T79">
         <v>37.6</v>
-      </c>
-      <c r="U79">
-        <v>35.3</v>
-      </c>
-      <c r="V79">
-        <v>67.8</v>
-      </c>
-      <c r="W79">
-        <v>10.3</v>
       </c>
     </row>
   </sheetData>

--- a/results/df-water-access.xlsx
+++ b/results/df-water-access.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R79"/>
+  <dimension ref="A1:R74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -916,310 +916,310 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Burkina Faso</t>
         </is>
       </c>
       <c r="B10">
-        <v>69.2</v>
+        <v>2.6</v>
       </c>
       <c r="C10">
-        <v>3.5</v>
+        <v>9.6</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>16.3</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M10">
-        <v>3.3</v>
+        <v>0.2</v>
       </c>
       <c r="N10">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>32.6</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Burundi</t>
         </is>
       </c>
       <c r="B11">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>0.6</v>
+      </c>
+      <c r="F11">
+        <v>1.8</v>
+      </c>
+      <c r="G11">
+        <v>47.9</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1.7</v>
+      </c>
+      <c r="J11">
+        <v>10.9</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0.1</v>
+      </c>
+      <c r="N11">
+        <v>0.1</v>
+      </c>
+      <c r="O11">
+        <v>4.3</v>
+      </c>
+      <c r="P11">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="Q11">
+        <v>25.5</v>
+      </c>
+      <c r="R11">
         <v>9.6</v>
-      </c>
-      <c r="D11">
-        <v>18.4</v>
-      </c>
-      <c r="E11">
-        <v>40.6</v>
-      </c>
-      <c r="F11">
-        <v>9</v>
-      </c>
-      <c r="G11">
-        <v>0.2</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>16.3</v>
-      </c>
-      <c r="J11">
-        <v>1.5</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0.2</v>
-      </c>
-      <c r="M11">
-        <v>0.2</v>
-      </c>
-      <c r="N11">
-        <v>0.5</v>
-      </c>
-      <c r="O11">
-        <v>0.8</v>
-      </c>
-      <c r="P11">
-        <v>49.8</v>
-      </c>
-      <c r="Q11">
-        <v>32.6</v>
-      </c>
-      <c r="R11">
-        <v>17.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Burundi</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="B12">
-        <v>1.1</v>
+        <v>9.4</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>0.7</v>
       </c>
       <c r="E12">
+        <v>23</v>
+      </c>
+      <c r="F12">
+        <v>2.6</v>
+      </c>
+      <c r="G12">
+        <v>0.2</v>
+      </c>
+      <c r="H12">
+        <v>35.5</v>
+      </c>
+      <c r="I12">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J12">
+        <v>0.7</v>
+      </c>
+      <c r="K12">
+        <v>0.4</v>
+      </c>
+      <c r="L12">
         <v>0.6</v>
       </c>
-      <c r="F12">
-        <v>1.8</v>
-      </c>
-      <c r="G12">
-        <v>47.9</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1.7</v>
-      </c>
-      <c r="J12">
-        <v>10.9</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
       <c r="M12">
-        <v>0.1</v>
+        <v>9.6</v>
       </c>
       <c r="N12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>4.3</v>
+        <v>7.3</v>
       </c>
       <c r="P12">
-        <v>64.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>25.5</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>9.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="B13">
-        <v>9.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C13">
-        <v>1.8</v>
+        <v>6.9</v>
       </c>
       <c r="D13">
-        <v>0.7</v>
+        <v>10.6</v>
       </c>
       <c r="E13">
-        <v>23</v>
+        <v>29.9</v>
       </c>
       <c r="F13">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="G13">
-        <v>0.2</v>
+        <v>5.1</v>
       </c>
       <c r="H13">
-        <v>35.5</v>
+        <v>0.5</v>
       </c>
       <c r="I13">
-        <v>8.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="J13">
-        <v>0.7</v>
+        <v>6</v>
       </c>
       <c r="K13">
+        <v>0.1</v>
+      </c>
+      <c r="L13">
         <v>0.4</v>
       </c>
-      <c r="L13">
-        <v>0.6</v>
-      </c>
       <c r="M13">
-        <v>9.6</v>
+        <v>2.9</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O13">
-        <v>7.3</v>
+        <v>5.6</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>54.6</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>34.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Chad</t>
         </is>
       </c>
       <c r="B14">
-        <v>8.300000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="C14">
-        <v>6.9</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>10.6</v>
+        <v>10.3</v>
       </c>
       <c r="E14">
-        <v>29.9</v>
+        <v>31.4</v>
       </c>
       <c r="F14">
-        <v>3.9</v>
+        <v>7.6</v>
       </c>
       <c r="G14">
-        <v>5.1</v>
+        <v>0.2</v>
       </c>
       <c r="H14">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>9.5</v>
+        <v>33</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="K14">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="M14">
-        <v>2.9</v>
+        <v>0.1</v>
       </c>
       <c r="N14">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>5.6</v>
+        <v>8.4</v>
       </c>
       <c r="P14">
-        <v>54.6</v>
+        <v>57.2</v>
       </c>
       <c r="Q14">
-        <v>10.9</v>
+        <v>26</v>
       </c>
       <c r="R14">
-        <v>34.2</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Central African Republic</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="C15">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>14.6</v>
+        <v>0.1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1228,245 +1228,245 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N15">
+        <v>0.7</v>
+      </c>
+      <c r="O15">
+        <v>5.2</v>
+      </c>
+      <c r="P15">
+        <v>3.3</v>
+      </c>
+      <c r="Q15">
         <v>0.6</v>
       </c>
-      <c r="O15">
-        <v>9.4</v>
-      </c>
-      <c r="P15">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="Q15">
-        <v>17.4</v>
-      </c>
       <c r="R15">
-        <v>7.5</v>
+        <v>95.90000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chad</t>
+          <t>Comoros</t>
         </is>
       </c>
       <c r="B16">
-        <v>2.6</v>
+        <v>13.8</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>24.1</v>
       </c>
       <c r="D16">
-        <v>10.3</v>
+        <v>22.6</v>
       </c>
       <c r="E16">
-        <v>31.4</v>
+        <v>0.4</v>
       </c>
       <c r="F16">
-        <v>7.6</v>
+        <v>6.3</v>
       </c>
       <c r="G16">
-        <v>0.2</v>
+        <v>3.7</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>16.4</v>
       </c>
       <c r="I16">
-        <v>33</v>
+        <v>2.3</v>
       </c>
       <c r="J16">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="L16">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="M16">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="O16">
-        <v>8.4</v>
+        <v>0.8</v>
       </c>
       <c r="P16">
-        <v>57.2</v>
+        <v>20.7</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="R16">
-        <v>11.2</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="B17">
-        <v>80.90000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>21.9</v>
       </c>
       <c r="D17">
-        <v>0.1</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>1.6</v>
+        <v>9.9</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="I17">
-        <v>1.4</v>
+        <v>5.2</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K17">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="N17">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="O17">
-        <v>5.2</v>
+        <v>8.1</v>
       </c>
       <c r="P17">
-        <v>3.3</v>
+        <v>39</v>
       </c>
       <c r="Q17">
-        <v>0.6</v>
+        <v>22.9</v>
       </c>
       <c r="R17">
-        <v>95.90000000000001</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Comoros</t>
+          <t>Congo Democratic Republic</t>
         </is>
       </c>
       <c r="B18">
-        <v>13.8</v>
+        <v>0.9</v>
       </c>
       <c r="C18">
-        <v>24.1</v>
+        <v>5.6</v>
       </c>
       <c r="D18">
-        <v>22.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E18">
+        <v>2.3</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>17.2</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>5.4</v>
+      </c>
+      <c r="J18">
+        <v>36.3</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>0.4</v>
       </c>
-      <c r="F18">
-        <v>6.3</v>
-      </c>
-      <c r="G18">
-        <v>3.7</v>
-      </c>
-      <c r="H18">
-        <v>16.4</v>
-      </c>
-      <c r="I18">
-        <v>2.3</v>
-      </c>
-      <c r="J18">
-        <v>2.1</v>
-      </c>
-      <c r="K18">
-        <v>2.9</v>
-      </c>
-      <c r="L18">
+      <c r="N18">
         <v>0.3</v>
       </c>
-      <c r="M18">
-        <v>0.5</v>
-      </c>
-      <c r="N18">
-        <v>3.7</v>
-      </c>
       <c r="O18">
-        <v>0.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="P18">
-        <v>20.7</v>
+        <v>59.3</v>
       </c>
       <c r="Q18">
-        <v>8.800000000000001</v>
+        <v>32.8</v>
       </c>
       <c r="R18">
-        <v>66</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Congo</t>
+          <t>Cote d'Ivoire</t>
         </is>
       </c>
       <c r="B19">
-        <v>3.5</v>
+        <v>11.2</v>
       </c>
       <c r="C19">
-        <v>21.9</v>
+        <v>20.3</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>16.2</v>
       </c>
       <c r="E19">
-        <v>9.9</v>
+        <v>12</v>
       </c>
       <c r="F19">
-        <v>4.6</v>
+        <v>17.8</v>
       </c>
       <c r="G19">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H19">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>5.2</v>
+        <v>13.2</v>
       </c>
       <c r="J19">
-        <v>8.699999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1475,584 +1475,584 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2.5</v>
+        <v>0.3</v>
       </c>
       <c r="N19">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="O19">
-        <v>8.1</v>
+        <v>4.9</v>
       </c>
       <c r="P19">
-        <v>39</v>
+        <v>46.4</v>
       </c>
       <c r="Q19">
-        <v>22.9</v>
+        <v>8.9</v>
       </c>
       <c r="R19">
-        <v>36.3</v>
+        <v>44.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Congo Democratic Republic</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="B20">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="C20">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="D20">
-        <v>9.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>17.2</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="I20">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>36.3</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="M20">
-        <v>0.4</v>
+        <v>77.8</v>
       </c>
       <c r="N20">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="O20">
-        <v>9.199999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="P20">
-        <v>59.3</v>
+        <v>12</v>
       </c>
       <c r="Q20">
-        <v>32.8</v>
+        <v>1</v>
       </c>
       <c r="R20">
-        <v>7.1</v>
+        <v>86.90000000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B21">
-        <v>11.2</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="C21">
-        <v>20.3</v>
+        <v>0.4</v>
       </c>
       <c r="D21">
-        <v>16.2</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>12</v>
+        <v>0.5</v>
       </c>
       <c r="F21">
-        <v>17.8</v>
+        <v>0.5</v>
       </c>
       <c r="G21">
+        <v>0.1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1.7</v>
+      </c>
+      <c r="L21">
+        <v>0.1</v>
+      </c>
+      <c r="M21">
+        <v>2.7</v>
+      </c>
+      <c r="N21">
+        <v>0.4</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>6.1</v>
+      </c>
+      <c r="Q21">
         <v>0.6</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>13.2</v>
-      </c>
-      <c r="J21">
-        <v>2.7</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0.3</v>
-      </c>
-      <c r="N21">
-        <v>0.7</v>
-      </c>
-      <c r="O21">
-        <v>4.9</v>
-      </c>
-      <c r="P21">
-        <v>46.4</v>
-      </c>
-      <c r="Q21">
-        <v>8.9</v>
-      </c>
       <c r="R21">
-        <v>44.2</v>
+        <v>93.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Eritrea</t>
         </is>
       </c>
       <c r="B22">
-        <v>4.1</v>
+        <v>16.3</v>
       </c>
       <c r="C22">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>18.1</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>16.4</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4</v>
+        <v>12.2</v>
       </c>
       <c r="L22">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>77.8</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="O22">
-        <v>0.7</v>
+        <v>5.4</v>
       </c>
       <c r="P22">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>49.3</v>
       </c>
       <c r="R22">
-        <v>86.90000000000001</v>
+        <v>27.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Eswatini</t>
         </is>
       </c>
       <c r="B23">
-        <v>90.59999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="C23">
-        <v>0.4</v>
+        <v>21.3</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>17.6</v>
       </c>
       <c r="E23">
+        <v>6.9</v>
+      </c>
+      <c r="F23">
+        <v>4.3</v>
+      </c>
+      <c r="G23">
+        <v>1.7</v>
+      </c>
+      <c r="H23">
         <v>0.5</v>
       </c>
-      <c r="F23">
-        <v>0.5</v>
-      </c>
-      <c r="G23">
-        <v>0.1</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
       <c r="I23">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="K23">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="L23">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>2.7</v>
+        <v>0.1</v>
       </c>
       <c r="N23">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="P23">
-        <v>6.1</v>
+        <v>42.5</v>
       </c>
       <c r="Q23">
-        <v>0.6</v>
+        <v>14</v>
       </c>
       <c r="R23">
-        <v>93.2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="B24">
-        <v>16.3</v>
+        <v>0.9</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>13.4</v>
       </c>
       <c r="D24">
-        <v>20.8</v>
+        <v>17.7</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="F24">
-        <v>18.1</v>
+        <v>5.9</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I24">
-        <v>16.4</v>
+        <v>4.1</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K24">
-        <v>12.2</v>
+        <v>0.2</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N24">
         <v>0.1</v>
       </c>
       <c r="O24">
-        <v>5.4</v>
+        <v>10.7</v>
       </c>
       <c r="P24">
-        <v>23</v>
+        <v>51.2</v>
       </c>
       <c r="Q24">
-        <v>49.3</v>
+        <v>28.2</v>
       </c>
       <c r="R24">
-        <v>27.7</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Eswatini</t>
+          <t>Gabon</t>
         </is>
       </c>
       <c r="B25">
-        <v>17.4</v>
+        <v>25.4</v>
       </c>
       <c r="C25">
-        <v>21.3</v>
+        <v>38.4</v>
       </c>
       <c r="D25">
-        <v>17.6</v>
+        <v>20.2</v>
       </c>
       <c r="E25">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="G25">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="H25">
+        <v>1.2</v>
+      </c>
+      <c r="I25">
+        <v>1.5</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0.1</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1.1</v>
+      </c>
+      <c r="N25">
         <v>0.5</v>
       </c>
-      <c r="I25">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="J25">
-        <v>3.4</v>
-      </c>
-      <c r="K25">
-        <v>1.6</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0.1</v>
-      </c>
-      <c r="N25">
-        <v>0.3</v>
-      </c>
       <c r="O25">
-        <v>15.6</v>
+        <v>4.7</v>
       </c>
       <c r="P25">
-        <v>42.5</v>
+        <v>23.1</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>9.9</v>
       </c>
       <c r="R25">
-        <v>43</v>
+        <v>65.59999999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="B26">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="C26">
-        <v>13.4</v>
+        <v>38.2</v>
       </c>
       <c r="D26">
-        <v>17.7</v>
+        <v>32.8</v>
       </c>
       <c r="E26">
-        <v>11.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F26">
-        <v>5.9</v>
+        <v>7.4</v>
       </c>
       <c r="G26">
-        <v>11.7</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>4.1</v>
+        <v>8</v>
       </c>
       <c r="J26">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="N26">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="O26">
-        <v>10.7</v>
+        <v>0.1</v>
       </c>
       <c r="P26">
-        <v>51.2</v>
+        <v>48.7</v>
       </c>
       <c r="Q26">
-        <v>28.2</v>
+        <v>4.5</v>
       </c>
       <c r="R26">
-        <v>20.3</v>
+        <v>46.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="B27">
-        <v>25.4</v>
+        <v>2.7</v>
       </c>
       <c r="C27">
-        <v>38.4</v>
+        <v>5.4</v>
       </c>
       <c r="D27">
-        <v>20.2</v>
+        <v>14.6</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>19.4</v>
       </c>
       <c r="F27">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="G27">
-        <v>3.6</v>
+        <v>0.1</v>
       </c>
       <c r="H27">
         <v>1.2</v>
       </c>
       <c r="I27">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K27">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M27">
         <v>1.1</v>
       </c>
       <c r="N27">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="P27">
-        <v>23.1</v>
+        <v>46.3</v>
       </c>
       <c r="Q27">
-        <v>9.9</v>
+        <v>6.7</v>
       </c>
       <c r="R27">
-        <v>65.59999999999999</v>
+        <v>46.6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Gambia</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="B28">
-        <v>3.4</v>
+        <v>20</v>
       </c>
       <c r="C28">
-        <v>38.2</v>
+        <v>31.1</v>
       </c>
       <c r="D28">
-        <v>32.8</v>
+        <v>1.9</v>
       </c>
       <c r="E28">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="I28">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0.4</v>
+        <v>28.4</v>
       </c>
       <c r="N28">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="O28">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="P28">
-        <v>48.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Q28">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="R28">
-        <v>46.1</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Guinea</t>
         </is>
       </c>
       <c r="B29">
+        <v>7.5</v>
+      </c>
+      <c r="C29">
+        <v>4.8</v>
+      </c>
+      <c r="D29">
+        <v>3.9</v>
+      </c>
+      <c r="E29">
+        <v>41.5</v>
+      </c>
+      <c r="F29">
+        <v>10.6</v>
+      </c>
+      <c r="G29">
         <v>2.7</v>
       </c>
-      <c r="C29">
-        <v>5.4</v>
-      </c>
-      <c r="D29">
-        <v>14.6</v>
-      </c>
-      <c r="E29">
-        <v>19.4</v>
-      </c>
-      <c r="F29">
-        <v>4.1</v>
-      </c>
-      <c r="G29">
-        <v>0.1</v>
-      </c>
       <c r="H29">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="I29">
-        <v>1.8</v>
+        <v>5.1</v>
       </c>
       <c r="J29">
-        <v>0.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K29">
+        <v>0.1</v>
+      </c>
+      <c r="L29">
         <v>0.2</v>
-      </c>
-      <c r="L29">
-        <v>0.1</v>
       </c>
       <c r="M29">
         <v>1.1</v>
@@ -2061,694 +2061,694 @@
         <v>0</v>
       </c>
       <c r="O29">
-        <v>4.4</v>
+        <v>5.9</v>
       </c>
       <c r="P29">
-        <v>46.3</v>
+        <v>41.8</v>
       </c>
       <c r="Q29">
-        <v>6.7</v>
+        <v>24.1</v>
       </c>
       <c r="R29">
-        <v>46.6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Guyana</t>
         </is>
       </c>
       <c r="B30">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C30">
-        <v>31.1</v>
+        <v>18.4</v>
       </c>
       <c r="D30">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G30">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H30">
-        <v>1.2</v>
+        <v>27.1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J30">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="K30">
         <v>0.1</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M30">
-        <v>28.4</v>
+        <v>32.2</v>
       </c>
       <c r="N30">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="O30">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="P30">
-        <v>9.300000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="Q30">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="R30">
-        <v>89.5</v>
+        <v>92.59999999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="B31">
-        <v>7.5</v>
+        <v>1.2</v>
       </c>
       <c r="C31">
-        <v>4.8</v>
+        <v>2.3</v>
       </c>
       <c r="D31">
-        <v>3.9</v>
+        <v>18.8</v>
       </c>
       <c r="E31">
-        <v>41.5</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>10.6</v>
+        <v>6.8</v>
       </c>
       <c r="G31">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="H31">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="I31">
-        <v>5.1</v>
+        <v>3.2</v>
       </c>
       <c r="J31">
-        <v>9.699999999999999</v>
+        <v>19.8</v>
       </c>
       <c r="K31">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="L31">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M31">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>5.9</v>
+        <v>1.4</v>
       </c>
       <c r="P31">
-        <v>41.8</v>
+        <v>66.5</v>
       </c>
       <c r="Q31">
-        <v>24.1</v>
+        <v>19.4</v>
       </c>
       <c r="R31">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Guyana</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="B32">
-        <v>14</v>
+        <v>42.3</v>
       </c>
       <c r="C32">
-        <v>18.4</v>
+        <v>6.3</v>
       </c>
       <c r="D32">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="F32">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>27.1</v>
+        <v>0.2</v>
       </c>
       <c r="I32">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="L32">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>32.2</v>
+        <v>38.6</v>
       </c>
       <c r="N32">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="O32">
-        <v>3.5</v>
+        <v>7.9</v>
       </c>
       <c r="P32">
-        <v>6.5</v>
+        <v>10.8</v>
       </c>
       <c r="Q32">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="R32">
-        <v>92.59999999999999</v>
+        <v>88.40000000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B33">
-        <v>1.2</v>
+        <v>16.6</v>
       </c>
       <c r="C33">
+        <v>13.6</v>
+      </c>
+      <c r="D33">
+        <v>15.9</v>
+      </c>
+      <c r="E33">
+        <v>39.2</v>
+      </c>
+      <c r="F33">
+        <v>3.7</v>
+      </c>
+      <c r="G33">
+        <v>0.3</v>
+      </c>
+      <c r="H33">
+        <v>0.2</v>
+      </c>
+      <c r="I33">
+        <v>4.2</v>
+      </c>
+      <c r="J33">
+        <v>0.4</v>
+      </c>
+      <c r="K33">
+        <v>1.3</v>
+      </c>
+      <c r="L33">
+        <v>0.2</v>
+      </c>
+      <c r="M33">
+        <v>3.1</v>
+      </c>
+      <c r="N33">
+        <v>0.2</v>
+      </c>
+      <c r="O33">
+        <v>0.7</v>
+      </c>
+      <c r="P33">
+        <v>31.4</v>
+      </c>
+      <c r="Q33">
         <v>2.3</v>
       </c>
-      <c r="D33">
-        <v>18.8</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>6.8</v>
-      </c>
-      <c r="G33">
-        <v>6.5</v>
-      </c>
-      <c r="H33">
-        <v>1.7</v>
-      </c>
-      <c r="I33">
-        <v>3.2</v>
-      </c>
-      <c r="J33">
-        <v>19.8</v>
-      </c>
-      <c r="K33">
-        <v>0.9</v>
-      </c>
-      <c r="L33">
-        <v>0.3</v>
-      </c>
-      <c r="M33">
-        <v>2.2</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>1.4</v>
-      </c>
-      <c r="P33">
-        <v>66.5</v>
-      </c>
-      <c r="Q33">
-        <v>19.4</v>
-      </c>
       <c r="R33">
-        <v>14</v>
+        <v>66.3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B34">
-        <v>42.3</v>
+        <v>7.3</v>
       </c>
       <c r="C34">
-        <v>6.3</v>
+        <v>1.1</v>
       </c>
       <c r="D34">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E34">
+        <v>16.3</v>
+      </c>
+      <c r="F34">
+        <v>16.8</v>
+      </c>
+      <c r="G34">
+        <v>9.6</v>
+      </c>
+      <c r="H34">
+        <v>2.2</v>
+      </c>
+      <c r="I34">
+        <v>4.9</v>
+      </c>
+      <c r="J34">
+        <v>2.5</v>
+      </c>
+      <c r="K34">
+        <v>0.4</v>
+      </c>
+      <c r="L34">
+        <v>0.9</v>
+      </c>
+      <c r="M34">
+        <v>35</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
         <v>1.7</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0.2</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0.3</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>38.6</v>
-      </c>
-      <c r="N34">
-        <v>0.9</v>
-      </c>
-      <c r="O34">
-        <v>7.9</v>
-      </c>
       <c r="P34">
-        <v>10.8</v>
+        <v>11.3</v>
       </c>
       <c r="Q34">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="R34">
-        <v>88.40000000000001</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="B35">
-        <v>16.6</v>
+        <v>57.2</v>
       </c>
       <c r="C35">
-        <v>13.6</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>15.9</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>39.2</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H35">
+        <v>2.8</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
         <v>0.2</v>
       </c>
-      <c r="I35">
-        <v>4.2</v>
-      </c>
-      <c r="J35">
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>37.8</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
         <v>0.4</v>
       </c>
-      <c r="K35">
-        <v>1.3</v>
-      </c>
-      <c r="L35">
-        <v>0.2</v>
-      </c>
-      <c r="M35">
-        <v>3.1</v>
-      </c>
-      <c r="N35">
-        <v>0.2</v>
-      </c>
-      <c r="O35">
-        <v>0.7</v>
-      </c>
-      <c r="P35">
-        <v>31.4</v>
-      </c>
       <c r="Q35">
-        <v>2.3</v>
+        <v>0.1</v>
       </c>
       <c r="R35">
-        <v>66.3</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="B36">
+        <v>10.3</v>
+      </c>
+      <c r="C36">
+        <v>13.9</v>
+      </c>
+      <c r="D36">
+        <v>18</v>
+      </c>
+      <c r="E36">
         <v>7.3</v>
       </c>
-      <c r="C36">
-        <v>1.1</v>
-      </c>
-      <c r="D36">
-        <v>0.6</v>
-      </c>
-      <c r="E36">
-        <v>16.3</v>
-      </c>
       <c r="F36">
+        <v>7.9</v>
+      </c>
+      <c r="G36">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="H36">
+        <v>5.5</v>
+      </c>
+      <c r="I36">
+        <v>2.4</v>
+      </c>
+      <c r="J36">
+        <v>2.2</v>
+      </c>
+      <c r="K36">
+        <v>1.6</v>
+      </c>
+      <c r="L36">
+        <v>1.6</v>
+      </c>
+      <c r="M36">
+        <v>3.8</v>
+      </c>
+      <c r="N36">
+        <v>0.3</v>
+      </c>
+      <c r="O36">
         <v>16.8</v>
       </c>
-      <c r="G36">
-        <v>9.6</v>
-      </c>
-      <c r="H36">
-        <v>2.2</v>
-      </c>
-      <c r="I36">
-        <v>4.9</v>
-      </c>
-      <c r="J36">
-        <v>2.5</v>
-      </c>
-      <c r="K36">
-        <v>0.4</v>
-      </c>
-      <c r="L36">
-        <v>0.9</v>
-      </c>
-      <c r="M36">
-        <v>35</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>1.7</v>
-      </c>
       <c r="P36">
-        <v>11.3</v>
+        <v>39.5</v>
       </c>
       <c r="Q36">
-        <v>0.5</v>
+        <v>12.1</v>
       </c>
       <c r="R36">
-        <v>87.5</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Kyrgyz Republic</t>
         </is>
       </c>
       <c r="B37">
-        <v>57.2</v>
+        <v>30.9</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>30.4</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H37">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="J37">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
       <c r="M37">
-        <v>37.8</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="P37">
-        <v>0.4</v>
+        <v>29.9</v>
       </c>
       <c r="Q37">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="R37">
-        <v>99.3</v>
+        <v>68.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Lesotho</t>
         </is>
       </c>
       <c r="B38">
-        <v>49.5</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>9.199999999999999</v>
+        <v>22.6</v>
       </c>
       <c r="D38">
-        <v>7.6</v>
+        <v>38.8</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I38">
-        <v>28.9</v>
+        <v>7.1</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K38">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O38">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="P38">
-        <v>26.4</v>
+        <v>56</v>
       </c>
       <c r="Q38">
-        <v>2.9</v>
+        <v>16</v>
       </c>
       <c r="R38">
-        <v>70.09999999999999</v>
+        <v>26.9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Liberia</t>
         </is>
       </c>
       <c r="B39">
-        <v>10.3</v>
+        <v>0.4</v>
       </c>
       <c r="C39">
-        <v>13.9</v>
+        <v>0.9</v>
       </c>
       <c r="D39">
-        <v>18</v>
+        <v>4.2</v>
       </c>
       <c r="E39">
-        <v>7.3</v>
+        <v>48.9</v>
       </c>
       <c r="F39">
-        <v>7.9</v>
+        <v>8.6</v>
       </c>
       <c r="G39">
-        <v>8.300000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H39">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="J39">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="K39">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="L39">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="M39">
+        <v>0.2</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>11.5</v>
+      </c>
+      <c r="P39">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="Q39">
         <v>3.8</v>
       </c>
-      <c r="N39">
-        <v>0.3</v>
-      </c>
-      <c r="O39">
-        <v>16.8</v>
-      </c>
-      <c r="P39">
-        <v>39.5</v>
-      </c>
-      <c r="Q39">
-        <v>12.1</v>
-      </c>
       <c r="R39">
-        <v>47.5</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Kyrgyz Republic</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="B40">
-        <v>30.9</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>30.4</v>
+        <v>3.1</v>
       </c>
       <c r="D40">
-        <v>20.8</v>
+        <v>17</v>
       </c>
       <c r="E40">
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
       <c r="F40">
-        <v>2.2</v>
+        <v>11.5</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>4.6</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>0.7</v>
+        <v>14.4</v>
       </c>
       <c r="J40">
-        <v>1.6</v>
+        <v>22</v>
       </c>
       <c r="K40">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O40">
-        <v>8.300000000000001</v>
+        <v>19.2</v>
       </c>
       <c r="P40">
-        <v>29.9</v>
+        <v>64.2</v>
       </c>
       <c r="Q40">
-        <v>1.2</v>
+        <v>5.9</v>
       </c>
       <c r="R40">
-        <v>68.2</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Lesotho</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="C41">
-        <v>22.6</v>
+        <v>5.8</v>
       </c>
       <c r="D41">
-        <v>38.8</v>
+        <v>13.6</v>
       </c>
       <c r="E41">
-        <v>5.7</v>
+        <v>55.4</v>
       </c>
       <c r="F41">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="G41">
-        <v>4.2</v>
+        <v>0.2</v>
       </c>
       <c r="H41">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>7.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J41">
-        <v>8.199999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="K41">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -2757,1033 +2757,1033 @@
         <v>0</v>
       </c>
       <c r="O41">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="P41">
-        <v>56</v>
+        <v>70.2</v>
       </c>
       <c r="Q41">
-        <v>16</v>
+        <v>12.4</v>
       </c>
       <c r="R41">
-        <v>26.9</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Liberia</t>
+          <t>Maldives</t>
         </is>
       </c>
       <c r="B42">
+        <v>13.3</v>
+      </c>
+      <c r="C42">
+        <v>2.5</v>
+      </c>
+      <c r="D42">
+        <v>0.1</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
         <v>0.4</v>
       </c>
-      <c r="C42">
-        <v>0.9</v>
-      </c>
-      <c r="D42">
-        <v>4.2</v>
-      </c>
-      <c r="E42">
-        <v>48.9</v>
-      </c>
-      <c r="F42">
-        <v>8.6</v>
-      </c>
       <c r="G42">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>46.7</v>
       </c>
       <c r="I42">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>0.2</v>
+        <v>36.7</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O42">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="P42">
-        <v>73.90000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="Q42">
-        <v>3.8</v>
+        <v>0.1</v>
       </c>
       <c r="R42">
-        <v>21.5</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Mali</t>
         </is>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>6.8</v>
       </c>
       <c r="C43">
-        <v>3.1</v>
+        <v>7.2</v>
       </c>
       <c r="D43">
-        <v>17</v>
+        <v>17.3</v>
       </c>
       <c r="E43">
-        <v>4.2</v>
+        <v>22.9</v>
       </c>
       <c r="F43">
-        <v>11.5</v>
+        <v>10.8</v>
       </c>
       <c r="G43">
-        <v>4.6</v>
+        <v>0.5</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I43">
-        <v>14.4</v>
+        <v>28</v>
       </c>
       <c r="J43">
-        <v>22</v>
+        <v>0.7</v>
       </c>
       <c r="K43">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N43">
         <v>0.2</v>
       </c>
       <c r="O43">
-        <v>19.2</v>
+        <v>2</v>
       </c>
       <c r="P43">
-        <v>64.2</v>
+        <v>61.7</v>
       </c>
       <c r="Q43">
-        <v>5.9</v>
+        <v>4.4</v>
       </c>
       <c r="R43">
-        <v>27.3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Mauritania</t>
         </is>
       </c>
       <c r="B44">
-        <v>3.7</v>
+        <v>17.9</v>
       </c>
       <c r="C44">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>13.6</v>
+        <v>27.6</v>
       </c>
       <c r="E44">
-        <v>55.4</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>5.5</v>
+        <v>16.8</v>
       </c>
       <c r="G44">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>8.699999999999999</v>
+        <v>27</v>
       </c>
       <c r="J44">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="L44">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O44">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P44">
-        <v>70.2</v>
+        <v>45.6</v>
       </c>
       <c r="Q44">
-        <v>12.4</v>
+        <v>17.4</v>
       </c>
       <c r="R44">
-        <v>14.4</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Maldives</t>
+          <t>Moldova</t>
         </is>
       </c>
       <c r="B45">
-        <v>13.3</v>
+        <v>29.6</v>
       </c>
       <c r="C45">
+        <v>6.4</v>
+      </c>
+      <c r="D45">
+        <v>0.9</v>
+      </c>
+      <c r="E45">
+        <v>1.3</v>
+      </c>
+      <c r="F45">
+        <v>48.1</v>
+      </c>
+      <c r="G45">
+        <v>3.1</v>
+      </c>
+      <c r="H45">
+        <v>0.1</v>
+      </c>
+      <c r="I45">
+        <v>4.8</v>
+      </c>
+      <c r="J45">
+        <v>0.5</v>
+      </c>
+      <c r="K45">
+        <v>0.3</v>
+      </c>
+      <c r="L45">
+        <v>2.3</v>
+      </c>
+      <c r="M45">
         <v>2.5</v>
       </c>
-      <c r="D45">
-        <v>0.1</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0.4</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>46.7</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>36.7</v>
-      </c>
       <c r="N45">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="O45">
         <v>0</v>
       </c>
       <c r="P45">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>96.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="B46">
-        <v>6.8</v>
+        <v>58.2</v>
       </c>
       <c r="C46">
-        <v>7.2</v>
+        <v>2.2</v>
       </c>
       <c r="D46">
-        <v>17.3</v>
+        <v>10.9</v>
       </c>
       <c r="E46">
-        <v>22.9</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>10.8</v>
+        <v>5.6</v>
       </c>
       <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>1.5</v>
+      </c>
+      <c r="I46">
+        <v>10.7</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0.9</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
         <v>0.5</v>
-      </c>
-      <c r="H46">
-        <v>0.3</v>
-      </c>
-      <c r="I46">
-        <v>28</v>
-      </c>
-      <c r="J46">
-        <v>0.7</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0.5</v>
-      </c>
-      <c r="M46">
-        <v>0.1</v>
       </c>
       <c r="N46">
         <v>0.2</v>
       </c>
       <c r="O46">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="P46">
-        <v>61.7</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Mauritania</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="B47">
-        <v>17.9</v>
+        <v>2.2</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>14.2</v>
       </c>
       <c r="D47">
-        <v>27.6</v>
+        <v>15.9</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>12.4</v>
       </c>
       <c r="F47">
-        <v>16.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="I47">
-        <v>27</v>
+        <v>24.5</v>
       </c>
       <c r="J47">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="K47">
-        <v>4.1</v>
+        <v>0.2</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N47">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="O47">
-        <v>3.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="P47">
-        <v>45.6</v>
+        <v>44.4</v>
       </c>
       <c r="Q47">
-        <v>17.4</v>
+        <v>13.1</v>
       </c>
       <c r="R47">
-        <v>35.8</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Myanmar</t>
         </is>
       </c>
       <c r="B48">
-        <v>29.6</v>
+        <v>2.1</v>
       </c>
       <c r="C48">
-        <v>6.4</v>
+        <v>4.2</v>
       </c>
       <c r="D48">
+        <v>3.2</v>
+      </c>
+      <c r="E48">
+        <v>28.1</v>
+      </c>
+      <c r="F48">
+        <v>22.3</v>
+      </c>
+      <c r="G48">
+        <v>2.7</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>8.5</v>
+      </c>
+      <c r="J48">
+        <v>1.9</v>
+      </c>
+      <c r="K48">
+        <v>1.4</v>
+      </c>
+      <c r="L48">
         <v>0.9</v>
       </c>
-      <c r="E48">
-        <v>1.3</v>
-      </c>
-      <c r="F48">
-        <v>48.1</v>
-      </c>
-      <c r="G48">
-        <v>3.1</v>
-      </c>
-      <c r="H48">
-        <v>0.1</v>
-      </c>
-      <c r="I48">
-        <v>4.8</v>
-      </c>
-      <c r="J48">
-        <v>0.5</v>
-      </c>
-      <c r="K48">
-        <v>0.3</v>
-      </c>
-      <c r="L48">
-        <v>2.3</v>
-      </c>
       <c r="M48">
-        <v>2.5</v>
+        <v>15.5</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>44.1</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R48">
-        <v>0</v>
+        <v>52.9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Namibia</t>
         </is>
       </c>
       <c r="B49">
-        <v>58.2</v>
+        <v>36.8</v>
       </c>
       <c r="C49">
-        <v>2.2</v>
+        <v>14.2</v>
       </c>
       <c r="D49">
-        <v>10.9</v>
+        <v>26.1</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="F49">
-        <v>5.6</v>
+        <v>1.5</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H49">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="I49">
-        <v>10.7</v>
+        <v>5.5</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K49">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M49">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="N49">
-        <v>0.2</v>
+        <v>2.6</v>
       </c>
       <c r="O49">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R49">
-        <v>0</v>
+        <v>53.3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="B50">
-        <v>2.2</v>
+        <v>7.1</v>
       </c>
       <c r="C50">
-        <v>14.2</v>
+        <v>24.4</v>
       </c>
       <c r="D50">
-        <v>15.9</v>
+        <v>19.9</v>
       </c>
       <c r="E50">
-        <v>12.4</v>
+        <v>35.9</v>
       </c>
       <c r="F50">
-        <v>9.800000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="G50">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H50">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>24.5</v>
+        <v>1</v>
       </c>
       <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>0.4</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>3.6</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
         <v>2</v>
       </c>
-      <c r="K50">
-        <v>0.2</v>
-      </c>
-      <c r="L50">
-        <v>0.1</v>
-      </c>
-      <c r="M50">
-        <v>0.2</v>
-      </c>
-      <c r="N50">
-        <v>0.3</v>
-      </c>
-      <c r="O50">
-        <v>9.199999999999999</v>
-      </c>
       <c r="P50">
-        <v>44.4</v>
+        <v>28.9</v>
       </c>
       <c r="Q50">
-        <v>13.1</v>
+        <v>1.9</v>
       </c>
       <c r="R50">
-        <v>34.5</v>
+        <v>69.09999999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Myanmar</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="B51">
-        <v>2.1</v>
+        <v>31.1</v>
       </c>
       <c r="C51">
-        <v>4.2</v>
+        <v>32</v>
       </c>
       <c r="D51">
         <v>3.2</v>
       </c>
       <c r="E51">
-        <v>28.1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>22.3</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="I51">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="N51">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O51">
-        <v>6.9</v>
+        <v>3.8</v>
       </c>
       <c r="P51">
-        <v>44.1</v>
+        <v>21.2</v>
       </c>
       <c r="Q51">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="R51">
-        <v>52.9</v>
+        <v>76.09999999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="B52">
-        <v>36.8</v>
+        <v>2.7</v>
       </c>
       <c r="C52">
-        <v>14.2</v>
+        <v>4.5</v>
       </c>
       <c r="D52">
-        <v>26.1</v>
+        <v>24.5</v>
       </c>
       <c r="E52">
-        <v>7.5</v>
+        <v>14.8</v>
       </c>
       <c r="F52">
-        <v>1.5</v>
+        <v>20.4</v>
       </c>
       <c r="G52">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H52">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>5.5</v>
+        <v>31</v>
       </c>
       <c r="J52">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="K52">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M52">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="N52">
-        <v>2.6</v>
+        <v>0.1</v>
       </c>
       <c r="O52">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="P52">
-        <v>37.5</v>
+        <v>54.4</v>
       </c>
       <c r="Q52">
-        <v>8</v>
+        <v>33.2</v>
       </c>
       <c r="R52">
-        <v>53.3</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="B53">
-        <v>7.1</v>
+        <v>1.7</v>
       </c>
       <c r="C53">
-        <v>24.4</v>
+        <v>1.4</v>
       </c>
       <c r="D53">
-        <v>19.9</v>
+        <v>7.5</v>
       </c>
       <c r="E53">
-        <v>35.9</v>
+        <v>37.2</v>
       </c>
       <c r="F53">
-        <v>1.3</v>
+        <v>11.4</v>
       </c>
       <c r="G53">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>13.5</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="K53">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="M53">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O53">
-        <v>2</v>
+        <v>9.4</v>
       </c>
       <c r="P53">
-        <v>28.9</v>
+        <v>59.5</v>
       </c>
       <c r="Q53">
-        <v>1.9</v>
+        <v>6.9</v>
       </c>
       <c r="R53">
-        <v>69.09999999999999</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B54">
-        <v>31.1</v>
+        <v>20.4</v>
       </c>
       <c r="C54">
-        <v>32</v>
+        <v>1.2</v>
       </c>
       <c r="D54">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>54.5</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="H54">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N54">
         <v>0.1</v>
       </c>
       <c r="O54">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="P54">
-        <v>21.2</v>
+        <v>20.5</v>
       </c>
       <c r="Q54">
-        <v>1.7</v>
+        <v>4.9</v>
       </c>
       <c r="R54">
-        <v>76.09999999999999</v>
+        <v>73.8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Papua New Guinea</t>
         </is>
       </c>
       <c r="B55">
-        <v>2.7</v>
+        <v>6.7</v>
       </c>
       <c r="C55">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D55">
-        <v>24.5</v>
+        <v>4.2</v>
       </c>
       <c r="E55">
-        <v>14.8</v>
+        <v>1.4</v>
       </c>
       <c r="F55">
-        <v>20.4</v>
+        <v>3.1</v>
       </c>
       <c r="G55">
-        <v>0.1</v>
+        <v>6.6</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>15.3</v>
       </c>
       <c r="I55">
-        <v>31</v>
+        <v>9.6</v>
       </c>
       <c r="J55">
-        <v>0.6</v>
+        <v>29.3</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
       <c r="N55">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O55">
-        <v>1.2</v>
+        <v>15.2</v>
       </c>
       <c r="P55">
-        <v>54.4</v>
+        <v>49.9</v>
       </c>
       <c r="Q55">
-        <v>33.2</v>
+        <v>13.2</v>
       </c>
       <c r="R55">
-        <v>10.7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="B56">
+        <v>71.7</v>
+      </c>
+      <c r="C56">
+        <v>4.8</v>
+      </c>
+      <c r="D56">
+        <v>2.4</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0.1</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>1.5</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>5.4</v>
+      </c>
+      <c r="N56">
+        <v>4.6</v>
+      </c>
+      <c r="O56">
+        <v>2.9</v>
+      </c>
+      <c r="P56">
+        <v>19.6</v>
+      </c>
+      <c r="Q56">
         <v>1.7</v>
       </c>
-      <c r="C56">
-        <v>1.4</v>
-      </c>
-      <c r="D56">
-        <v>7.5</v>
-      </c>
-      <c r="E56">
-        <v>37.2</v>
-      </c>
-      <c r="F56">
-        <v>11.4</v>
-      </c>
-      <c r="G56">
-        <v>0.5</v>
-      </c>
-      <c r="H56">
-        <v>2</v>
-      </c>
-      <c r="I56">
-        <v>13.5</v>
-      </c>
-      <c r="J56">
-        <v>1.6</v>
-      </c>
-      <c r="K56">
-        <v>0.7</v>
-      </c>
-      <c r="L56">
-        <v>1.9</v>
-      </c>
-      <c r="M56">
-        <v>0.7</v>
-      </c>
-      <c r="N56">
-        <v>0.1</v>
-      </c>
-      <c r="O56">
-        <v>9.4</v>
-      </c>
-      <c r="P56">
-        <v>59.5</v>
-      </c>
-      <c r="Q56">
-        <v>6.9</v>
-      </c>
       <c r="R56">
-        <v>33.5</v>
+        <v>78.59999999999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B57">
-        <v>20.4</v>
+        <v>20.1</v>
       </c>
       <c r="C57">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="D57">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="E57">
-        <v>54.5</v>
+        <v>12.4</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="G57">
-        <v>1.2</v>
+        <v>5.1</v>
       </c>
       <c r="H57">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="J57">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="K57">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="L57">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="M57">
-        <v>3</v>
+        <v>44.6</v>
       </c>
       <c r="N57">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O57">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="P57">
-        <v>20.5</v>
+        <v>16.8</v>
       </c>
       <c r="Q57">
-        <v>4.9</v>
+        <v>1.6</v>
       </c>
       <c r="R57">
-        <v>73.8</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Papua New Guinea</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="B58">
-        <v>6.7</v>
+        <v>0.3</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D58">
-        <v>4.2</v>
+        <v>28.6</v>
       </c>
       <c r="E58">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="F58">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="G58">
-        <v>6.6</v>
+        <v>32.8</v>
       </c>
       <c r="H58">
-        <v>15.3</v>
+        <v>1.1</v>
       </c>
       <c r="I58">
-        <v>9.6</v>
+        <v>0.9</v>
       </c>
       <c r="J58">
-        <v>29.3</v>
+        <v>13.9</v>
       </c>
       <c r="K58">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="L58">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N58">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O58">
-        <v>15.2</v>
+        <v>5.9</v>
       </c>
       <c r="P58">
-        <v>49.9</v>
+        <v>58.4</v>
       </c>
       <c r="Q58">
-        <v>13.2</v>
+        <v>27</v>
       </c>
       <c r="R58">
-        <v>35</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Sao Tome and Principe</t>
         </is>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>26.7</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>57.7</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -3795,236 +3795,236 @@
         <v>0</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N59">
         <v>0</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>57.8</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>13.1</v>
       </c>
       <c r="R59">
-        <v>0</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="B60">
-        <v>71.7</v>
+        <v>22.1</v>
       </c>
       <c r="C60">
-        <v>4.8</v>
+        <v>35.1</v>
       </c>
       <c r="D60">
-        <v>2.4</v>
+        <v>7.7</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H60">
         <v>0.1</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K60">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="M60">
-        <v>5.4</v>
+        <v>3.8</v>
       </c>
       <c r="N60">
-        <v>4.6</v>
+        <v>0.3</v>
       </c>
       <c r="O60">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
       <c r="P60">
-        <v>19.6</v>
+        <v>18.7</v>
       </c>
       <c r="Q60">
-        <v>1.7</v>
+        <v>5.8</v>
       </c>
       <c r="R60">
-        <v>78.59999999999999</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
       <c r="B61">
-        <v>20.1</v>
+        <v>1.6</v>
       </c>
       <c r="C61">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D61">
-        <v>3.2</v>
+        <v>16.2</v>
       </c>
       <c r="E61">
-        <v>12.4</v>
+        <v>14.8</v>
       </c>
       <c r="F61">
-        <v>3.5</v>
+        <v>24.7</v>
       </c>
       <c r="G61">
-        <v>5.1</v>
+        <v>1.9</v>
       </c>
       <c r="H61">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="I61">
-        <v>1.6</v>
+        <v>5.7</v>
       </c>
       <c r="J61">
-        <v>1.7</v>
+        <v>8.1</v>
       </c>
       <c r="K61">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
         <v>0.2</v>
       </c>
-      <c r="M61">
-        <v>44.6</v>
-      </c>
       <c r="N61">
         <v>0</v>
       </c>
       <c r="O61">
-        <v>0.2</v>
+        <v>15.7</v>
       </c>
       <c r="P61">
-        <v>16.8</v>
+        <v>64.3</v>
       </c>
       <c r="Q61">
-        <v>1.6</v>
+        <v>10.6</v>
       </c>
       <c r="R61">
-        <v>81.5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="B62">
+        <v>45.1</v>
+      </c>
+      <c r="C62">
+        <v>25.7</v>
+      </c>
+      <c r="D62">
+        <v>14.1</v>
+      </c>
+      <c r="E62">
+        <v>2.8</v>
+      </c>
+      <c r="F62">
+        <v>0.2</v>
+      </c>
+      <c r="G62">
         <v>0.3</v>
       </c>
-      <c r="C62">
-        <v>9</v>
-      </c>
-      <c r="D62">
-        <v>28.6</v>
-      </c>
-      <c r="E62">
-        <v>1.2</v>
-      </c>
-      <c r="F62">
-        <v>2.2</v>
-      </c>
-      <c r="G62">
-        <v>32.8</v>
-      </c>
       <c r="H62">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="I62">
+        <v>1.3</v>
+      </c>
+      <c r="J62">
         <v>0.9</v>
       </c>
-      <c r="J62">
-        <v>13.9</v>
-      </c>
       <c r="K62">
-        <v>0.1</v>
+        <v>2.1</v>
       </c>
       <c r="L62">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="M62">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O62">
-        <v>5.9</v>
+        <v>2.3</v>
       </c>
       <c r="P62">
-        <v>58.4</v>
+        <v>16.4</v>
       </c>
       <c r="Q62">
-        <v>27</v>
+        <v>4.5</v>
       </c>
       <c r="R62">
-        <v>14.1</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sao Tome and Principe</t>
+          <t>Tajikistan</t>
         </is>
       </c>
       <c r="B63">
-        <v>3.9</v>
+        <v>25.8</v>
       </c>
       <c r="C63">
-        <v>26.7</v>
+        <v>25</v>
       </c>
       <c r="D63">
-        <v>57.7</v>
+        <v>13.8</v>
       </c>
       <c r="E63">
-        <v>0.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F63">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="G63">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I63">
         <v>0.4</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M63">
         <v>0.1</v>
@@ -4033,508 +4033,508 @@
         <v>0</v>
       </c>
       <c r="O63">
-        <v>5.3</v>
+        <v>12.1</v>
       </c>
       <c r="P63">
-        <v>57.8</v>
+        <v>21.6</v>
       </c>
       <c r="Q63">
-        <v>13.1</v>
+        <v>2.3</v>
       </c>
       <c r="R63">
-        <v>25.5</v>
+        <v>75.3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Tanzania</t>
         </is>
       </c>
       <c r="B64">
-        <v>22.1</v>
+        <v>6.7</v>
       </c>
       <c r="C64">
-        <v>35.1</v>
+        <v>8.4</v>
       </c>
       <c r="D64">
-        <v>7.7</v>
+        <v>17.2</v>
       </c>
       <c r="E64">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="F64">
-        <v>3.3</v>
+        <v>8.9</v>
       </c>
       <c r="G64">
-        <v>0.1</v>
+        <v>2.2</v>
       </c>
       <c r="H64">
-        <v>0.1</v>
+        <v>2.4</v>
       </c>
       <c r="I64">
-        <v>13.6</v>
+        <v>17.5</v>
       </c>
       <c r="J64">
-        <v>0.1</v>
+        <v>6.7</v>
       </c>
       <c r="K64">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="L64">
-        <v>4.7</v>
+        <v>0.6</v>
       </c>
       <c r="M64">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="N64">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="O64">
-        <v>0.4</v>
+        <v>10.3</v>
       </c>
       <c r="P64">
-        <v>18.7</v>
+        <v>36.8</v>
       </c>
       <c r="Q64">
-        <v>5.8</v>
+        <v>22</v>
       </c>
       <c r="R64">
-        <v>75</v>
+        <v>40.9</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sierra Leone</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="B65">
-        <v>1.6</v>
+        <v>22.8</v>
       </c>
       <c r="C65">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="D65">
+        <v>23.6</v>
+      </c>
+      <c r="E65">
         <v>3.8</v>
       </c>
-      <c r="D65">
-        <v>16.2</v>
-      </c>
-      <c r="E65">
-        <v>14.8</v>
-      </c>
       <c r="F65">
-        <v>24.7</v>
+        <v>5.9</v>
       </c>
       <c r="G65">
-        <v>1.9</v>
+        <v>5.2</v>
       </c>
       <c r="H65">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="I65">
-        <v>5.7</v>
+        <v>3.4</v>
       </c>
       <c r="J65">
-        <v>8.1</v>
+        <v>12.5</v>
       </c>
       <c r="K65">
+        <v>0.8</v>
+      </c>
+      <c r="L65">
         <v>0.2</v>
       </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
       <c r="M65">
-        <v>0.2</v>
+        <v>5.3</v>
       </c>
       <c r="N65">
         <v>0</v>
       </c>
       <c r="O65">
-        <v>15.7</v>
+        <v>3.7</v>
       </c>
       <c r="P65">
-        <v>64.3</v>
+        <v>23.9</v>
       </c>
       <c r="Q65">
-        <v>10.6</v>
+        <v>7.7</v>
       </c>
       <c r="R65">
-        <v>23</v>
+        <v>65.90000000000001</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="B66">
-        <v>45.1</v>
+        <v>1.9</v>
       </c>
       <c r="C66">
-        <v>25.7</v>
+        <v>4.1</v>
       </c>
       <c r="D66">
-        <v>14.1</v>
+        <v>16</v>
       </c>
       <c r="E66">
-        <v>2.8</v>
+        <v>29.5</v>
       </c>
       <c r="F66">
-        <v>0.2</v>
+        <v>6.1</v>
       </c>
       <c r="G66">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H66">
+        <v>0.9</v>
+      </c>
+      <c r="I66">
+        <v>13.6</v>
+      </c>
+      <c r="J66">
         <v>0.5</v>
       </c>
-      <c r="I66">
-        <v>1.3</v>
-      </c>
-      <c r="J66">
-        <v>0.9</v>
-      </c>
       <c r="K66">
-        <v>2.1</v>
+        <v>0.1</v>
       </c>
       <c r="L66">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="M66">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="N66">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="O66">
-        <v>2.3</v>
+        <v>13.8</v>
       </c>
       <c r="P66">
-        <v>16.4</v>
+        <v>62.5</v>
       </c>
       <c r="Q66">
-        <v>4.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="R66">
-        <v>78.5</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Tajikistan</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="B67">
-        <v>25.8</v>
+        <v>49.9</v>
       </c>
       <c r="C67">
-        <v>25</v>
+        <v>0.4</v>
       </c>
       <c r="D67">
-        <v>13.8</v>
+        <v>1.7</v>
       </c>
       <c r="E67">
-        <v>9.300000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="F67">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="G67">
-        <v>1.2</v>
+        <v>7.6</v>
       </c>
       <c r="H67">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I67">
+        <v>0.1</v>
+      </c>
+      <c r="J67">
         <v>0.4</v>
       </c>
-      <c r="J67">
-        <v>1.8</v>
-      </c>
       <c r="K67">
-        <v>5.9</v>
+        <v>0.1</v>
       </c>
       <c r="L67">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M67">
-        <v>0.1</v>
+        <v>35.8</v>
       </c>
       <c r="N67">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O67">
-        <v>12.1</v>
+        <v>0.1</v>
       </c>
       <c r="P67">
-        <v>21.6</v>
+        <v>5.2</v>
       </c>
       <c r="Q67">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="R67">
-        <v>75.3</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Turkmenistan</t>
         </is>
       </c>
       <c r="B68">
-        <v>6.7</v>
+        <v>25.7</v>
       </c>
       <c r="C68">
-        <v>8.4</v>
+        <v>29.5</v>
       </c>
       <c r="D68">
-        <v>17.2</v>
+        <v>6.9</v>
       </c>
       <c r="E68">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="L68">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0.5</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>14.9</v>
+      </c>
+      <c r="Q68">
         <v>1.1</v>
       </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-      <c r="O68">
-        <v>10.3</v>
-      </c>
-      <c r="P68">
-        <v>36.8</v>
-      </c>
-      <c r="Q68">
-        <v>22</v>
-      </c>
       <c r="R68">
-        <v>40.9</v>
+        <v>81.40000000000001</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="B69">
-        <v>22.8</v>
+        <v>2.5</v>
       </c>
       <c r="C69">
-        <v>9.699999999999999</v>
+        <v>5</v>
       </c>
       <c r="D69">
-        <v>23.6</v>
+        <v>8.6</v>
       </c>
       <c r="E69">
-        <v>3.8</v>
+        <v>42.3</v>
       </c>
       <c r="F69">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="G69">
         <v>5.2</v>
       </c>
       <c r="H69">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="I69">
-        <v>3.4</v>
+        <v>11.7</v>
       </c>
       <c r="J69">
-        <v>12.5</v>
+        <v>6.1</v>
       </c>
       <c r="K69">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="L69">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="M69">
-        <v>5.3</v>
+        <v>0.7</v>
       </c>
       <c r="N69">
         <v>0</v>
       </c>
       <c r="O69">
-        <v>3.7</v>
+        <v>5.9</v>
       </c>
       <c r="P69">
-        <v>23.9</v>
+        <v>49.3</v>
       </c>
       <c r="Q69">
-        <v>7.7</v>
+        <v>29.5</v>
       </c>
       <c r="R69">
-        <v>65.90000000000001</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Togo</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B70">
-        <v>1.9</v>
+        <v>55.6</v>
       </c>
       <c r="C70">
+        <v>9.6</v>
+      </c>
+      <c r="D70">
+        <v>2.5</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+      <c r="F70">
+        <v>22</v>
+      </c>
+      <c r="G70">
+        <v>0.4</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>0.1</v>
+      </c>
+      <c r="K70">
+        <v>0.6</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
         <v>4.1</v>
       </c>
-      <c r="D70">
-        <v>16</v>
-      </c>
-      <c r="E70">
-        <v>29.5</v>
-      </c>
-      <c r="F70">
-        <v>6.1</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>0.9</v>
-      </c>
-      <c r="I70">
-        <v>13.6</v>
-      </c>
-      <c r="J70">
-        <v>0.5</v>
-      </c>
-      <c r="K70">
-        <v>0.1</v>
-      </c>
-      <c r="L70">
-        <v>0.1</v>
-      </c>
-      <c r="M70">
-        <v>0.5</v>
-      </c>
       <c r="N70">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O70">
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="P70">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>9.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="R70">
-        <v>27.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="B71">
-        <v>49.9</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>0.4</v>
+        <v>20.4</v>
       </c>
       <c r="D71">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="E71">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="I71">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K71">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="L71">
         <v>0</v>
       </c>
       <c r="M71">
-        <v>35.8</v>
+        <v>0.1</v>
       </c>
       <c r="N71">
         <v>0.1</v>
       </c>
       <c r="O71">
-        <v>0.1</v>
+        <v>6.2</v>
       </c>
       <c r="P71">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="R71">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Turkmenistan</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="B72">
-        <v>25.7</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>29.5</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>13.9</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -4543,433 +4543,143 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>4</v>
+        <v>12.7</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M72">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="N72">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P72">
-        <v>14.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q72">
-        <v>1.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="R72">
-        <v>81.40000000000001</v>
+        <v>87.8</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Zambia</t>
         </is>
       </c>
       <c r="B73">
-        <v>2.5</v>
+        <v>7.3</v>
       </c>
       <c r="C73">
-        <v>5</v>
+        <v>11.8</v>
       </c>
       <c r="D73">
-        <v>8.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E73">
-        <v>42.3</v>
+        <v>23.9</v>
       </c>
       <c r="F73">
-        <v>5.8</v>
+        <v>12.9</v>
       </c>
       <c r="G73">
-        <v>5.2</v>
+        <v>0.5</v>
       </c>
       <c r="H73">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="I73">
-        <v>11.7</v>
+        <v>17.2</v>
       </c>
       <c r="J73">
-        <v>6.1</v>
+        <v>2.8</v>
       </c>
       <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
         <v>0.3</v>
       </c>
-      <c r="L73">
-        <v>0.6</v>
-      </c>
-      <c r="M73">
-        <v>0.7</v>
-      </c>
       <c r="N73">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O73">
-        <v>5.9</v>
+        <v>7.6</v>
       </c>
       <c r="P73">
-        <v>49.3</v>
+        <v>52.6</v>
       </c>
       <c r="Q73">
-        <v>29.5</v>
+        <v>10.1</v>
       </c>
       <c r="R73">
-        <v>20.2</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="B74">
-        <v>55.6</v>
+        <v>14.1</v>
       </c>
       <c r="C74">
-        <v>9.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D74">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="E74">
-        <v>4</v>
+        <v>29.6</v>
       </c>
       <c r="F74">
-        <v>22</v>
+        <v>16.7</v>
       </c>
       <c r="G74">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H74">
         <v>0</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>10.9</v>
       </c>
       <c r="J74">
-        <v>0.1</v>
+        <v>3.3</v>
       </c>
       <c r="K74">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M74">
-        <v>4.1</v>
+        <v>0.5</v>
       </c>
       <c r="N74">
         <v>0.1</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="P74">
-        <v>0</v>
+        <v>45.4</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="R74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Uzbekistan</t>
-        </is>
-      </c>
-      <c r="B75">
-        <v>59.7</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>18</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0.2</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>2.3</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <v>0.3</v>
-      </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
-      <c r="O75">
-        <v>3.4</v>
-      </c>
-      <c r="P75">
-        <v>24.5</v>
-      </c>
-      <c r="Q75">
-        <v>2.3</v>
-      </c>
-      <c r="R75">
-        <v>72.5</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Vietnam</t>
-        </is>
-      </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="C76">
-        <v>20.4</v>
-      </c>
-      <c r="D76">
-        <v>1.4</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>11.8</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0.6</v>
-      </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="M76">
-        <v>0.1</v>
-      </c>
-      <c r="N76">
-        <v>0.1</v>
-      </c>
-      <c r="O76">
-        <v>6.2</v>
-      </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Yemen</t>
-        </is>
-      </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>13.9</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>2.2</v>
-      </c>
-      <c r="H77">
-        <v>3.4</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>12.7</v>
-      </c>
-      <c r="L77">
-        <v>0.5</v>
-      </c>
-      <c r="M77">
-        <v>11.5</v>
-      </c>
-      <c r="N77">
-        <v>0.8</v>
-      </c>
-      <c r="O77">
-        <v>2</v>
-      </c>
-      <c r="P77">
-        <v>3.2</v>
-      </c>
-      <c r="Q77">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="R77">
-        <v>87.8</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Zambia</t>
-        </is>
-      </c>
-      <c r="B78">
-        <v>7.3</v>
-      </c>
-      <c r="C78">
-        <v>11.8</v>
-      </c>
-      <c r="D78">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="E78">
-        <v>23.9</v>
-      </c>
-      <c r="F78">
-        <v>12.9</v>
-      </c>
-      <c r="G78">
-        <v>0.5</v>
-      </c>
-      <c r="H78">
-        <v>0.2</v>
-      </c>
-      <c r="I78">
-        <v>17.2</v>
-      </c>
-      <c r="J78">
-        <v>2.8</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78">
-        <v>0</v>
-      </c>
-      <c r="M78">
-        <v>0.3</v>
-      </c>
-      <c r="N78">
-        <v>0.1</v>
-      </c>
-      <c r="O78">
-        <v>7.6</v>
-      </c>
-      <c r="P78">
-        <v>52.6</v>
-      </c>
-      <c r="Q78">
-        <v>10.1</v>
-      </c>
-      <c r="R78">
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-      <c r="B79">
-        <v>14.1</v>
-      </c>
-      <c r="C79">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="D79">
-        <v>5.5</v>
-      </c>
-      <c r="E79">
-        <v>29.6</v>
-      </c>
-      <c r="F79">
-        <v>16.7</v>
-      </c>
-      <c r="G79">
-        <v>1.3</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>10.9</v>
-      </c>
-      <c r="J79">
-        <v>3.3</v>
-      </c>
-      <c r="K79">
-        <v>0.2</v>
-      </c>
-      <c r="L79">
-        <v>0.1</v>
-      </c>
-      <c r="M79">
-        <v>0.5</v>
-      </c>
-      <c r="N79">
-        <v>0.1</v>
-      </c>
-      <c r="O79">
-        <v>7.3</v>
-      </c>
-      <c r="P79">
-        <v>45.4</v>
-      </c>
-      <c r="Q79">
-        <v>16.5</v>
-      </c>
-      <c r="R79">
         <v>37.6</v>
       </c>
     </row>
